--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD1DC9A-ADA4-4921-B4B7-4FE5712D1AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E33A68-9529-45A3-9D36-A57400617496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="3" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" firstSheet="6" activeTab="9" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="abbreviations" sheetId="15" r:id="rId7"/>
     <sheet name="parameter_abbr" sheetId="24" r:id="rId8"/>
     <sheet name="references" sheetId="19" r:id="rId9"/>
-    <sheet name="calculations" sheetId="20" r:id="rId10"/>
-    <sheet name="connection_matrix+v2" sheetId="21" r:id="rId11"/>
+    <sheet name="price_list" sheetId="26" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="235">
   <si>
     <t>components</t>
   </si>
@@ -187,9 +186,6 @@
     <t>Glucose, pH</t>
   </si>
   <si>
-    <t>glu,pH</t>
-  </si>
-  <si>
     <t>yield_of</t>
   </si>
   <si>
@@ -199,18 +195,6 @@
     <t>fructose</t>
   </si>
   <si>
-    <t>carbon_input1</t>
-  </si>
-  <si>
-    <t>carbon_input2</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
     <t>Distilation 1</t>
   </si>
   <si>
@@ -271,18 +255,6 @@
     <t>mu_ut</t>
   </si>
   <si>
-    <t>g/L</t>
-  </si>
-  <si>
-    <t>kg/L</t>
-  </si>
-  <si>
-    <t>Feed added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water added </t>
-  </si>
-  <si>
     <t>Hoc</t>
   </si>
   <si>
@@ -337,18 +309,9 @@
     <t>REFERENCES economic parameters</t>
   </si>
   <si>
-    <t>carbon_input3</t>
-  </si>
-  <si>
     <t xml:space="preserve">xylose </t>
   </si>
   <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how much water to add depends on the initial concentration </t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
@@ -362,9 +325,6 @@
   </si>
   <si>
     <t>input_bounds</t>
-  </si>
-  <si>
-    <t>glu, fru</t>
   </si>
   <si>
     <t>{'pH':[5,8.5]}</t>
@@ -449,9 +409,6 @@
     <t>Distilation_3</t>
   </si>
   <si>
-    <t>glu, fru, glycerol</t>
-  </si>
-  <si>
     <t>P_acidi</t>
   </si>
   <si>
@@ -473,21 +430,9 @@
     <t>operation_bounds</t>
   </si>
   <si>
-    <t>porp</t>
-  </si>
-  <si>
-    <t>serpa1</t>
-  </si>
-  <si>
-    <t>serpa2</t>
-  </si>
-  <si>
     <t>y_acidi</t>
   </si>
   <si>
-    <t>y_frue</t>
-  </si>
-  <si>
     <t>y_avi</t>
   </si>
   <si>
@@ -504,15 +449,6 @@
   </si>
   <si>
     <t>y_NF</t>
-  </si>
-  <si>
-    <t>y_input1</t>
-  </si>
-  <si>
-    <t>y_input2</t>
-  </si>
-  <si>
-    <t>y_input3</t>
   </si>
   <si>
     <t>y_freu</t>
@@ -749,39 +685,6 @@
     <t>input_list</t>
   </si>
   <si>
-    <t>PAC_input.json</t>
-  </si>
-  <si>
-    <t>sherm_input.json</t>
-  </si>
-  <si>
-    <t>avidium_input.json</t>
-  </si>
-  <si>
-    <t>propionicum_input.json</t>
-  </si>
-  <si>
-    <t>acnes_input.json</t>
-  </si>
-  <si>
-    <t>carbon_input4</t>
-  </si>
-  <si>
-    <t>carbon_input5</t>
-  </si>
-  <si>
-    <t>carbon_input6</t>
-  </si>
-  <si>
-    <t>y_input4</t>
-  </si>
-  <si>
-    <t>y_input5</t>
-  </si>
-  <si>
-    <t>y_input6</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
@@ -798,13 +701,94 @@
   </si>
   <si>
     <t>propionicum_v2.json</t>
+  </si>
+  <si>
+    <t>Maltose</t>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>L-Lactate</t>
+  </si>
+  <si>
+    <t>D-Fructose</t>
+  </si>
+  <si>
+    <t>Xylose</t>
+  </si>
+  <si>
+    <t>Stachyose</t>
+  </si>
+  <si>
+    <t>Dextrin</t>
+  </si>
+  <si>
+    <t>Glycerol</t>
+  </si>
+  <si>
+    <t>D-Glucose</t>
+  </si>
+  <si>
+    <t>Propionate</t>
+  </si>
+  <si>
+    <t>Acetate</t>
+  </si>
+  <si>
+    <t>carbon_source</t>
+  </si>
+  <si>
+    <t>inputs_v2.json</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>D-Glucose,pH</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/sial/81910</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/sial/33209m</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/aldrich/158968</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/sigald/g7757</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/sial/31405</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/sigma/s4001</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/aldrich/w360600</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/mm/104007</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/aldrich/w261106</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/sigma/s9378</t>
+  </si>
+  <si>
+    <t>https://www.sigmaaldrich.com/ES/es/product/sial/m2250</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,6 +856,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3B3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -954,7 +960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1013,111 +1019,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1153,11 +1055,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1201,19 +1113,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1224,11 +1127,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1244,7 +1143,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,20 +1161,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2844,7 +2749,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>137763</xdr:colOff>
+      <xdr:colOff>136493</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>116366</xdr:rowOff>
     </xdr:to>
@@ -3046,15 +2951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>181610</xdr:colOff>
+      <xdr:colOff>174554</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:rowOff>31609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1175032</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>39370</xdr:rowOff>
+      <xdr:colOff>1167976</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81704</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3069,7 +2974,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7773388" y="1823720"/>
+          <a:off x="8020332" y="1682609"/>
           <a:ext cx="4591755" cy="1334206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3436,425 +3341,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>162242</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>144884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>211560</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>16299</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929A0913-D5E0-4497-BD47-A7934C84045D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11949430" y="3994572"/>
-          <a:ext cx="2906818" cy="3705227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100"/>
-            <a:t>connect by looking</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> at which streams connect to the next intervall (i.e wat are the reactor inputs and how are they connected to their outputs)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>0 -&gt; not connencted </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>1 -&gt; connected </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>mix in the same colunm indiacte that the outputs of the intervals are mixed</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>sep_nr = define which seperation stream goes where</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>split_nr = define which split stream goes where</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>options :</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>split, sep 0 or  1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>can be a combination </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>597216</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>310408</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>51118</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B6E699-CD2D-4A38-88BF-4D9197B5C743}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1756091" y="4332287"/>
-          <a:ext cx="3777192" cy="1941831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>green matrix: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>say from the all the posible substrate or from a subset of them, you only want to select one possibilty! you can by definbing the boolean variable in the diagonal of the green matix. in this case only one carbon source can be choosen because the equation y1 + y2 == 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>for a more complicated example see test_area </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>200872</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538F997F-4F45-41A1-B279-7A5B7DF9CB0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18496810" y="322157"/>
-          <a:ext cx="3307503" cy="3421170"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The diagonal of the matrix indicates whether a particular interval is affected by a boolean variable, with the exception of the input matrix where boolean variables are activated differently (as indicated in another box).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>If a string element (e.g., 'y_interval') appears in the diagonal slot of a column, the reaction equations or separation equations will always be accompanied by a boolean variable.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>To determine which boolean variables belong together, find the longest sequence of consecutively connected intervals on each row. For example, in the "carbon_input1" row, there are six consecutive 1's, indicating that all the interval columns with a boolean label are connected, as follows:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> "1 == y_acidi + y_avi + .... + y_open_fermentation".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="es-ES" sz="1100" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>572772</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>26457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361285</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>116366</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94254927-E313-BA75-FA91-003151D0909A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5795647" y="4423832"/>
-          <a:ext cx="5979763" cy="2463222"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4160,7 +3646,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4169,7 +3655,7 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
@@ -4209,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4">
         <v>500</v>
@@ -4217,14 +3703,14 @@
       <c r="D2" s="4">
         <v>1000</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.56999999999999995</v>
+      <c r="E2" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>234</v>
+      <c r="G2" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -4288,7 +3774,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E12:G12 H7:H8 H2:H4 E7:F8 E2:F4">
+  <conditionalFormatting sqref="E3:F4 E7:F8 E12:G12 H2:H4 H7:H8 F2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4300,1838 +3786,195 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5E6B06-BC4E-40C6-BE72-7273BEB1C476}">
-  <dimension ref="B2:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5896565C-0CFB-4158-9B0C-FB654BCEAE1A}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="15" thickBot="1">
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22">
-        <v>15</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="24"/>
-      <c r="E4">
-        <f>E3*10^-3</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="J4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="J5" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="24"/>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3">
+        <v>85.8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4">
+        <v>64.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5">
+        <v>74.8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6">
+        <v>61.1</v>
+      </c>
       <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="J6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="J7" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" s="9">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="24"/>
-      <c r="C8">
-        <v>100</v>
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7">
+        <v>381</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8">
+        <v>53.6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8">
-        <f>C8/$E$4</f>
-        <v>6666.666666666667</v>
-      </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="25">
-        <f>E8/C8</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="24"/>
-      <c r="C9">
-        <v>150</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9">
+        <v>53.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9">
-        <f>C9/$E$4</f>
-        <v>10000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="25">
-        <f>E9/C9</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P9" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="24">
-        <v>200</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10">
+        <v>52.3</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D15" si="0">B10/$E$4</f>
-        <v>13333.333333333334</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F15" si="1">D10/B10</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="J10" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="24">
-        <v>250</v>
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11">
+        <v>78.5</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>16666.666666666668</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G11" s="25"/>
-      <c r="J11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="24">
-        <v>300</v>
+        <v>61</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12">
+        <v>50.5</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="24">
-        <v>350</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>23333.333333333336</v>
-      </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="24">
-        <v>400</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>26666.666666666668</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1">
-      <c r="B15" s="26">
-        <v>450</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="27">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="27">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G15" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="49"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N5:N8 O9 O5:O7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B92B1C5-379D-4587-B23B-6C3AF487A07D}">
-  <dimension ref="A1:U21"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9">
-        <v>0</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>0</v>
-      </c>
-      <c r="R2" s="9">
-        <v>0</v>
-      </c>
-      <c r="S2" s="9">
-        <v>0</v>
-      </c>
-      <c r="T2" s="9">
-        <v>0</v>
-      </c>
-      <c r="U2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9">
-        <v>0</v>
-      </c>
-      <c r="S3" s="9">
-        <v>0</v>
-      </c>
-      <c r="T3" s="9">
-        <v>0</v>
-      </c>
-      <c r="U3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>0</v>
-      </c>
-      <c r="R4" s="9">
-        <v>0</v>
-      </c>
-      <c r="S4" s="9">
-        <v>0</v>
-      </c>
-      <c r="T4" s="9">
-        <v>0</v>
-      </c>
-      <c r="U4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9">
-        <v>0</v>
-      </c>
-      <c r="U5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="51">
-        <v>0</v>
-      </c>
-      <c r="R10" s="51">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-      <c r="S11" s="9">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0</v>
-      </c>
-      <c r="R13" s="9">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>0</v>
-      </c>
-      <c r="R14" s="9">
-        <v>0</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1">
-      <c r="A15" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="52">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="P15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0</v>
-      </c>
-      <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1">
-      <c r="A16" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="52">
-        <v>0</v>
-      </c>
-      <c r="O16" s="53">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="54">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="U18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
-      <c r="R19" s="9">
-        <v>0</v>
-      </c>
-      <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0</v>
-      </c>
-      <c r="T20" s="9">
-        <v>0</v>
-      </c>
-      <c r="U20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-      <c r="P21" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0</v>
-      </c>
-      <c r="R21" s="9">
-        <v>0</v>
-      </c>
-      <c r="S21" s="9">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9">
-        <v>0</v>
-      </c>
-      <c r="U21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B8:G21 H2:U21">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6140,8 +3983,8 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2:R7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6177,52 +4020,52 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>28</v>
@@ -6231,30 +4074,30 @@
         <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="18" t="s">
-        <v>90</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="20" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>220</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -6266,21 +4109,21 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="29">
-        <v>0</v>
-      </c>
-      <c r="N2" s="29">
+      <c r="M2" s="21">
+        <v>0</v>
+      </c>
+      <c r="N2" s="21">
         <v>0</v>
       </c>
       <c r="O2" s="4">
@@ -6291,13 +4134,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q2" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6306,24 +4149,24 @@
         <v>0</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="20" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>132</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>220</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -6335,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L3" s="4">
         <v>0</v>
@@ -6360,13 +4203,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q3" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6375,24 +4218,24 @@
         <v>0</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="20" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>220</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -6404,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
@@ -6429,13 +4272,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6444,24 +4287,24 @@
         <v>0</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="20" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>220</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -6473,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -6498,13 +4341,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q5" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6513,24 +4356,24 @@
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="20" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>220</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -6542,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
@@ -6567,13 +4410,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q6" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6582,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -6593,15 +4436,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>132</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>220</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="29">
+        <v>74</v>
+      </c>
+      <c r="F7" s="21">
         <v>0</v>
       </c>
       <c r="G7" s="4">
@@ -6611,38 +4454,38 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>155</v>
+      <c r="M7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -6651,42 +4494,42 @@
         <v>0</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -6694,23 +4537,23 @@
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="29">
-        <v>0</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>155</v>
+      <c r="N8" s="21">
+        <v>0</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="P8">
         <v>0.05</v>
       </c>
       <c r="Q8" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R8" s="4">
         <v>0</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -6724,19 +4567,19 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -6748,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -6762,10 +4605,10 @@
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="29">
-        <v>0</v>
-      </c>
-      <c r="O9" s="29">
+      <c r="N9" s="21">
+        <v>0</v>
+      </c>
+      <c r="O9" s="21">
         <v>0</v>
       </c>
       <c r="P9">
@@ -6773,13 +4616,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="Q9" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R9" s="4">
         <v>0</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -6793,19 +4636,19 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -6813,41 +4656,41 @@
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="25">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="29" t="s">
-        <v>201</v>
+      <c r="N10" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="P10" s="44">
+        <v>177</v>
+      </c>
+      <c r="P10" s="33">
         <v>0.08</v>
       </c>
       <c r="Q10" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R10" s="4">
         <v>0</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -6856,24 +4699,24 @@
         <v>0</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -6885,63 +4728,63 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>198</v>
+      <c r="N11" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="P11">
         <v>0.08</v>
       </c>
       <c r="Q11" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R11" s="4">
         <v>0</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="19" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4">
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -6953,37 +4796,37 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>198</v>
+      <c r="N12" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="P12">
         <v>0.08</v>
       </c>
       <c r="Q12" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="R12" s="4">
         <v>0</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -6992,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -7008,7 +4851,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7030,60 +4873,60 @@
         <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="20" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>1E-3</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>2.2000000000000002</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="42">
+        <v>62</v>
+      </c>
+      <c r="F2" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -7095,33 +4938,33 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="20" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>1E-3</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>2.2000000000000002</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="42">
+        <v>62</v>
+      </c>
+      <c r="F3" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -7133,33 +4976,33 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="20" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>1E-3</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>2.2000000000000002</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="42">
+        <v>62</v>
+      </c>
+      <c r="F4" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -7171,33 +5014,33 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="20" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>1E-3</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>2.2000000000000002</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="42">
+        <v>62</v>
+      </c>
+      <c r="F5" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -7209,33 +5052,33 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="20" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>1E-3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>2.2000000000000002</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="42">
+        <v>62</v>
+      </c>
+      <c r="F6" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>1000</v>
@@ -7247,10 +5090,10 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7261,19 +5104,19 @@
         <v>1E-3</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>2.2000000000000002</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="42">
+        <v>62</v>
+      </c>
+      <c r="F7" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -7285,33 +5128,33 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0.05</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>2.2000000000000002</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="42">
+        <v>62</v>
+      </c>
+      <c r="F8" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -7323,33 +5166,33 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>2.2000000000000002</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="42">
+        <v>62</v>
+      </c>
+      <c r="F9" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H9">
         <v>1000</v>
@@ -7361,33 +5204,33 @@
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>2.2000000000000002</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="42">
+        <v>62</v>
+      </c>
+      <c r="F10" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>1000</v>
@@ -7399,33 +5242,33 @@
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>2.2000000000000002</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="42">
+        <v>62</v>
+      </c>
+      <c r="F11" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>1000</v>
@@ -7437,33 +5280,33 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="19" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>2.2000000000000002</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="42">
+        <v>62</v>
+      </c>
+      <c r="F12" s="31">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>1000</v>
@@ -7475,10 +5318,10 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -7492,9 +5335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC952C-F64C-4F30-9DDA-924F82AF01AE}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -7514,58 +5357,58 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="49" t="s">
+      <c r="B1" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>101</v>
+      <c r="P1" s="24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>149</v>
+      <c r="A2" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -7611,14 +5454,14 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="49" t="s">
-        <v>131</v>
+      <c r="A3" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -7661,8 +5504,8 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="49" t="s">
-        <v>132</v>
+      <c r="A4" s="38" t="s">
+        <v>118</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -7671,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -7711,8 +5554,8 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="49" t="s">
-        <v>133</v>
+      <c r="A5" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -7724,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -7741,13 +5584,13 @@
       <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="51">
-        <v>0</v>
-      </c>
-      <c r="L5" s="51">
-        <v>0</v>
-      </c>
-      <c r="M5" s="51">
+      <c r="K5" s="40">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40">
+        <v>0</v>
+      </c>
+      <c r="M5" s="40">
         <v>0</v>
       </c>
       <c r="N5" s="9">
@@ -7761,8 +5604,8 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="49" t="s">
-        <v>134</v>
+      <c r="A6" s="38" t="s">
+        <v>120</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -7777,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -7811,8 +5654,8 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="49" t="s">
-        <v>135</v>
+      <c r="A7" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -7830,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -7861,7 +5704,7 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="9">
@@ -7883,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -7911,8 +5754,8 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="32" t="s">
-        <v>58</v>
+      <c r="A9" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -7936,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -7961,8 +5804,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1">
-      <c r="A10" s="32" t="s">
-        <v>59</v>
+      <c r="A10" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -7985,11 +5828,11 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="41">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -8011,8 +5854,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1">
-      <c r="A11" s="32" t="s">
-        <v>127</v>
+      <c r="A11" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -8056,13 +5899,13 @@
       <c r="O11" s="9">
         <v>0</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="P11" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="32" t="s">
-        <v>128</v>
+      <c r="A12" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -8111,8 +5954,8 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="32" t="s">
-        <v>129</v>
+      <c r="A13" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -8161,7 +6004,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="9">
@@ -8211,7 +6054,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="9">
@@ -8261,8 +6104,8 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="33" t="s">
-        <v>101</v>
+      <c r="A16" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -8311,7 +6154,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B8 I3:P8 C2:P2 D3:H3 H4:H7 G4:G6 F4:F5 E4 C8:G8 C4:C7 D5:D7 E6:E7 F7 B9:P16">
+  <conditionalFormatting sqref="B3:B8 B9:P16 C4:C7 C8:G8 C2:P2 D5:D7 D3:H3 E4 E6:E7 F4:F5 F7 G4:G6 H4:H7 I3:P8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8321,7 +6164,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 C3 G7 F6 E5 D4">
+  <conditionalFormatting sqref="C3 D4 E5 F6 G7 H8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8343,7 +6186,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -8353,7 +6196,7 @@
     <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
@@ -8364,7 +6207,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -8376,7 +6219,7 @@
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>33</v>
@@ -8390,191 +6233,191 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="48">
-        <v>0</v>
-      </c>
-      <c r="D2" s="48">
-        <v>0</v>
-      </c>
-      <c r="E2" s="48">
-        <v>0</v>
-      </c>
-      <c r="F2" s="48">
+        <v>203</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37">
+        <v>0</v>
+      </c>
+      <c r="F2" s="37">
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="48">
-        <v>0</v>
-      </c>
-      <c r="D3" s="48">
-        <v>0</v>
-      </c>
-      <c r="E3" s="48">
-        <v>0</v>
-      </c>
-      <c r="F3" s="48">
+        <v>204</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0</v>
+      </c>
+      <c r="F3" s="37">
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="48">
-        <v>0</v>
-      </c>
-      <c r="D4" s="48">
-        <v>0</v>
-      </c>
-      <c r="E4" s="48">
-        <v>0</v>
-      </c>
-      <c r="F4" s="48">
+        <v>205</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="48">
-        <v>0</v>
-      </c>
-      <c r="D5" s="48">
-        <v>0</v>
-      </c>
-      <c r="E5" s="48">
-        <v>0</v>
-      </c>
-      <c r="F5" s="48">
+        <v>206</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37">
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="48">
-        <v>0</v>
-      </c>
-      <c r="D6" s="48">
-        <v>0</v>
-      </c>
-      <c r="E6" s="48">
-        <v>0</v>
-      </c>
-      <c r="F6" s="48">
+        <v>207</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0</v>
+      </c>
+      <c r="F6" s="37">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>213</v>
+      <c r="E7" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="H9" s="43"/>
+      <c r="H9" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8602,101 +6445,101 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="K1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="L1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="M1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="N1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="40">
+      <c r="C2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="29">
         <v>0.95</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="29">
         <v>0.05</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="30">
         <f xml:space="preserve"> 25 +273</f>
         <v>298</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="30">
         <f>90 + 273</f>
         <v>363</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="30">
         <f>125 + 273</f>
         <v>398</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="30">
         <v>0.18</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="30">
         <v>0.5</v>
       </c>
-      <c r="K2" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="M2" s="41">
+      <c r="K2" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="30">
         <v>100</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="38" t="s">
-        <v>190</v>
+      <c r="A3" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D3" s="13">
         <v>0.95</v>
@@ -8704,46 +6547,46 @@
       <c r="E3" s="13">
         <v>0.05</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="30">
         <f t="shared" ref="F3:F4" si="0" xml:space="preserve"> 25 +273</f>
         <v>298</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="30">
         <f t="shared" ref="G3:G4" si="1">90 + 273</f>
         <v>363</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="30">
         <f t="shared" ref="H3:H4" si="2">125 + 273</f>
         <v>398</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="30">
         <v>0.18</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="30">
         <v>0.5</v>
       </c>
-      <c r="K3" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="41">
+      <c r="K3" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="30">
         <v>100</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="38" t="s">
-        <v>191</v>
+      <c r="A4" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D4" s="13">
         <v>0.95</v>
@@ -8751,34 +6594,34 @@
       <c r="E4" s="13">
         <v>0.05</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="30">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="30">
         <f t="shared" si="1"/>
         <v>363</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="30">
         <f t="shared" si="2"/>
         <v>398</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="30">
         <v>0.18</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="30">
         <v>0.5</v>
       </c>
-      <c r="K4" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="41">
+      <c r="K4" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="30">
         <v>100</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="30">
         <v>80</v>
       </c>
     </row>
@@ -8789,10 +6632,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFEA29F-1D3A-4383-97E1-D31836BA3887}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -8866,50 +6709,58 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8932,134 +6783,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9088,10 +6939,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9099,28 +6950,28 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -9129,319 +6980,319 @@
       <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>218</v>
+      <c r="B4" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>218</v>
+      <c r="B5" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>218</v>
+      <c r="B6" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>218</v>
+      <c r="B7" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>218</v>
+      <c r="B8" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>218</v>
+      <c r="B9" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>206</v>
+        <v>187</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>215</v>
+        <v>194</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>194</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>218</v>
+        <v>54</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>197</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>221</v>
+        <v>51</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>221</v>
+        <v>52</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:12">

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E33A68-9529-45A3-9D36-A57400617496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AAD6F5-FE8F-48E7-B367-8B559C68DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" firstSheet="6" activeTab="9" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="parameter_abbr" sheetId="24" r:id="rId8"/>
     <sheet name="references" sheetId="19" r:id="rId9"/>
     <sheet name="price_list" sheetId="26" r:id="rId10"/>
+    <sheet name="final_conc_reactors" sheetId="27" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="247">
   <si>
     <t>components</t>
   </si>
@@ -255,6 +256,9 @@
     <t>mu_ut</t>
   </si>
   <si>
+    <t>g/L</t>
+  </si>
+  <si>
     <t>Hoc</t>
   </si>
   <si>
@@ -313,9 +317,6 @@
   </si>
   <si>
     <t>waste</t>
-  </si>
-  <si>
-    <t>kgH2O/kgFeed</t>
   </si>
   <si>
     <t>kgHoc/kgFEED</t>
@@ -424,9 +425,6 @@
     <t>P_pro</t>
   </si>
   <si>
-    <t>operational_variables</t>
-  </si>
-  <si>
     <t>operation_bounds</t>
   </si>
   <si>
@@ -469,9 +467,6 @@
     <t>units</t>
   </si>
   <si>
-    <t>COPY operation_bounds</t>
-  </si>
-  <si>
     <t>[0.95, 0.95, 0.95, 0] ; [0.05, 0.05, 0.05, 1]</t>
   </si>
   <si>
@@ -583,22 +578,10 @@
     <t>Hpro</t>
   </si>
   <si>
-    <t>{'x_D':[0,8,0,95]}</t>
-  </si>
-  <si>
-    <t>x_D</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>parameter</t>
   </si>
   <si>
     <t>discription</t>
-  </si>
-  <si>
-    <t>{'x_D':0,95,}</t>
   </si>
   <si>
     <t>energy_consumption</t>
@@ -783,12 +766,66 @@
   <si>
     <t>price</t>
   </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concentration </t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>sherm</t>
+  </si>
+  <si>
+    <t>avidum</t>
+  </si>
+  <si>
+    <t>acnes</t>
+  </si>
+  <si>
+    <t>propionicum</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S1369-703X(99)00042-X</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1023/A:1014562504882</t>
+  </si>
+  <si>
+    <t>ref2</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/epdf/10.1002/bit.22437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in general? </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>34-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactor type </t>
+  </si>
+  <si>
+    <t>fed-batch</t>
+  </si>
+  <si>
+    <t>fed-batch (FFB, biomass contained in fibers)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,6 +914,12 @@
       <sz val="8"/>
       <color rgb="FF3B3A3A"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1069,7 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1113,9 +1156,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1123,7 +1163,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1139,7 +1178,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1167,9 +1205,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1178,6 +1213,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1585,13 +1636,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>34290</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1172210</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2540</xdr:rowOff>
@@ -1743,13 +1794,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1231900</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
@@ -1911,13 +1962,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>189230</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
@@ -1934,8 +1985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11085830" y="2438400"/>
-          <a:ext cx="1849120" cy="2247900"/>
+          <a:off x="11244580" y="2438400"/>
+          <a:ext cx="1258570" cy="2247900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2011,16 +2062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>157480</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>154940</xdr:rowOff>
+      <xdr:rowOff>173990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1195070</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1277620</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>119380</xdr:rowOff>
+      <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2035,7 +2086,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3776980" y="2364740"/>
+          <a:off x="8806180" y="2383790"/>
           <a:ext cx="1037590" cy="1805940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2081,16 +2132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>875030</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1498600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2105,8 +2156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13105130" y="2444750"/>
-          <a:ext cx="1766570" cy="1085850"/>
+          <a:off x="9886950" y="4864100"/>
+          <a:ext cx="1295400" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2156,7 +2207,15 @@
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t> purity (x_D) could also be a variable at the end of the day aswell you know...</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>{'x_D':[0,8,0,95]}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2164,16 +2223,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>93980</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1212850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2188,8 +2247,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15695930" y="2622550"/>
-          <a:ext cx="1684020" cy="723900"/>
+          <a:off x="12463780" y="2622550"/>
+          <a:ext cx="1118870" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2743,22 +2802,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>182562</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>26457</xdr:rowOff>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136493</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>116366</xdr:rowOff>
+      <xdr:colOff>611188</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>21748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B87D2A-056E-48D9-9D5D-F163543B0453}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD857D0A-2125-75AD-2D4B-0F87877E81A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,8 +2833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3222625" y="3328457"/>
-          <a:ext cx="5979763" cy="2463222"/>
+          <a:off x="3159125" y="3165146"/>
+          <a:ext cx="6516688" cy="3079602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3646,7 +3705,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3657,7 +3716,7 @@
     <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -3695,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C2" s="4">
         <v>500</v>
@@ -3703,14 +3762,14 @@
       <c r="D2" s="4">
         <v>1000</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>220</v>
+      <c r="E2" s="39" t="s">
+        <v>214</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>220</v>
+      <c r="G2" s="39" t="s">
+        <v>214</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -3732,8 +3791,8 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
-        <v>1.1499999999999999</v>
+      <c r="F3">
+        <v>50.5</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>17</v>
@@ -3758,8 +3817,8 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>1.26</v>
+      <c r="F4">
+        <v>78.5</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
@@ -3774,7 +3833,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E3:F4 E7:F8 E12:G12 H2:H4 H7:H8 F2">
+  <conditionalFormatting sqref="E7:F8 E12:G12 H2:H4 H7:H8 E3:E4 F2:F4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3789,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5896565C-0CFB-4158-9B0C-FB654BCEAE1A}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3804,7 +3863,7 @@
         <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
@@ -3814,8 +3873,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="32" t="s">
-        <v>208</v>
+      <c r="A2" s="30" t="s">
+        <v>202</v>
       </c>
       <c r="B2">
         <v>222</v>
@@ -3824,12 +3883,12 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
-        <v>209</v>
+      <c r="A3" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="B3">
         <v>85.8</v>
@@ -3838,12 +3897,12 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
-        <v>210</v>
+      <c r="A4" s="30" t="s">
+        <v>204</v>
       </c>
       <c r="B4">
         <v>64.3</v>
@@ -3852,12 +3911,12 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="32" t="s">
-        <v>211</v>
+      <c r="A5" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="B5">
         <v>74.8</v>
@@ -3866,12 +3925,12 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="32" t="s">
-        <v>212</v>
+      <c r="A6" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="B6">
         <v>61.1</v>
@@ -3880,12 +3939,12 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32" t="s">
-        <v>213</v>
+      <c r="A7" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="B7">
         <v>381</v>
@@ -3894,12 +3953,12 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32" t="s">
-        <v>214</v>
+      <c r="A8" s="30" t="s">
+        <v>208</v>
       </c>
       <c r="B8">
         <v>53.6</v>
@@ -3908,12 +3967,12 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="32" t="s">
-        <v>215</v>
+      <c r="A9" s="30" t="s">
+        <v>209</v>
       </c>
       <c r="B9">
         <v>53.3</v>
@@ -3922,12 +3981,12 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="32" t="s">
-        <v>216</v>
+      <c r="A10" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="B10">
         <v>52.3</v>
@@ -3936,12 +3995,12 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="32" t="s">
-        <v>217</v>
+      <c r="A11" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="B11">
         <v>78.5</v>
@@ -3949,14 +4008,14 @@
       <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="49"/>
+      <c r="D11" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="32" t="s">
-        <v>218</v>
+      <c r="A12" s="30" t="s">
+        <v>212</v>
       </c>
       <c r="B12">
         <v>50.5</v>
@@ -3965,12 +4024,12 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="49"/>
+        <v>218</v>
+      </c>
+      <c r="E12" s="45"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="49"/>
+      <c r="A14" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3978,13 +4037,129 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7C6831-8C7B-4CA3-B2A4-37C4E254EDCB}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="4">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="4">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{1EBDD0B1-65A3-4293-9FAC-06E30BF8677E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85D0432-6958-423D-87F2-E8A979C87816}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3993,849 +4168,775 @@
     <col min="2" max="3" width="17.26953125" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="M1" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="R1" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="46">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="C2" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="46">
+        <v>0</v>
+      </c>
+      <c r="G2" s="46">
+        <v>0</v>
+      </c>
+      <c r="H2" s="46">
+        <v>0</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="21">
-        <v>0</v>
-      </c>
-      <c r="N2" s="21">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="K2" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="48">
+        <v>0</v>
+      </c>
+      <c r="M2" s="46">
+        <v>0</v>
+      </c>
+      <c r="N2" s="46">
         <f xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>138</v>
+      <c r="O2" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="46">
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="U2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="46">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="C3" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P7" si="0" xml:space="preserve"> 0.5*0.001</f>
+      <c r="K3" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="46">
+        <v>0</v>
+      </c>
+      <c r="M3" s="46">
+        <v>0</v>
+      </c>
+      <c r="N3" s="46">
+        <f t="shared" ref="N3:N7" si="0" xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>138</v>
+      <c r="O3" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" s="46">
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="U3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="46">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="C4" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0</v>
+      </c>
+      <c r="H4" s="46">
+        <v>0</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="K4" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="46">
+        <v>0</v>
+      </c>
+      <c r="M4" s="46">
+        <v>0</v>
+      </c>
+      <c r="N4" s="46">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q4" t="s">
-        <v>182</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>138</v>
+      <c r="O4" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="46">
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="U4" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="46">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="C5" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="K5" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="46">
+        <v>0</v>
+      </c>
+      <c r="M5" s="46">
+        <v>0</v>
+      </c>
+      <c r="N5" s="46">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q5" t="s">
-        <v>182</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>138</v>
+      <c r="O5" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="46">
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="U5" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="46">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="C6" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46">
+        <v>0</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="K6" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="46">
+        <v>0</v>
+      </c>
+      <c r="M6" s="46">
+        <v>0</v>
+      </c>
+      <c r="N6" s="46">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q6" t="s">
-        <v>182</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>138</v>
+      <c r="O6" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="46">
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="U6" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="46">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="26" t="s">
+      <c r="C7" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="48">
+        <v>0</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="21" t="s">
+      <c r="K7" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7">
+      <c r="M7" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="46">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="O7" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>138</v>
+      <c r="Q7" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="46">
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="U7" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="46">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8">
+      <c r="E8" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="46">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="21">
-        <v>0</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="P8">
+      <c r="J8" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="46">
+        <v>0</v>
+      </c>
+      <c r="M8" s="48">
+        <v>0</v>
+      </c>
+      <c r="N8" s="46">
         <v>0.05</v>
       </c>
-      <c r="Q8" t="s">
-        <v>182</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="s">
+      <c r="O8" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P8" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="46" t="s">
         <v>109</v>
       </c>
+      <c r="R8" s="46">
+        <v>0</v>
+      </c>
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="46">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="F9" s="46">
+        <v>0</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="21">
-        <v>0</v>
-      </c>
-      <c r="O9" s="21">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="L9" s="46">
+        <v>0</v>
+      </c>
+      <c r="M9" s="48">
+        <v>0</v>
+      </c>
+      <c r="N9" s="46">
         <f>2.5*10^(-3)</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="Q9" t="s">
-        <v>182</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="s">
+      <c r="O9" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="46" t="s">
         <v>110</v>
       </c>
+      <c r="R9" s="46">
+        <v>0</v>
+      </c>
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="46">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="E10" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="46">
+        <v>0</v>
+      </c>
+      <c r="M10" s="48">
+        <v>0</v>
+      </c>
+      <c r="N10" s="48">
+        <v>0.08</v>
+      </c>
+      <c r="O10" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P10" s="33">
-        <v>0.08</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>182</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="P10" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="46" t="s">
         <v>111</v>
       </c>
+      <c r="R10" s="46">
+        <v>0</v>
+      </c>
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="U10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="46">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="E11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="F11" s="46">
+        <v>0</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="46">
+        <v>0</v>
+      </c>
+      <c r="M11" s="48">
+        <v>0</v>
+      </c>
+      <c r="N11" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="O11" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="P11">
-        <v>0.08</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>182</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4" t="s">
+      <c r="P11" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="V11" t="s">
-        <v>83</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="R11" s="46">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="46">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="E12" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="46">
+        <v>0</v>
+      </c>
+      <c r="M12" s="48">
+        <v>0</v>
+      </c>
+      <c r="N12" s="46">
+        <v>0.08</v>
+      </c>
+      <c r="O12" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="P12">
-        <v>0.08</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>182</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="s">
+      <c r="P12" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="46" t="s">
         <v>113</v>
       </c>
+      <c r="R12" s="46">
+        <v>0</v>
+      </c>
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>80</v>
+      <c r="U12" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4851,7 +4952,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4922,8 +5023,8 @@
       <c r="E2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F2" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>61</v>
@@ -4960,8 +5061,8 @@
       <c r="E3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F3" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>61</v>
@@ -4998,8 +5099,8 @@
       <c r="E4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F4" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>61</v>
@@ -5036,8 +5137,8 @@
       <c r="E5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F5" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>61</v>
@@ -5074,8 +5175,8 @@
       <c r="E6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F6" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>61</v>
@@ -5112,8 +5213,8 @@
       <c r="E7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F7" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>61</v>
@@ -5150,8 +5251,8 @@
       <c r="E8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F8" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>61</v>
@@ -5188,8 +5289,8 @@
       <c r="E9" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F9" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>61</v>
@@ -5226,8 +5327,8 @@
       <c r="E10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F10" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>61</v>
@@ -5264,8 +5365,8 @@
       <c r="E11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F11" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>61</v>
@@ -5302,8 +5403,8 @@
       <c r="E12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="31">
-        <v>2.0000000000000001E-4</v>
+      <c r="F12" s="29">
+        <v>1E-10</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>61</v>
@@ -5335,9 +5436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC952C-F64C-4F30-9DDA-924F82AF01AE}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5357,25 +5458,25 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="35" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="20" t="s">
@@ -5393,19 +5494,19 @@
       <c r="M1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>89</v>
+      <c r="P1" s="23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="39" t="s">
-        <v>219</v>
+      <c r="A2" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="B2" s="14">
         <v>0</v>
@@ -5454,14 +5555,14 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="35" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -5504,7 +5605,7 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>118</v>
       </c>
       <c r="B4" s="9">
@@ -5514,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -5554,7 +5655,7 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="9">
@@ -5567,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -5584,13 +5685,13 @@
       <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="40">
-        <v>0</v>
-      </c>
-      <c r="L5" s="40">
-        <v>0</v>
-      </c>
-      <c r="M5" s="40">
+      <c r="K5" s="37">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0</v>
+      </c>
+      <c r="M5" s="37">
         <v>0</v>
       </c>
       <c r="N5" s="9">
@@ -5604,7 +5705,7 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="9">
@@ -5620,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -5654,7 +5755,7 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="9">
@@ -5673,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -5704,7 +5805,7 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="35" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="9">
@@ -5726,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -5754,7 +5855,7 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="9">
@@ -5779,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -5804,7 +5905,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="9">
@@ -5828,11 +5929,11 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="38">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -5854,7 +5955,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="9">
@@ -5899,12 +6000,12 @@
       <c r="O11" s="9">
         <v>0</v>
       </c>
-      <c r="P11" s="35" t="s">
+      <c r="P11" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="9">
@@ -5954,7 +6055,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="9">
@@ -6004,7 +6105,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="9">
@@ -6054,7 +6155,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="9">
@@ -6104,8 +6205,8 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="24" t="s">
-        <v>89</v>
+      <c r="A16" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="B16" s="9">
         <v>0</v>
@@ -6184,9 +6285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8D8FB7-0FD2-42C3-9D82-0A6D9AE32488}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -6207,7 +6308,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -6233,191 +6334,191 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="37">
-        <v>0</v>
-      </c>
-      <c r="D2" s="37">
-        <v>0</v>
-      </c>
-      <c r="E2" s="37">
-        <v>0</v>
-      </c>
-      <c r="F2" s="37">
+        <v>197</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34">
+        <v>0</v>
+      </c>
+      <c r="F2" s="34">
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="37">
-        <v>0</v>
-      </c>
-      <c r="D3" s="37">
-        <v>0</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0</v>
-      </c>
-      <c r="F3" s="37">
+        <v>198</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="37">
-        <v>0</v>
-      </c>
-      <c r="D4" s="37">
-        <v>0</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
+        <v>199</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="37">
-        <v>0</v>
-      </c>
-      <c r="D5" s="37">
-        <v>0</v>
-      </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
+        <v>200</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="37">
-        <v>0</v>
-      </c>
-      <c r="D6" s="37">
-        <v>0</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="37">
+        <v>201</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0</v>
+      </c>
+      <c r="F6" s="34">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="37">
-        <v>0</v>
-      </c>
-      <c r="C7" s="45">
-        <v>0</v>
-      </c>
-      <c r="D7" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="34">
+        <v>0</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="45" t="s">
+      <c r="E7" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="46">
-        <v>0</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>192</v>
+      <c r="F7" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="27"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="H9" s="32"/>
+      <c r="H9" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6445,98 +6546,98 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>145</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>148</v>
       </c>
-      <c r="M1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="A2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="27">
         <v>0.95</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="27">
         <v>0.05</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="28">
         <f xml:space="preserve"> 25 +273</f>
         <v>298</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="28">
         <f>90 + 273</f>
         <v>363</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="28">
         <f>125 + 273</f>
         <v>398</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="28">
         <v>0.18</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="28">
         <v>0.5</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M2" s="30">
+      <c r="M2" s="28">
         <v>100</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="28">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="27" t="s">
-        <v>169</v>
+      <c r="A3" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>101</v>
@@ -6547,46 +6648,46 @@
       <c r="E3" s="13">
         <v>0.05</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="28">
         <f t="shared" ref="F3:F4" si="0" xml:space="preserve"> 25 +273</f>
         <v>298</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="28">
         <f t="shared" ref="G3:G4" si="1">90 + 273</f>
         <v>363</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <f t="shared" ref="H3:H4" si="2">125 + 273</f>
         <v>398</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="28">
         <v>0.18</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="28">
         <v>0.5</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="L3" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M3" s="30">
+      <c r="M3" s="28">
         <v>100</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="28">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="27" t="s">
-        <v>170</v>
+      <c r="A4" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="13">
         <v>0.95</v>
@@ -6594,34 +6695,34 @@
       <c r="E4" s="13">
         <v>0.05</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="28">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="28">
         <f t="shared" si="1"/>
         <v>363</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="28">
         <f t="shared" si="2"/>
         <v>398</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="28">
         <v>0.18</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="28">
         <v>0.5</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4" s="30">
+      <c r="M4" s="28">
         <v>100</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="28">
         <v>80</v>
       </c>
     </row>
@@ -6720,7 +6821,7 @@
         <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6741,7 +6842,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
@@ -6757,10 +6858,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6783,10 +6884,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
@@ -6794,123 +6895,123 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6939,10 +7040,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6950,19 +7051,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>55</v>
@@ -6980,174 +7081,174 @@
       <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>197</v>
+      <c r="B4" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>197</v>
+      <c r="B5" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>197</v>
+      <c r="B6" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>197</v>
+      <c r="B7" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>197</v>
+      <c r="B8" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>197</v>
+      <c r="B9" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7155,57 +7256,57 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>197</v>
+      <c r="B11" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7213,86 +7314,86 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>200</v>
+      <c r="B13" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>200</v>
+      <c r="B14" s="33" t="s">
+        <v>194</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:12">

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AAD6F5-FE8F-48E7-B367-8B559C68DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF62FEC5-EF7B-4EEF-A34D-2E56D66846FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="248">
   <si>
     <t>components</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>fed-batch (FFB, biomass contained in fibers)</t>
+  </si>
+  <si>
+    <t>Distillation_2.json</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1205,12 +1208,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3833,7 +3833,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E7:F8 E12:G12 H2:H4 H7:H8 E3:E4 F2:F4">
+  <conditionalFormatting sqref="E3:E4 E7:F8 E12:G12 F2:F4 H2:H4 H7:H8">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4008,10 +4008,10 @@
       <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="45"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="30" t="s">
@@ -4026,10 +4026,10 @@
       <c r="D12" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="45"/>
+      <c r="A14" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4083,10 +4083,10 @@
       <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>238</v>
       </c>
       <c r="F2" t="s">
@@ -4158,8 +4158,8 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O16" sqref="O16"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4192,55 +4192,55 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="48" t="s">
         <v>73</v>
       </c>
       <c r="T1" s="18" t="s">
@@ -4254,56 +4254,56 @@
       <c r="A2" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="46">
-        <v>0</v>
-      </c>
-      <c r="G2" s="46">
-        <v>0</v>
-      </c>
-      <c r="H2" s="46">
-        <v>0</v>
-      </c>
-      <c r="I2" s="46" t="s">
+      <c r="F2" s="45">
+        <v>0</v>
+      </c>
+      <c r="G2" s="45">
+        <v>0</v>
+      </c>
+      <c r="H2" s="45">
+        <v>0</v>
+      </c>
+      <c r="I2" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="48">
-        <v>0</v>
-      </c>
-      <c r="M2" s="46">
-        <v>0</v>
-      </c>
-      <c r="N2" s="46">
+      <c r="L2" s="47">
+        <v>0</v>
+      </c>
+      <c r="M2" s="45">
+        <v>0</v>
+      </c>
+      <c r="N2" s="45">
         <f xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="46">
+      <c r="R2" s="45">
         <v>0</v>
       </c>
       <c r="T2">
@@ -4317,56 +4317,56 @@
       <c r="A3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>2</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="46">
-        <v>0</v>
-      </c>
-      <c r="G3" s="46">
-        <v>0</v>
-      </c>
-      <c r="H3" s="46">
-        <v>0</v>
-      </c>
-      <c r="I3" s="46" t="s">
+      <c r="F3" s="45">
+        <v>0</v>
+      </c>
+      <c r="G3" s="45">
+        <v>0</v>
+      </c>
+      <c r="H3" s="45">
+        <v>0</v>
+      </c>
+      <c r="I3" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="46">
-        <v>0</v>
-      </c>
-      <c r="M3" s="46">
-        <v>0</v>
-      </c>
-      <c r="N3" s="46">
+      <c r="L3" s="45">
+        <v>0</v>
+      </c>
+      <c r="M3" s="45">
+        <v>0</v>
+      </c>
+      <c r="N3" s="45">
         <f t="shared" ref="N3:N7" si="0" xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3" s="45">
         <v>0</v>
       </c>
       <c r="T3">
@@ -4380,56 +4380,56 @@
       <c r="A4" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="46">
-        <v>0</v>
-      </c>
-      <c r="G4" s="46">
-        <v>0</v>
-      </c>
-      <c r="H4" s="46">
-        <v>0</v>
-      </c>
-      <c r="I4" s="46" t="s">
+      <c r="F4" s="45">
+        <v>0</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="46">
-        <v>0</v>
-      </c>
-      <c r="M4" s="46">
-        <v>0</v>
-      </c>
-      <c r="N4" s="46">
+      <c r="L4" s="45">
+        <v>0</v>
+      </c>
+      <c r="M4" s="45">
+        <v>0</v>
+      </c>
+      <c r="N4" s="45">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="46">
+      <c r="R4" s="45">
         <v>0</v>
       </c>
       <c r="T4">
@@ -4443,56 +4443,56 @@
       <c r="A5" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="46">
-        <v>0</v>
-      </c>
-      <c r="G5" s="46">
-        <v>0</v>
-      </c>
-      <c r="H5" s="46">
-        <v>0</v>
-      </c>
-      <c r="I5" s="46" t="s">
+      <c r="F5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45">
+        <v>0</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="46">
-        <v>0</v>
-      </c>
-      <c r="M5" s="46">
-        <v>0</v>
-      </c>
-      <c r="N5" s="46">
+      <c r="L5" s="45">
+        <v>0</v>
+      </c>
+      <c r="M5" s="45">
+        <v>0</v>
+      </c>
+      <c r="N5" s="45">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="45">
         <v>0</v>
       </c>
       <c r="T5">
@@ -4506,56 +4506,56 @@
       <c r="A6" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>2</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="46">
-        <v>0</v>
-      </c>
-      <c r="G6" s="46">
-        <v>0</v>
-      </c>
-      <c r="H6" s="46">
-        <v>0</v>
-      </c>
-      <c r="I6" s="46" t="s">
+      <c r="F6" s="45">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="46">
-        <v>0</v>
-      </c>
-      <c r="M6" s="46">
-        <v>0</v>
-      </c>
-      <c r="N6" s="46">
+      <c r="L6" s="45">
+        <v>0</v>
+      </c>
+      <c r="M6" s="45">
+        <v>0</v>
+      </c>
+      <c r="N6" s="45">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P6" s="46" t="s">
+      <c r="P6" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="45">
         <v>0</v>
       </c>
       <c r="T6">
@@ -4569,56 +4569,56 @@
       <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>2</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="48">
-        <v>0</v>
-      </c>
-      <c r="G7" s="46">
-        <v>0</v>
-      </c>
-      <c r="H7" s="46">
-        <v>0</v>
-      </c>
-      <c r="I7" s="46" t="s">
+      <c r="F7" s="47">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="45">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="O7" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="Q7" s="46" t="s">
+      <c r="Q7" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="45">
         <v>0</v>
       </c>
       <c r="T7">
@@ -4632,55 +4632,55 @@
       <c r="A8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>3</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="46">
-        <v>0</v>
-      </c>
-      <c r="G8" s="46" t="s">
+      <c r="F8" s="45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>1</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="46">
-        <v>0</v>
-      </c>
-      <c r="M8" s="48">
-        <v>0</v>
-      </c>
-      <c r="N8" s="46">
-        <v>0.05</v>
-      </c>
-      <c r="O8" s="46" t="s">
+      <c r="L8" s="45">
+        <v>0</v>
+      </c>
+      <c r="M8" s="47">
+        <v>0</v>
+      </c>
+      <c r="N8" s="45">
+        <v>0</v>
+      </c>
+      <c r="O8" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P8" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="46" t="s">
+      <c r="P8" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="45">
         <v>0</v>
       </c>
       <c r="T8">
@@ -4694,56 +4694,55 @@
       <c r="A9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="46">
-        <v>0</v>
-      </c>
-      <c r="G9" s="46">
-        <v>0</v>
-      </c>
-      <c r="H9" s="46">
-        <v>0</v>
-      </c>
-      <c r="I9" s="46" t="s">
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0</v>
+      </c>
+      <c r="I9" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="46">
-        <v>0</v>
-      </c>
-      <c r="M9" s="48">
-        <v>0</v>
-      </c>
-      <c r="N9" s="46">
-        <f>2.5*10^(-3)</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="O9" s="46" t="s">
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+      <c r="M9" s="47">
+        <v>0</v>
+      </c>
+      <c r="N9" s="45">
+        <v>0</v>
+      </c>
+      <c r="O9" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P9" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="46" t="s">
+      <c r="P9" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="45">
         <v>0</v>
       </c>
       <c r="T9">
@@ -4757,55 +4756,55 @@
       <c r="A10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>4</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="46">
-        <v>0</v>
-      </c>
-      <c r="G10" s="46">
-        <v>0</v>
-      </c>
-      <c r="H10" s="50">
-        <v>0</v>
-      </c>
-      <c r="I10" s="46" t="s">
+      <c r="F10" s="45">
+        <v>0</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>0</v>
+      </c>
+      <c r="I10" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="46">
-        <v>0</v>
-      </c>
-      <c r="M10" s="48">
-        <v>0</v>
-      </c>
-      <c r="N10" s="48">
-        <v>0.08</v>
-      </c>
-      <c r="O10" s="46" t="s">
+      <c r="L10" s="45">
+        <v>0</v>
+      </c>
+      <c r="M10" s="47">
+        <v>0</v>
+      </c>
+      <c r="N10" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="O10" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P10" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="46" t="s">
+      <c r="P10" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="45">
         <v>0</v>
       </c>
       <c r="T10">
@@ -4819,55 +4818,55 @@
       <c r="A11" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>5</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="46">
-        <v>0</v>
-      </c>
-      <c r="G11" s="46">
-        <v>0</v>
-      </c>
-      <c r="H11" s="46">
-        <v>0</v>
-      </c>
-      <c r="I11" s="46" t="s">
+      <c r="F11" s="45">
+        <v>0</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0</v>
+      </c>
+      <c r="H11" s="45">
+        <v>0</v>
+      </c>
+      <c r="I11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="46">
-        <v>0</v>
-      </c>
-      <c r="M11" s="48">
-        <v>0</v>
-      </c>
-      <c r="N11" s="46">
-        <v>0.08</v>
-      </c>
-      <c r="O11" s="46" t="s">
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+      <c r="M11" s="47">
+        <v>0</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="O11" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P11" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="46" t="s">
+      <c r="P11" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="45">
         <v>0</v>
       </c>
       <c r="T11" t="s">
@@ -4881,55 +4880,55 @@
       <c r="A12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>6</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="46">
-        <v>0</v>
-      </c>
-      <c r="G12" s="46">
-        <v>0</v>
-      </c>
-      <c r="H12" s="46">
-        <v>0</v>
-      </c>
-      <c r="I12" s="46" t="s">
+      <c r="F12" s="45">
+        <v>0</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0</v>
+      </c>
+      <c r="I12" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="46">
-        <v>0</v>
-      </c>
-      <c r="M12" s="48">
-        <v>0</v>
-      </c>
-      <c r="N12" s="46">
-        <v>0.08</v>
-      </c>
-      <c r="O12" s="46" t="s">
+      <c r="L12" s="45">
+        <v>0</v>
+      </c>
+      <c r="M12" s="47">
+        <v>0</v>
+      </c>
+      <c r="N12" s="45">
+        <v>0</v>
+      </c>
+      <c r="O12" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="P12" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="46" t="s">
+      <c r="P12" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="45">
         <v>0</v>
       </c>
       <c r="T12">
@@ -5436,7 +5435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC952C-F64C-4F30-9DDA-924F82AF01AE}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S22" sqref="S22"/>
     </sheetView>
@@ -6285,7 +6284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8D8FB7-0FD2-42C3-9D82-0A6D9AE32488}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:A6"/>
     </sheetView>
@@ -6484,38 +6483,38 @@
       <c r="B7" s="34">
         <v>0</v>
       </c>
-      <c r="C7" s="41">
-        <v>0</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="40">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>0</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="25"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9">
       <c r="H9" s="30"/>

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF62FEC5-EF7B-4EEF-A34D-2E56D66846FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6B891E-EF7E-40EC-8997-BB040ADF59FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="3" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="249">
   <si>
     <t>components</t>
   </si>
@@ -823,12 +823,15 @@
   <si>
     <t>Distillation_2.json</t>
   </si>
+  <si>
+    <t>Distillation_3.json</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,13 +879,6 @@
       <color rgb="FF008000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1006,7 +1002,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1074,21 +1070,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1113,9 +1094,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1181,13 +1162,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,21 +1180,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1225,10 +1203,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2431,16 +2409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>622618</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129008</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>773430</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>195686</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>424</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>92499</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2455,8 +2433,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9687243" y="3248446"/>
-          <a:ext cx="3557693" cy="3705228"/>
+          <a:off x="10639743" y="2930946"/>
+          <a:ext cx="3835506" cy="3705228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2573,13 +2551,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>160654</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>46036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>936625</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2656,15 +2634,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>200872</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>139594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2802,22 +2780,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45708</xdr:rowOff>
+      <xdr:colOff>105901</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>611188</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>21748</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56740</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81076</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="58" name="Picture 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD857D0A-2125-75AD-2D4B-0F87877E81A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF62936-21DA-FE1A-A014-6C9C17368E44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,8 +2811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3159125" y="3165146"/>
-          <a:ext cx="6516688" cy="3079602"/>
+          <a:off x="3145964" y="3270249"/>
+          <a:ext cx="7578776" cy="3581515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3705,7 +3683,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3762,13 +3740,13 @@
       <c r="D2" s="4">
         <v>1000</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>214</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>214</v>
       </c>
       <c r="H2" s="4">
@@ -4008,10 +3986,10 @@
       <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="30" t="s">
@@ -4026,10 +4004,10 @@
       <c r="D12" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4083,10 +4061,10 @@
       <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>238</v>
       </c>
       <c r="F2" t="s">
@@ -4157,9 +4135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85D0432-6958-423D-87F2-E8A979C87816}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N12" sqref="N12"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4192,55 +4170,55 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
         <v>73</v>
       </c>
       <c r="T1" s="18" t="s">
@@ -4254,56 +4232,56 @@
       <c r="A2" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="45">
-        <v>0</v>
-      </c>
-      <c r="G2" s="45">
-        <v>0</v>
-      </c>
-      <c r="H2" s="45">
-        <v>0</v>
-      </c>
-      <c r="I2" s="45" t="s">
+      <c r="F2" s="44">
+        <v>0</v>
+      </c>
+      <c r="G2" s="44">
+        <v>0</v>
+      </c>
+      <c r="H2" s="44">
+        <v>0</v>
+      </c>
+      <c r="I2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="47">
-        <v>0</v>
-      </c>
-      <c r="M2" s="45">
-        <v>0</v>
-      </c>
-      <c r="N2" s="45">
+      <c r="L2" s="46">
+        <v>0</v>
+      </c>
+      <c r="M2" s="44">
+        <v>0</v>
+      </c>
+      <c r="N2" s="44">
         <f xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="R2" s="45">
+      <c r="R2" s="44">
         <v>0</v>
       </c>
       <c r="T2">
@@ -4317,56 +4295,56 @@
       <c r="A3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>2</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="45">
-        <v>0</v>
-      </c>
-      <c r="G3" s="45">
-        <v>0</v>
-      </c>
-      <c r="H3" s="45">
-        <v>0</v>
-      </c>
-      <c r="I3" s="45" t="s">
+      <c r="F3" s="44">
+        <v>0</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0</v>
+      </c>
+      <c r="H3" s="44">
+        <v>0</v>
+      </c>
+      <c r="I3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="45">
-        <v>0</v>
-      </c>
-      <c r="M3" s="45">
-        <v>0</v>
-      </c>
-      <c r="N3" s="45">
+      <c r="L3" s="44">
+        <v>0</v>
+      </c>
+      <c r="M3" s="44">
+        <v>0</v>
+      </c>
+      <c r="N3" s="44">
         <f t="shared" ref="N3:N7" si="0" xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="R3" s="45">
+      <c r="R3" s="44">
         <v>0</v>
       </c>
       <c r="T3">
@@ -4380,56 +4358,56 @@
       <c r="A4" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="45">
-        <v>0</v>
-      </c>
-      <c r="G4" s="45">
-        <v>0</v>
-      </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="45" t="s">
+      <c r="F4" s="44">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0</v>
+      </c>
+      <c r="H4" s="44">
+        <v>0</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="45">
-        <v>0</v>
-      </c>
-      <c r="M4" s="45">
-        <v>0</v>
-      </c>
-      <c r="N4" s="45">
+      <c r="L4" s="44">
+        <v>0</v>
+      </c>
+      <c r="M4" s="44">
+        <v>0</v>
+      </c>
+      <c r="N4" s="44">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="45">
+      <c r="R4" s="44">
         <v>0</v>
       </c>
       <c r="T4">
@@ -4443,56 +4421,56 @@
       <c r="A5" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="45">
-        <v>0</v>
-      </c>
-      <c r="G5" s="45">
-        <v>0</v>
-      </c>
-      <c r="H5" s="45">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="F5" s="44">
+        <v>0</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44">
+        <v>0</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="45">
-        <v>0</v>
-      </c>
-      <c r="M5" s="45">
-        <v>0</v>
-      </c>
-      <c r="N5" s="45">
+      <c r="L5" s="44">
+        <v>0</v>
+      </c>
+      <c r="M5" s="44">
+        <v>0</v>
+      </c>
+      <c r="N5" s="44">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="44">
         <v>0</v>
       </c>
       <c r="T5">
@@ -4506,56 +4484,56 @@
       <c r="A6" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="45">
-        <v>0</v>
-      </c>
-      <c r="G6" s="45">
-        <v>0</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0</v>
-      </c>
-      <c r="I6" s="45" t="s">
+      <c r="F6" s="44">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="45">
-        <v>0</v>
-      </c>
-      <c r="M6" s="45">
-        <v>0</v>
-      </c>
-      <c r="N6" s="45">
+      <c r="L6" s="44">
+        <v>0</v>
+      </c>
+      <c r="M6" s="44">
+        <v>0</v>
+      </c>
+      <c r="N6" s="44">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="R6" s="45">
+      <c r="R6" s="44">
         <v>0</v>
       </c>
       <c r="T6">
@@ -4569,56 +4547,56 @@
       <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>2</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="47">
-        <v>0</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0</v>
-      </c>
-      <c r="I7" s="45" t="s">
+      <c r="F7" s="46">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
+        <v>0</v>
+      </c>
+      <c r="I7" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="44">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="44">
         <v>0</v>
       </c>
       <c r="T7">
@@ -4632,55 +4610,55 @@
       <c r="A8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>3</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="45">
-        <v>0</v>
-      </c>
-      <c r="G8" s="45" t="s">
+      <c r="F8" s="44">
+        <v>0</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>1</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="45">
-        <v>0</v>
-      </c>
-      <c r="M8" s="47">
-        <v>0</v>
-      </c>
-      <c r="N8" s="45">
-        <v>0</v>
-      </c>
-      <c r="O8" s="45" t="s">
+      <c r="L8" s="44">
+        <v>0</v>
+      </c>
+      <c r="M8" s="46">
+        <v>0</v>
+      </c>
+      <c r="N8" s="44">
+        <v>0</v>
+      </c>
+      <c r="O8" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P8" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="45" t="s">
+      <c r="P8" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="44">
         <v>0</v>
       </c>
       <c r="T8">
@@ -4694,55 +4672,55 @@
       <c r="A9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>3</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="45">
-        <v>0</v>
-      </c>
-      <c r="G9" s="45">
-        <v>0</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0</v>
-      </c>
-      <c r="I9" s="45" t="s">
+      <c r="F9" s="44">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="45">
-        <v>0</v>
-      </c>
-      <c r="M9" s="47">
-        <v>0</v>
-      </c>
-      <c r="N9" s="45">
-        <v>0</v>
-      </c>
-      <c r="O9" s="45" t="s">
+      <c r="L9" s="44">
+        <v>0</v>
+      </c>
+      <c r="M9" s="46">
+        <v>0</v>
+      </c>
+      <c r="N9" s="44">
+        <v>0</v>
+      </c>
+      <c r="O9" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P9" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="45" t="s">
+      <c r="P9" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="44">
         <v>0</v>
       </c>
       <c r="T9">
@@ -4756,55 +4734,55 @@
       <c r="A10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="44">
         <v>4</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="45">
-        <v>0</v>
-      </c>
-      <c r="G10" s="45">
-        <v>0</v>
-      </c>
-      <c r="H10" s="49">
-        <v>0</v>
-      </c>
-      <c r="I10" s="45" t="s">
+      <c r="F10" s="44">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="48">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="45">
-        <v>0</v>
-      </c>
-      <c r="M10" s="47">
-        <v>0</v>
-      </c>
-      <c r="N10" s="47">
+      <c r="L10" s="44">
+        <v>0</v>
+      </c>
+      <c r="M10" s="46">
+        <v>0</v>
+      </c>
+      <c r="N10" s="46">
         <v>1.2</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P10" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="45" t="s">
+      <c r="P10" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="44">
         <v>0</v>
       </c>
       <c r="T10">
@@ -4818,55 +4796,55 @@
       <c r="A11" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="44">
         <v>5</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="45">
-        <v>0</v>
-      </c>
-      <c r="G11" s="45">
-        <v>0</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0</v>
-      </c>
-      <c r="I11" s="45" t="s">
+      <c r="F11" s="44">
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0</v>
+      </c>
+      <c r="H11" s="44">
+        <v>0</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="45">
-        <v>0</v>
-      </c>
-      <c r="M11" s="47">
-        <v>0</v>
-      </c>
-      <c r="N11" s="45" t="s">
+      <c r="L11" s="44">
+        <v>0</v>
+      </c>
+      <c r="M11" s="46">
+        <v>0</v>
+      </c>
+      <c r="N11" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P11" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="45" t="s">
+      <c r="P11" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="44">
         <v>0</v>
       </c>
       <c r="T11" t="s">
@@ -4880,55 +4858,55 @@
       <c r="A12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="44">
         <v>6</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="45">
-        <v>0</v>
-      </c>
-      <c r="G12" s="45">
-        <v>0</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0</v>
-      </c>
-      <c r="I12" s="45" t="s">
+      <c r="F12" s="44">
+        <v>0</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="45">
-        <v>0</v>
-      </c>
-      <c r="M12" s="47">
-        <v>0</v>
-      </c>
-      <c r="N12" s="45">
-        <v>0</v>
-      </c>
-      <c r="O12" s="45" t="s">
+      <c r="L12" s="44">
+        <v>0</v>
+      </c>
+      <c r="M12" s="46">
+        <v>0</v>
+      </c>
+      <c r="N12" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="O12" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="P12" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="45" t="s">
+      <c r="P12" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="44">
         <v>0</v>
       </c>
       <c r="T12">
@@ -5433,11 +5411,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC952C-F64C-4F30-9DDA-924F82AF01AE}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S22" sqref="S22"/>
+      <selection pane="topRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5450,32 +5428,32 @@
     <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="20" t="s">
@@ -5485,26 +5463,23 @@
         <v>54</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="20" t="s">
         <v>116</v>
       </c>
+      <c r="M1" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="N1" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="35" t="s">
         <v>213</v>
       </c>
       <c r="B2" s="14">
@@ -5549,12 +5524,9 @@
       <c r="O2" s="9">
         <v>0</v>
       </c>
-      <c r="P2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="35" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="34" t="s">
         <v>117</v>
       </c>
       <c r="B3" s="9">
@@ -5596,15 +5568,12 @@
       <c r="N3" s="9">
         <v>0</v>
       </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="34" t="s">
         <v>118</v>
       </c>
       <c r="B4" s="9">
@@ -5646,15 +5615,12 @@
       <c r="N4" s="9">
         <v>0</v>
       </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="34" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="9">
@@ -5684,27 +5650,24 @@
       <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="37">
-        <v>0</v>
-      </c>
-      <c r="L5" s="37">
-        <v>0</v>
-      </c>
-      <c r="M5" s="37">
+      <c r="K5" s="36">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
         <v>0</v>
       </c>
       <c r="N5" s="9">
         <v>0</v>
       </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="34" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="9">
@@ -5746,15 +5709,12 @@
       <c r="N6" s="9">
         <v>0</v>
       </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="34" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="9">
@@ -5796,15 +5756,12 @@
       <c r="N7" s="9">
         <v>0</v>
       </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="9">
@@ -5846,14 +5803,11 @@
       <c r="N8" s="9">
         <v>0</v>
       </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:15">
       <c r="A9" s="22" t="s">
         <v>53</v>
       </c>
@@ -5884,8 +5838,8 @@
       <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>23</v>
+      <c r="K9" s="9">
+        <v>0</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -5896,14 +5850,11 @@
       <c r="N9" s="9">
         <v>0</v>
       </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1">
+    <row r="10" spans="1:15">
       <c r="A10" s="22" t="s">
         <v>54</v>
       </c>
@@ -5928,34 +5879,31 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
       <c r="M10" s="9">
         <v>0</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
       </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1">
+    <row r="11" spans="1:15">
       <c r="A11" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -5975,37 +5923,34 @@
       <c r="G11" s="9">
         <v>0</v>
       </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
         <v>0</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
       </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
       <c r="N11" s="9">
         <v>0</v>
       </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="32" t="s">
+      <c r="O11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:15">
       <c r="A12" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -6043,19 +5988,16 @@
       <c r="M12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="9">
-        <v>0</v>
+      <c r="N12" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="O12" s="9">
         <v>0</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="22" t="s">
-        <v>116</v>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -6093,19 +6035,16 @@
       <c r="M13" s="9">
         <v>0</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -6149,13 +6088,10 @@
       <c r="O14" s="9">
         <v>0</v>
       </c>
-      <c r="P14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="23" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -6199,63 +6135,10 @@
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B8 B9:P16 C4:C7 C8:G8 C2:P2 D5:D7 D3:H3 E4 E6:E7 F4:F5 F7 G4:G6 H4:H7 I3:P8">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C3 D4 E5 F6 G7 H8">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6264,8 +6147,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 D4 E5 F6 G7 H8">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B3:B8 B9:O15 C4:C7 C8:G8 C2:O2 D5:D7 D3:H3 E4 E6:E7 F4:F5 F7 G4:G6 H4:H7 I3:O8">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6335,19 +6218,19 @@
       <c r="A2" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="34">
-        <v>0</v>
-      </c>
-      <c r="D2" s="34">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34">
-        <v>0</v>
-      </c>
-      <c r="F2" s="34">
+      <c r="C2" s="33">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33">
+        <v>0</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -6364,19 +6247,19 @@
       <c r="A3" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="34">
-        <v>0</v>
-      </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
+      <c r="C3" s="33">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0</v>
+      </c>
+      <c r="F3" s="33">
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -6393,19 +6276,19 @@
       <c r="A4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="34">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>0</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -6422,19 +6305,19 @@
       <c r="A5" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0</v>
-      </c>
-      <c r="E5" s="34">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0</v>
+      </c>
+      <c r="F5" s="33">
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -6451,19 +6334,19 @@
       <c r="A6" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="34">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34">
-        <v>0</v>
-      </c>
-      <c r="E6" s="34">
-        <v>0</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -6480,41 +6363,41 @@
       <c r="A7" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="34">
-        <v>0</v>
-      </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="33">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="40">
         <v>0</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9">
       <c r="H9" s="30"/>
@@ -7341,7 +7224,7 @@
       <c r="A13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>194</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -7370,7 +7253,7 @@
       <c r="A14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>194</v>
       </c>
       <c r="C14" s="4" t="s">

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6B891E-EF7E-40EC-8997-BB040ADF59FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EBE40-6266-43E0-8291-651E512C1588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="3" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="244">
   <si>
     <t>components</t>
   </si>
@@ -286,18 +286,12 @@
     <t>[0.01,  0.01, 0.98]</t>
   </si>
   <si>
-    <t>[0.01,  0.01, 0.01, 0.98]</t>
-  </si>
-  <si>
     <t>[0,  0]</t>
   </si>
   <si>
     <t>stream_reuse</t>
   </si>
   <si>
-    <t>ace,prop, Hoc, water</t>
-  </si>
-  <si>
     <t>{'Hoc' : 'liq_liq_ext' }</t>
   </si>
   <si>
@@ -331,9 +325,6 @@
     <t>{'pH':[5,8.5]}</t>
   </si>
   <si>
-    <t>Hoc, ace, prop, water</t>
-  </si>
-  <si>
     <t>ace, prop, water</t>
   </si>
   <si>
@@ -377,9 +368,6 @@
   </si>
   <si>
     <t>[0.95, 0.95, 0.05] ; [0.05, 0.05, 0.95]</t>
-  </si>
-  <si>
-    <t>[0.95, 0.95, 0.95, 0.05]; [0.05, 0.05, 0.05, 0.95]</t>
   </si>
   <si>
     <r>
@@ -399,9 +387,6 @@
   </si>
   <si>
     <t>[0.95, 0.05]; [0.05, 0.95]</t>
-  </si>
-  <si>
-    <t>Distilation_1</t>
   </si>
   <si>
     <t>Distilation_2</t>
@@ -1096,7 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1207,6 +1192,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1623,7 +1611,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>1172210</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1693,13 +1681,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100330</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1780,7 +1768,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1231900</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1866,13 +1854,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>73660</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1941,13 +1929,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2042,13 +2030,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>173990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1277620</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2112,13 +2100,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2203,14 +2191,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>93980</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1212850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2225,8 +2213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12463780" y="2622550"/>
-          <a:ext cx="1118870" cy="1066800"/>
+          <a:off x="12463780" y="2438400"/>
+          <a:ext cx="1334770" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2270,6 +2258,40 @@
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t>eg: testDistilation.json</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Distillation_2.json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Distillation_3.json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t> </a:t>
+          </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2285,13 +2307,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441961</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>53953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>25410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2329,13 +2351,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>43180</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1494790</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3683,7 +3705,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3732,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C2" s="4">
         <v>500</v>
@@ -3741,13 +3763,13 @@
         <v>1000</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -3838,10 +3860,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
@@ -3852,7 +3874,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>222</v>
@@ -3861,12 +3883,12 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="30" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B3">
         <v>85.8</v>
@@ -3875,12 +3897,12 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="30" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B4">
         <v>64.3</v>
@@ -3889,12 +3911,12 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="30" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B5">
         <v>74.8</v>
@@ -3903,12 +3925,12 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="30" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>61.1</v>
@@ -3917,12 +3939,12 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B7">
         <v>381</v>
@@ -3931,12 +3953,12 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B8">
         <v>53.6</v>
@@ -3945,12 +3967,12 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="30" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B9">
         <v>53.3</v>
@@ -3959,12 +3981,12 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="30" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B10">
         <v>52.3</v>
@@ -3973,12 +3995,12 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B11">
         <v>78.5</v>
@@ -3987,13 +4009,13 @@
         <v>61</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="30" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B12">
         <v>50.5</v>
@@ -4002,7 +4024,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E12" s="43"/>
     </row>
@@ -4020,7 +4042,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4033,27 +4055,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
         <v>239</v>
-      </c>
-      <c r="F1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B2" s="4">
         <v>37</v>
@@ -4062,21 +4084,21 @@
         <v>70</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -4084,31 +4106,31 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B7" s="4">
         <v>71</v>
@@ -4117,10 +4139,10 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4133,11 +4155,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85D0432-6958-423D-87F2-E8A979C87816}">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9:N10"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4171,19 +4193,19 @@
         <v>6</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G1" s="47" t="s">
         <v>68</v>
@@ -4198,16 +4220,16 @@
         <v>15</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O1" s="47" t="s">
         <v>60</v>
@@ -4222,7 +4244,7 @@
         <v>73</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>78</v>
@@ -4230,16 +4252,16 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B2" s="44">
         <v>2</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E2" s="44" t="s">
         <v>75</v>
@@ -4257,7 +4279,7 @@
         <v>72</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K2" s="44" t="s">
         <v>75</v>
@@ -4273,13 +4295,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q2" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R2" s="44">
         <v>0</v>
@@ -4288,21 +4310,21 @@
         <v>0</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B3" s="44">
         <v>2</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>75</v>
@@ -4320,7 +4342,7 @@
         <v>72</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>75</v>
@@ -4336,13 +4358,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q3" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R3" s="44">
         <v>0</v>
@@ -4351,21 +4373,21 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B4" s="44">
         <v>2</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>75</v>
@@ -4383,7 +4405,7 @@
         <v>72</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K4" s="44" t="s">
         <v>75</v>
@@ -4399,13 +4421,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P4" s="44" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R4" s="44">
         <v>0</v>
@@ -4414,21 +4436,21 @@
         <v>0</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B5" s="44">
         <v>2</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>75</v>
@@ -4446,7 +4468,7 @@
         <v>72</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K5" s="44" t="s">
         <v>75</v>
@@ -4462,13 +4484,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P5" s="44" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R5" s="44">
         <v>0</v>
@@ -4477,21 +4499,21 @@
         <v>0</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B6" s="44">
         <v>2</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>75</v>
@@ -4509,7 +4531,7 @@
         <v>72</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K6" s="44" t="s">
         <v>75</v>
@@ -4525,13 +4547,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R6" s="44">
         <v>0</v>
@@ -4540,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -4551,10 +4573,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>75</v>
@@ -4572,29 +4594,29 @@
         <v>72</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K7" s="44" t="s">
         <v>75</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M7" s="46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N7" s="44">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R7" s="44">
         <v>0</v>
@@ -4603,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -4614,10 +4636,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>75</v>
@@ -4632,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>77</v>
@@ -4650,13 +4672,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P8" s="44">
         <v>0</v>
       </c>
       <c r="Q8" s="44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R8" s="44">
         <v>0</v>
@@ -4676,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>76</v>
@@ -4712,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P9" s="44">
         <v>0</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R9" s="44">
         <v>0</v>
@@ -4732,16 +4754,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10" s="44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>75</v>
@@ -4752,14 +4774,14 @@
       <c r="G10" s="44">
         <v>0</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="44">
         <v>0</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>72</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K10" s="44" t="s">
         <v>75</v>
@@ -4770,40 +4792,40 @@
       <c r="M10" s="46">
         <v>0</v>
       </c>
-      <c r="N10" s="46">
-        <v>1.2</v>
+      <c r="N10" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P10" s="44">
         <v>0</v>
       </c>
       <c r="Q10" s="44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R10" s="44">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
+      <c r="T10" t="s">
+        <v>82</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>75</v>
@@ -4821,7 +4843,7 @@
         <v>72</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>75</v>
@@ -4832,88 +4854,26 @@
       <c r="M11" s="46">
         <v>0</v>
       </c>
-      <c r="N11" s="44" t="s">
-        <v>247</v>
+      <c r="N11" s="50" t="s">
+        <v>243</v>
       </c>
       <c r="O11" s="44" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P11" s="44">
         <v>0</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R11" s="44">
         <v>0</v>
       </c>
-      <c r="T11" t="s">
-        <v>84</v>
+      <c r="T11">
+        <v>0</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="44">
-        <v>6</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="44">
-        <v>0</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-      <c r="H12" s="44">
-        <v>0</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="44">
-        <v>0</v>
-      </c>
-      <c r="M12" s="46">
-        <v>0</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="P12" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="44">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4926,10 +4886,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AAB0C4-AECD-43D0-BAFA-6C4220D77958}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4986,7 +4946,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1E-3</v>
@@ -5024,7 +4984,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>1E-3</v>
@@ -5062,7 +5022,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>1E-3</v>
@@ -5100,7 +5060,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>1E-3</v>
@@ -5138,7 +5098,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>1E-3</v>
@@ -5290,7 +5250,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5328,7 +5288,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5361,44 +5321,6 @@
         <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5415,7 +5337,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R19" sqref="R19"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5436,22 +5358,22 @@
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>45</v>
@@ -5463,10 +5385,10 @@
         <v>54</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>19</v>
@@ -5475,12 +5397,12 @@
         <v>20</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B2" s="14">
         <v>0</v>
@@ -5527,13 +5449,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -5574,7 +5496,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -5583,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -5621,19 +5543,19 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -5668,22 +5590,22 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -5715,25 +5637,25 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -5783,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -5833,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -5841,8 +5763,8 @@
       <c r="K9" s="9">
         <v>0</v>
       </c>
-      <c r="L9" s="9">
-        <v>0</v>
+      <c r="L9" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -5883,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>23</v>
@@ -5903,7 +5825,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -5950,7 +5872,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -6091,7 +6013,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
@@ -6147,7 +6069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B8 B9:O15 C4:C7 C8:G8 C2:O2 D5:D7 D3:H3 E4 E6:E7 F4:F5 F7 G4:G6 H4:H7 I3:O8">
+  <conditionalFormatting sqref="B3:B8 C4:C7 C8:G8 C2:O2 D5:D7 D3:H3 E4 E6:E7 F4:F5 F7 G4:G6 H4:H7 I3:O8 B9:O15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6168,8 +6090,8 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A6"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -6190,7 +6112,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -6216,10 +6138,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C2" s="33">
         <v>0</v>
@@ -6234,21 +6156,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C3" s="33">
         <v>0</v>
@@ -6263,21 +6185,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
@@ -6292,21 +6214,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C5" s="33">
         <v>0</v>
@@ -6321,21 +6243,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C6" s="33">
         <v>0</v>
@@ -6350,18 +6272,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B7" s="33">
         <v>0</v>
@@ -6373,19 +6295,19 @@
         <v>46</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G7" s="40">
         <v>0</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6413,7 +6335,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6428,51 +6350,51 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>143</v>
-      </c>
-      <c r="J1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>71</v>
@@ -6502,10 +6424,10 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M2" s="28">
         <v>100</v>
@@ -6516,13 +6438,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D3" s="13">
         <v>0.95</v>
@@ -6549,10 +6471,10 @@
         <v>0.5</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M3" s="28">
         <v>100</v>
@@ -6563,13 +6485,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D4" s="13">
         <v>0.95</v>
@@ -6596,10 +6518,10 @@
         <v>0.5</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M4" s="28">
         <v>100</v>
@@ -6617,8 +6539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFEA29F-1D3A-4383-97E1-D31836BA3887}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H22" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -6700,26 +6622,26 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6727,23 +6649,23 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6766,10 +6688,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
@@ -6777,123 +6699,123 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
         <v>153</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6922,10 +6844,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6933,10 +6855,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>74</v>
@@ -6945,7 +6867,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>55</v>
@@ -6964,28 +6886,28 @@
         <v>8</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6993,28 +6915,28 @@
         <v>7</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -7022,28 +6944,28 @@
         <v>9</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -7051,28 +6973,28 @@
         <v>10</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -7080,28 +7002,28 @@
         <v>25</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -7109,28 +7031,28 @@
         <v>45</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -7138,28 +7060,28 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -7167,28 +7089,28 @@
         <v>54</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -7196,28 +7118,28 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7225,28 +7147,28 @@
         <v>51</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7254,28 +7176,28 @@
         <v>52</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:12">

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EBE40-6266-43E0-8291-651E512C1588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CBF11-18C0-4F52-A8ED-44A22C08696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="3" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="parameter_abbr" sheetId="24" r:id="rId8"/>
     <sheet name="references" sheetId="19" r:id="rId9"/>
     <sheet name="price_list" sheetId="26" r:id="rId10"/>
-    <sheet name="final_conc_reactors" sheetId="27" r:id="rId11"/>
+    <sheet name="price_list_sigma" sheetId="28" r:id="rId11"/>
+    <sheet name="final_conc_reactors" sheetId="27" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="258">
   <si>
     <t>components</t>
   </si>
@@ -811,12 +812,54 @@
   <si>
     <t>Distillation_3.json</t>
   </si>
+  <si>
+    <t>https://shuowanchemical.en.made-in-china.com/product/XQoUxvSJhVcb/China-99-5-CAS-79-09-4-Propionic-Acid-for-Food-Preservatives.html</t>
+  </si>
+  <si>
+    <t>https://sunwisechem.en.made-in-china.com/product/lZTakcfLhyUb/China-Colorless-Price-90-CH3cooh-CAS-No-64-19-7-Industrial-Grade-Acetic-Acid.html</t>
+  </si>
+  <si>
+    <t>USD/kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shuowanchemical.en.made-in-china.com/product/XQoUxvSJhVcb/China-99-5-CAS-79-09-4-Propionic-Acid-for-Food-Preservatives.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://yaoshengcompany.en.made-in-china.com/product/RZwtMgVCEqUT/China-Food-Grade-Glucose-Dextrose-Monohydrate-Dextrose-Anhydrous.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sunwisechem.en.made-in-china.com/product/lZTakcfLhyUb/China-Colorless-Price-90-CH3cooh-CAS-No-64-19-7-Industrial-Grade-Acetic-Acid.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hbsyplastic.en.made-in-china.com/product/VZFAzMXKykrq/China-99-5-Pure-Glycerol-with-Competitive-Price-Refined-Glycerol-Glycerol-Glycerine.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://qddoeast.en.made-in-china.com/product/EKXmIwiTszrt/China-Food-Additive-Corn-Fiber-Organic-Resistant-Dextrin-Powder.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hairunkun.en.made-in-china.com/product/ZFeAPoVdStry/China-The-Factory-Supplies-The-Most-Competitive-Food-Grade-Stachyose.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.made-in-china.com/productdirectory.do?subaction=hunt&amp;style=b&amp;mode=and&amp;code=0&amp;comProvince=nolimit&amp;order=0&amp;isOpenCorrection=1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://luzhoubiochem.en.made-in-china.com/product/CKvErNtOXxpL/China-Hot-Sale-Fructose-Syrup-Fructose-42-55-Food-Grade.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://luzhoubiochem.en.made-in-china.com/product/FXNmbhUKfEYB/China-Beer-Food-Additives-Maltose-Syrup.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hbsyplastic.en.made-in-china.com/product/PFjtVDIcZqYU/China-2022-Hot-Selling-Food-Grade-High-Purity-Powder-Sucrose-99-.html  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ubchembio.en.made-in-china.com/product/iwzfCWIcnhVG/China-Wholesale-Price-Food-Grade-Liquid-L-Lactic-Acid-80-CAS-50-21-5.html </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +948,13 @@
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFF0000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1081,7 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1194,6 +1244,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3704,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3757,7 +3810,7 @@
         <v>208</v>
       </c>
       <c r="C2" s="4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="4">
         <v>1000</v>
@@ -3792,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>50.5</v>
+        <v>0.75</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>17</v>
@@ -3818,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>78.5</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
@@ -3846,10 +3899,214 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5896565C-0CFB-4158-9B0C-FB654BCEAE1A}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>0.37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3">
+        <v>1.85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>0.51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8">
+        <v>3.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9">
+        <v>0.85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11">
+        <v>1.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12">
+        <v>0.75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="43"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{291BDE3D-39D1-4A5F-8AE8-38D12FACEBEA}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{30E600D4-05E2-43D5-ADDD-73424F47F91D}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{5506D572-E27E-4AFF-BA0F-006BFCB04704}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{AC8CF186-BAD9-4525-9887-B3A6409D1D52}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{6BCBEB49-53CD-4FB9-A741-B4B122942000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{092DD633-0AC1-4F6C-BAB1-C79B8883E3C5}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{C98486F0-077B-4740-8AF0-20CBA02E0195}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{7025CCBD-77ED-41A8-8A69-2D69E5C2183E}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{664A5837-CF7C-409A-BE98-AFB718953232}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{B031B00F-21F7-464A-B559-3CB7506D9BED}"/>
+    <hyperlink ref="D4" r:id="rId11" xr:uid="{042C6450-ED4A-4FAE-883C-F3B67CDCDACA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975FC6AB-3E76-4672-B327-5D80D9EC35D9}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4011,7 +4268,9 @@
       <c r="D11" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="43" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="30" t="s">
@@ -4026,7 +4285,9 @@
       <c r="D12" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="43" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="43"/>
@@ -4037,7 +4298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7C6831-8C7B-4CA3-B2A4-37C4E254EDCB}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -4159,7 +4420,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M14" sqref="M14"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4889,7 +5150,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4967,13 +5228,13 @@
         <v>61</v>
       </c>
       <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>67</v>
@@ -5005,13 +5266,13 @@
         <v>61</v>
       </c>
       <c r="H3">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>67</v>
@@ -5043,13 +5304,13 @@
         <v>61</v>
       </c>
       <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>67</v>
@@ -5081,13 +5342,13 @@
         <v>61</v>
       </c>
       <c r="H5">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>67</v>
@@ -5119,13 +5380,13 @@
         <v>61</v>
       </c>
       <c r="H6">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>67</v>
@@ -5157,13 +5418,13 @@
         <v>61</v>
       </c>
       <c r="H7">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>67</v>
@@ -5195,13 +5456,13 @@
         <v>61</v>
       </c>
       <c r="H8">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>67</v>
@@ -5233,13 +5494,13 @@
         <v>61</v>
       </c>
       <c r="H9">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>67</v>
@@ -5271,13 +5532,13 @@
         <v>61</v>
       </c>
       <c r="H10">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>67</v>
@@ -5309,13 +5570,13 @@
         <v>61</v>
       </c>
       <c r="H11">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>67</v>
@@ -5335,7 +5596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC952C-F64C-4F30-9DDA-924F82AF01AE}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
@@ -6828,7 +7089,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CBF11-18C0-4F52-A8ED-44A22C08696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4CE708-EBC7-4F74-9A3F-0BB9F07F0F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="282">
   <si>
     <t>components</t>
   </si>
@@ -371,22 +371,6 @@
     <t>[0.95, 0.95, 0.05] ; [0.05, 0.05, 0.95]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[0.95, 0.95, 0.05]; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[0.05, 0.05, 0.95]</t>
-    </r>
-  </si>
-  <si>
     <t>[0.95, 0.05]; [0.05, 0.95]</t>
   </si>
   <si>
@@ -439,9 +423,6 @@
   </si>
   <si>
     <t>[0,10e6]</t>
-  </si>
-  <si>
-    <t>units operatioal vars</t>
   </si>
   <si>
     <t>(-)</t>
@@ -822,15 +803,9 @@
     <t>USD/kg</t>
   </si>
   <si>
-    <t xml:space="preserve">https://shuowanchemical.en.made-in-china.com/product/XQoUxvSJhVcb/China-99-5-CAS-79-09-4-Propionic-Acid-for-Food-Preservatives.html </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://yaoshengcompany.en.made-in-china.com/product/RZwtMgVCEqUT/China-Food-Grade-Glucose-Dextrose-Monohydrate-Dextrose-Anhydrous.html </t>
   </si>
   <si>
-    <t xml:space="preserve">https://sunwisechem.en.made-in-china.com/product/lZTakcfLhyUb/China-Colorless-Price-90-CH3cooh-CAS-No-64-19-7-Industrial-Grade-Acetic-Acid.html </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://hbsyplastic.en.made-in-china.com/product/VZFAzMXKykrq/China-99-5-Pure-Glycerol-with-Competitive-Price-Refined-Glycerol-Glycerol-Glycerine.html </t>
   </si>
   <si>
@@ -853,13 +828,110 @@
   </si>
   <si>
     <t xml:space="preserve">https://ubchembio.en.made-in-china.com/product/iwzfCWIcnhVG/China-Wholesale-Price-Food-Grade-Liquid-L-Lactic-Acid-80-CAS-50-21-5.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.biortech.2018.07.042</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.biortech.2018.07.043</t>
+  </si>
+  <si>
+    <t>maximum propionate concentration</t>
+  </si>
+  <si>
+    <t>reactor type</t>
+  </si>
+  <si>
+    <t>feb batch</t>
+  </si>
+  <si>
+    <t>g·L-1</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.ejbt.2017.04.004</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.ejbt.2017.04.005</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.ejbt.2017.04.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average </t>
+  </si>
+  <si>
+    <t>g/l</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2166/wst.2022.040</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2166/wst.2022.041</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2166/wst.2022.042</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2166/wst.2022.043</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2166/wst.2022.044</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2166/wst.2022.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waste removal </t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>sludge remove</t>
+  </si>
+  <si>
+    <t>wwtp</t>
+  </si>
+  <si>
+    <t>Eruo/kg</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.scitotenv.2018.09.363</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[0.95, 0.95, 0.05]; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0.05, 0.05, 0.95]</t>
+    </r>
+  </si>
+  <si>
+    <t>$/kg</t>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,8 +1028,16 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,8 +1116,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1068,19 +1154,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1126,12 +1199,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1152,20 +1326,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1185,7 +1351,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1193,7 +1359,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1215,15 +1380,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1248,12 +1413,65 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1281,16 +1499,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>867410</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>58420</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>39370</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1305,8 +1523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10119360" y="214630"/>
-          <a:ext cx="2308860" cy="1925320"/>
+          <a:off x="142240" y="966470"/>
+          <a:ext cx="2320290" cy="1913890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,16 +1592,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1398,8 +1616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7721600" y="165100"/>
-          <a:ext cx="2286000" cy="3238500"/>
+          <a:off x="4838700" y="1112520"/>
+          <a:ext cx="2278380" cy="3215640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,15 +1742,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1547,8 +1765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3282950" y="1771650"/>
-          <a:ext cx="2286000" cy="1231900"/>
+          <a:off x="2519680" y="1046480"/>
+          <a:ext cx="1998980" cy="1696720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,16 +1873,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>21590</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1172210</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1159510</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1679,8 +1897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21414740" y="287020"/>
-          <a:ext cx="1137920" cy="1372870"/>
+          <a:off x="24481790" y="261620"/>
+          <a:ext cx="1137920" cy="1370330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1814,15 +2032,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1231900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1837,8 +2055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20262850" y="222250"/>
-          <a:ext cx="1143000" cy="2870200"/>
+          <a:off x="24396700" y="2165350"/>
+          <a:ext cx="2425700" cy="2686050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1980,16 +2198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2004,8 +2222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11244580" y="2438400"/>
-          <a:ext cx="1258570" cy="2247900"/>
+          <a:off x="7721600" y="2413000"/>
+          <a:ext cx="2241550" cy="2139950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,16 +2299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>811530</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>173990</xdr:rowOff>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1277620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1849120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2105,8 +2323,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8806180" y="2383790"/>
-          <a:ext cx="1037590" cy="1805940"/>
+          <a:off x="13759180" y="2167890"/>
+          <a:ext cx="1037590" cy="1026160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2242,16 +2460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>93980</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>379730</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2266,8 +2484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12463780" y="2438400"/>
-          <a:ext cx="1334770" cy="1778000"/>
+          <a:off x="16889730" y="2133600"/>
+          <a:ext cx="1512570" cy="1225550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2365,9 +2583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>326390</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>25410</xdr:rowOff>
+      <xdr:rowOff>20330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3755,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3767,16 +3985,15 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3789,25 +4006,31 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4">
         <v>1000</v>
@@ -3815,20 +4038,26 @@
       <c r="D2" s="4">
         <v>1000</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>7</v>
       </c>
@@ -3841,20 +4070,27 @@
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.75</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>0.6*1.1</f>
+        <v>0.66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>7</v>
       </c>
@@ -3867,27 +4103,34 @@
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="E4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>2.25*1.1</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="D7" s="3"/>
       <c r="G7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E3:E4 E7:F8 E12:G12 F2:F4 H2:H4 H7:H8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="F3:F4 E7:F8 E12:G12 G2:G4 J2:J4 H7:H8">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3902,7 +4145,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3916,7 +4159,7 @@
         <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
@@ -3926,178 +4169,184 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="30" t="s">
-        <v>197</v>
+      <c r="A2" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="B2">
         <v>0.37</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>255</v>
+        <v>244</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="30" t="s">
-        <v>198</v>
+      <c r="A3" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="B3">
         <v>1.85</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>256</v>
+        <v>244</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="30" t="s">
-        <v>199</v>
+      <c r="A4" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="B4">
         <v>0.4</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>257</v>
+        <v>244</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="30" t="s">
-        <v>200</v>
+      <c r="A5" s="25" t="s">
+        <v>198</v>
       </c>
       <c r="B5">
         <v>0.51</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="30" t="s">
-        <v>201</v>
+      <c r="A6" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>253</v>
+        <v>244</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="30" t="s">
-        <v>202</v>
+      <c r="A7" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>252</v>
+        <v>244</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="30" t="s">
-        <v>203</v>
+      <c r="A8" s="25" t="s">
+        <v>201</v>
       </c>
       <c r="B8">
         <v>3.5</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>251</v>
+        <v>244</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="30" t="s">
-        <v>204</v>
+      <c r="A9" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="B9">
         <v>0.85</v>
       </c>
       <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="30" t="s">
-        <v>205</v>
+      <c r="A10" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="B10">
         <v>0.45</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="51" t="s">
-        <v>206</v>
+      <c r="A11" s="46" t="s">
+        <v>204</v>
       </c>
       <c r="B11">
-        <v>1.25</v>
+        <f>0.6*1.1</f>
+        <v>0.66</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="51" t="s">
-        <v>207</v>
+      <c r="A12" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <f>2.25*1.1</f>
+        <v>2.4750000000000001</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B11:B12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{291BDE3D-39D1-4A5F-8AE8-38D12FACEBEA}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{30E600D4-05E2-43D5-ADDD-73424F47F91D}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{5506D572-E27E-4AFF-BA0F-006BFCB04704}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{AC8CF186-BAD9-4525-9887-B3A6409D1D52}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{6BCBEB49-53CD-4FB9-A741-B4B122942000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{092DD633-0AC1-4F6C-BAB1-C79B8883E3C5}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{C98486F0-077B-4740-8AF0-20CBA02E0195}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{7025CCBD-77ED-41A8-8A69-2D69E5C2183E}"/>
-    <hyperlink ref="D3" r:id="rId9" xr:uid="{664A5837-CF7C-409A-BE98-AFB718953232}"/>
-    <hyperlink ref="D2" r:id="rId10" xr:uid="{B031B00F-21F7-464A-B559-3CB7506D9BED}"/>
-    <hyperlink ref="D4" r:id="rId11" xr:uid="{042C6450-ED4A-4FAE-883C-F3B67CDCDACA}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{30E600D4-05E2-43D5-ADDD-73424F47F91D}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{AC8CF186-BAD9-4525-9887-B3A6409D1D52}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{6BCBEB49-53CD-4FB9-A741-B4B122942000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{092DD633-0AC1-4F6C-BAB1-C79B8883E3C5}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{C98486F0-077B-4740-8AF0-20CBA02E0195}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{7025CCBD-77ED-41A8-8A69-2D69E5C2183E}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{664A5837-CF7C-409A-BE98-AFB718953232}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{B031B00F-21F7-464A-B559-3CB7506D9BED}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{042C6450-ED4A-4FAE-883C-F3B67CDCDACA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4120,7 +4369,7 @@
         <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
@@ -4130,8 +4379,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="30" t="s">
-        <v>197</v>
+      <c r="A2" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="B2">
         <v>222</v>
@@ -4140,12 +4389,12 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="30" t="s">
-        <v>198</v>
+      <c r="A3" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="B3">
         <v>85.8</v>
@@ -4154,12 +4403,12 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
-        <v>199</v>
+      <c r="A4" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="B4">
         <v>64.3</v>
@@ -4168,12 +4417,12 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
-        <v>200</v>
+      <c r="A5" s="25" t="s">
+        <v>198</v>
       </c>
       <c r="B5">
         <v>74.8</v>
@@ -4182,12 +4431,12 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
-        <v>201</v>
+      <c r="A6" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="B6">
         <v>61.1</v>
@@ -4196,12 +4445,12 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
-        <v>202</v>
+      <c r="A7" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="B7">
         <v>381</v>
@@ -4210,12 +4459,12 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30" t="s">
-        <v>203</v>
+      <c r="A8" s="25" t="s">
+        <v>201</v>
       </c>
       <c r="B8">
         <v>53.6</v>
@@ -4224,12 +4473,12 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30" t="s">
-        <v>204</v>
+      <c r="A9" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="B9">
         <v>53.3</v>
@@ -4238,12 +4487,12 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30" t="s">
-        <v>205</v>
+      <c r="A10" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="B10">
         <v>52.3</v>
@@ -4252,12 +4501,12 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="30" t="s">
-        <v>206</v>
+      <c r="A11" s="25" t="s">
+        <v>204</v>
       </c>
       <c r="B11">
         <v>78.5</v>
@@ -4265,16 +4514,16 @@
       <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>244</v>
+      <c r="D11" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="30" t="s">
-        <v>207</v>
+      <c r="A12" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="B12">
         <v>50.5</v>
@@ -4283,14 +4532,14 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>245</v>
+        <v>211</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="43"/>
+      <c r="A14" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4303,7 +4552,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4316,27 +4565,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2" s="4">
         <v>37</v>
@@ -4344,22 +4593,22 @@
       <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>233</v>
+      <c r="D2" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -4367,31 +4616,31 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B7" s="4">
         <v>71</v>
@@ -4400,10 +4649,10 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4416,11 +4665,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85D0432-6958-423D-87F2-E8A979C87816}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4432,708 +4681,708 @@
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="31.7265625" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="18" t="s">
+      <c r="V1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="44">
+    <row r="2" spans="1:23">
+      <c r="A2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="39">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="44">
-        <v>0</v>
-      </c>
-      <c r="G2" s="44">
-        <v>0</v>
-      </c>
-      <c r="H2" s="44">
-        <v>0</v>
-      </c>
-      <c r="I2" s="44" t="s">
+      <c r="F2" s="39">
+        <v>0</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+      <c r="H2" s="39">
+        <v>0</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="41">
+        <v>0</v>
+      </c>
+      <c r="K2" s="39">
+        <v>0</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="N2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="46">
-        <v>0</v>
-      </c>
-      <c r="M2" s="44">
-        <v>0</v>
-      </c>
-      <c r="N2" s="44">
+      <c r="O2" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="39">
         <f xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O2" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P2" s="44" t="s">
+      <c r="R2" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="39">
+        <v>0</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
+      </c>
+      <c r="H3" s="39">
+        <v>0</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="39">
+        <v>0</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P3" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="39">
+        <f t="shared" ref="Q3:Q7" si="0" xml:space="preserve"> 0.5*0.001</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="39">
+        <v>2</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="39">
+        <v>0</v>
+      </c>
+      <c r="K4" s="39">
+        <v>0</v>
+      </c>
+      <c r="L4" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="Q2" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="44">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="44">
-        <v>2</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="44" t="s">
+      <c r="M4" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="44">
-        <v>0</v>
-      </c>
-      <c r="G3" s="44">
-        <v>0</v>
-      </c>
-      <c r="H3" s="44">
-        <v>0</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="44">
-        <v>0</v>
-      </c>
-      <c r="M3" s="44">
-        <v>0</v>
-      </c>
-      <c r="N3" s="44">
-        <f t="shared" ref="N3:N7" si="0" xml:space="preserve"> 0.5*0.001</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="44">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="44">
-        <v>2</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="44">
-        <v>0</v>
-      </c>
-      <c r="G4" s="44">
-        <v>0</v>
-      </c>
-      <c r="H4" s="44">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="44">
-        <v>0</v>
-      </c>
-      <c r="M4" s="44">
-        <v>0</v>
-      </c>
-      <c r="N4" s="44">
+      <c r="O4" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="39">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O4" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P4" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q4" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="R4" s="44">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4" t="s">
+      <c r="R4" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="44">
+    <row r="5" spans="1:23">
+      <c r="A5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="39">
         <v>2</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="44" t="s">
+      <c r="C5" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="44">
-        <v>0</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0</v>
-      </c>
-      <c r="H5" s="44">
-        <v>0</v>
-      </c>
-      <c r="I5" s="44" t="s">
+      <c r="F5" s="39">
+        <v>0</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="39">
+        <v>0</v>
+      </c>
+      <c r="K5" s="39">
+        <v>0</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="N5" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="44">
-        <v>0</v>
-      </c>
-      <c r="M5" s="44">
-        <v>0</v>
-      </c>
-      <c r="N5" s="44">
+      <c r="O5" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="39">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O5" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q5" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="R5" s="44">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="s">
+      <c r="R5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="44">
+    <row r="6" spans="1:23">
+      <c r="A6" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="44" t="s">
+      <c r="C6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="44">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="44" t="s">
+      <c r="F6" s="39">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0</v>
+      </c>
+      <c r="I6" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="39">
+        <v>0</v>
+      </c>
+      <c r="K6" s="39">
+        <v>0</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="M6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="N6" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="44">
-        <v>0</v>
-      </c>
-      <c r="M6" s="44">
-        <v>0</v>
-      </c>
-      <c r="N6" s="44">
+      <c r="O6" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="39">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O6" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="R6" s="44">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="s">
+      <c r="R6" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:23">
+      <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="44" t="s">
+      <c r="L7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="46">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" s="44">
+      <c r="O7" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="P7" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="39">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O7" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P7" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="R7" s="44">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="s">
+      <c r="R7" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:23">
+      <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="44">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44" t="s">
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="39">
         <v>1</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="39">
+        <v>0</v>
+      </c>
+      <c r="K8" s="41">
+        <v>0</v>
+      </c>
+      <c r="L8" s="39">
+        <v>0</v>
+      </c>
+      <c r="M8" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="N8" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="44">
-        <v>0</v>
-      </c>
-      <c r="M8" s="46">
-        <v>0</v>
-      </c>
-      <c r="N8" s="44">
-        <v>0</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P8" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="44" t="s">
+      <c r="O8" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="R8" s="44">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="19" t="s">
+      <c r="P8" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>0</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="39">
         <v>3</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="44">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-      <c r="H9" s="44">
-        <v>0</v>
-      </c>
-      <c r="I9" s="44" t="s">
+      <c r="F9" s="39">
+        <v>0</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+      <c r="H9" s="39">
+        <v>0</v>
+      </c>
+      <c r="I9" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="39">
+        <v>0</v>
+      </c>
+      <c r="K9" s="41">
+        <v>0</v>
+      </c>
+      <c r="L9" s="39">
+        <v>0</v>
+      </c>
+      <c r="M9" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="N9" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="44">
-        <v>0</v>
-      </c>
-      <c r="M9" s="46">
-        <v>0</v>
-      </c>
-      <c r="N9" s="44">
-        <v>0</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P9" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="44" t="s">
+      <c r="O9" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="R9" s="44">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="19" t="s">
+      <c r="P9" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>0</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="39">
+        <v>5</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+      <c r="H10" s="39">
+        <v>0</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="39">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+      <c r="L10" s="39">
+        <v>0</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V10" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="44">
-        <v>5</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="44" t="s">
+      <c r="B11" s="39">
+        <v>6</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="44">
-        <v>0</v>
-      </c>
-      <c r="G10" s="44">
-        <v>0</v>
-      </c>
-      <c r="H10" s="44">
-        <v>0</v>
-      </c>
-      <c r="I10" s="44" t="s">
+      <c r="F11" s="39">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
+        <v>0</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="44" t="s">
+      <c r="J11" s="39">
+        <v>0</v>
+      </c>
+      <c r="K11" s="41">
+        <v>0</v>
+      </c>
+      <c r="L11" s="39">
+        <v>0</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="44">
-        <v>0</v>
-      </c>
-      <c r="M10" s="46">
-        <v>0</v>
-      </c>
-      <c r="N10" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="O10" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P10" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="44" t="s">
+      <c r="O11" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="R10" s="44">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>82</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="44">
-        <v>6</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="44">
-        <v>0</v>
-      </c>
-      <c r="G11" s="44">
-        <v>0</v>
-      </c>
-      <c r="H11" s="44">
-        <v>0</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="44">
-        <v>0</v>
-      </c>
-      <c r="M11" s="46">
-        <v>0</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="P11" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="R11" s="44">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4" t="s">
+      <c r="P11" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5150,7 +5399,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5161,7 +5410,8 @@
     <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" customWidth="1"/>
     <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.26953125" bestFit="1" customWidth="1"/>
@@ -5171,417 +5421,417 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="57">
+        <v>0.129</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="36">
+        <v>0</v>
+      </c>
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
+        <v>0</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="59">
         <v>1E-3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="49">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="F3" s="61">
+        <v>0.129</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H3" s="49">
+        <v>0</v>
+      </c>
+      <c r="I3" s="49">
+        <v>0</v>
+      </c>
+      <c r="J3" s="49">
+        <v>0</v>
+      </c>
+      <c r="K3" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" s="62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="20" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="59">
         <v>1E-3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="49">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E4" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="F4" s="61">
+        <v>0.129</v>
+      </c>
+      <c r="G4" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H4" s="49">
+        <v>0</v>
+      </c>
+      <c r="I4" s="49">
+        <v>0</v>
+      </c>
+      <c r="J4" s="49">
+        <v>0</v>
+      </c>
+      <c r="K4" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" s="62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="20" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="59">
         <v>1E-3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="49">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E5" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F5" s="61">
+        <v>0.129</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="H5" s="49">
+        <v>0</v>
+      </c>
+      <c r="I5" s="49">
+        <v>0</v>
+      </c>
+      <c r="J5" s="49">
+        <v>0</v>
+      </c>
+      <c r="K5" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" s="62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="20" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="59">
         <v>1E-3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="49">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E6" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="F6" s="61">
+        <v>0.129</v>
+      </c>
+      <c r="G6" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="49">
+        <v>0</v>
+      </c>
+      <c r="J6" s="49">
+        <v>0</v>
+      </c>
+      <c r="K6" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L6" s="62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:12">
+      <c r="A7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="63">
         <v>1E-3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="65">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E7" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F7" s="66">
+        <v>0.129</v>
+      </c>
+      <c r="G7" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="H7" s="65">
+        <v>0</v>
+      </c>
+      <c r="I7" s="65">
+        <v>0</v>
+      </c>
+      <c r="J7" s="65">
+        <v>0</v>
+      </c>
+      <c r="K7" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" s="67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>1E-3</v>
-      </c>
-      <c r="C7" s="15" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E8" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F8" s="57">
+        <v>1.27E-4</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="L7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="L8" s="58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="59">
+        <v>0</v>
+      </c>
+      <c r="C9" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="49">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E9" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F9" s="61">
+        <v>1.27E-4</v>
+      </c>
+      <c r="G9" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H9" s="49">
+        <v>0</v>
+      </c>
+      <c r="I9" s="49">
+        <v>0</v>
+      </c>
+      <c r="J9" s="49">
+        <v>0</v>
+      </c>
+      <c r="K9" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" s="62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="59">
+        <v>0</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="49">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="F10" s="61">
+        <v>1.27E-4</v>
+      </c>
+      <c r="G10" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H10" s="49">
+        <v>0</v>
+      </c>
+      <c r="I10" s="49">
+        <v>0</v>
+      </c>
+      <c r="J10" s="49">
+        <v>0</v>
+      </c>
+      <c r="K10" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" s="62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="19" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B11" s="63">
+        <v>0</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="65">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E11" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F11" s="66">
+        <v>1.27E-4</v>
+      </c>
+      <c r="G11" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H11" s="65">
+        <v>0</v>
+      </c>
+      <c r="I11" s="65">
+        <v>0</v>
+      </c>
+      <c r="J11" s="65">
+        <v>0</v>
+      </c>
+      <c r="K11" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="L10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="29">
-        <v>1E-10</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="L11" s="67" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5618,54 +5868,54 @@
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="A2" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="12">
         <v>0</v>
       </c>
       <c r="C2" s="5">
@@ -5709,14 +5959,14 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="34" t="s">
-        <v>112</v>
+      <c r="A3" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -5756,8 +6006,8 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="34" t="s">
-        <v>113</v>
+      <c r="A4" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -5766,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -5803,8 +6053,8 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="34" t="s">
-        <v>114</v>
+      <c r="A5" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -5816,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -5833,10 +6083,10 @@
       <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="36">
-        <v>0</v>
-      </c>
-      <c r="L5" s="36">
+      <c r="K5" s="31">
+        <v>0</v>
+      </c>
+      <c r="L5" s="31">
         <v>0</v>
       </c>
       <c r="M5" s="9">
@@ -5850,8 +6100,8 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="34" t="s">
-        <v>115</v>
+      <c r="A6" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -5866,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -5897,8 +6147,8 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="34" t="s">
-        <v>116</v>
+      <c r="A7" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -5916,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -5944,7 +6194,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="9">
@@ -5966,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -5991,7 +6241,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="9">
@@ -6016,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -6038,7 +6288,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="9">
@@ -6062,11 +6312,11 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="32">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>23</v>
@@ -6085,8 +6335,8 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="22" t="s">
-        <v>110</v>
+      <c r="A11" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -6132,8 +6382,8 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="22" t="s">
-        <v>111</v>
+      <c r="A12" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -6179,7 +6429,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="9">
@@ -6226,7 +6476,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="9">
@@ -6273,7 +6523,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="9">
@@ -6351,8 +6601,8 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -6373,7 +6623,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -6399,191 +6649,191 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="33">
-        <v>0</v>
-      </c>
-      <c r="D2" s="33">
-        <v>0</v>
-      </c>
-      <c r="E2" s="33">
-        <v>0</v>
-      </c>
-      <c r="F2" s="33">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>179</v>
+      <c r="H2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="33">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33">
-        <v>0</v>
-      </c>
-      <c r="E3" s="33">
-        <v>0</v>
-      </c>
-      <c r="F3" s="33">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>179</v>
+      <c r="H3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33">
-        <v>0</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>179</v>
+      <c r="H4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="33">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33">
-        <v>0</v>
-      </c>
-      <c r="E5" s="33">
-        <v>0</v>
-      </c>
-      <c r="F5" s="33">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>179</v>
+      <c r="H5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="33">
-        <v>0</v>
-      </c>
-      <c r="D6" s="33">
-        <v>0</v>
-      </c>
-      <c r="E6" s="33">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>179</v>
+      <c r="H6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="33">
-        <v>0</v>
-      </c>
-      <c r="C7" s="39">
-        <v>0</v>
-      </c>
-      <c r="D7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="40">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>181</v>
+      <c r="E7" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="H9" s="30"/>
+      <c r="H9" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6596,7 +6846,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6611,183 +6861,183 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>135</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>136</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>137</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>138</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>139</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>140</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>141</v>
       </c>
-      <c r="M1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="23">
         <v>0.95</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="23">
         <v>0.05</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="24">
         <f xml:space="preserve"> 25 +273</f>
         <v>298</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="24">
         <f>90 + 273</f>
         <v>363</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="24">
         <f>125 + 273</f>
         <v>398</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="24">
         <v>0.18</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="24">
         <v>0.5</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="28">
+      <c r="M2" s="24">
         <v>100</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="24">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>0.95</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>0.05</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="24">
         <f t="shared" ref="F3:F4" si="0" xml:space="preserve"> 25 +273</f>
         <v>298</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="24">
         <f t="shared" ref="G3:G4" si="1">90 + 273</f>
         <v>363</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="24">
         <f t="shared" ref="H3:H4" si="2">125 + 273</f>
         <v>398</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="24">
         <v>0.18</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="24">
         <v>0.5</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="28">
+      <c r="M3" s="24">
         <v>100</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="24">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="A4" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="11">
         <v>0.95</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>0.05</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="24">
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <f t="shared" si="1"/>
         <v>363</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="24">
         <f t="shared" si="2"/>
         <v>398</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="24">
         <v>0.18</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="24">
         <v>0.5</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="28">
+      <c r="M4" s="24">
         <v>100</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="24">
         <v>80</v>
       </c>
     </row>
@@ -6800,8 +7050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFEA29F-1D3A-4383-97E1-D31836BA3887}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H22" sqref="H21:H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -6810,10 +7060,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="71" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6923,10 +7173,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6949,10 +7199,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
@@ -6960,123 +7210,123 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7086,24 +7336,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE819A9C-4E64-4D0F-8F31-2F1BF4DCFD79}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
     <col min="2" max="4" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.90625" customWidth="1"/>
     <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="12" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -7111,15 +7367,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>74</v>
@@ -7140,337 +7396,436 @@
         <v>57</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="20" t="s">
+      <c r="L3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>186</v>
+      <c r="B4" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>261</v>
+      </c>
+      <c r="N4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O4" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q4">
+        <v>0.129</v>
+      </c>
+      <c r="R4" t="s">
+        <v>277</v>
+      </c>
+      <c r="S4" t="s">
+        <v>275</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5">
+        <v>52.5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>261</v>
+      </c>
+      <c r="N5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5">
+        <v>0.127</v>
+      </c>
+      <c r="R5" t="s">
+        <v>277</v>
+      </c>
+      <c r="S5" t="s">
+        <v>276</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6">
+        <v>44.62</v>
+      </c>
+      <c r="M6" t="s">
+        <v>261</v>
+      </c>
+      <c r="N6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="M8" s="51">
+        <f>AVERAGE(L4:L6)</f>
+        <v>42.373333333333335</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="H13" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="H14" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="I14" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="J14" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:20">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:20">
       <c r="C16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{FF9F5D45-B842-485F-A0FB-AEAC01DDFACF}"/>
+    <hyperlink ref="J5:J9" r:id="rId2" display="https://doi.org/10.2166/wst.2022.040" xr:uid="{951CCE2E-3D17-4591-AD1B-35DCE1616B88}"/>
+    <hyperlink ref="T4" r:id="rId3" xr:uid="{192E795C-4EE4-46AA-B4EB-EEB47C5A87DB}"/>
+    <hyperlink ref="T5" r:id="rId4" xr:uid="{855CD2A9-DBE3-4CF5-A783-5833192F252E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4CE708-EBC7-4F74-9A3F-0BB9F07F0F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014E4BB-1788-4EBA-B95C-20AB6F29DC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="309">
   <si>
     <t>components</t>
   </si>
@@ -209,9 +209,6 @@
     <t>liq_liq_ext</t>
   </si>
   <si>
-    <t>NF</t>
-  </si>
-  <si>
     <t>ut_chem_price</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>[0.01,  0.01, 0.5, 1]</t>
   </si>
   <si>
-    <t>cost_waste</t>
-  </si>
-  <si>
     <t>REFERENCES process parameters</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>waste</t>
   </si>
   <si>
-    <t>kgHoc/kgFEED</t>
-  </si>
-  <si>
     <t>inputs</t>
   </si>
   <si>
@@ -365,12 +356,6 @@
     <t>bm</t>
   </si>
   <si>
-    <t>[0.95, 0.95, 0.95, 0.05] ; [0.05, 0.05, 0.05, 0.95]</t>
-  </si>
-  <si>
-    <t>[0.95, 0.95, 0.05] ; [0.05, 0.05, 0.95]</t>
-  </si>
-  <si>
     <t>[0.95, 0.05]; [0.05, 0.95]</t>
   </si>
   <si>
@@ -416,9 +401,6 @@
     <t>y_liq_liq</t>
   </si>
   <si>
-    <t>y_NF</t>
-  </si>
-  <si>
     <t>y_freu</t>
   </si>
   <si>
@@ -561,12 +543,6 @@
   </si>
   <si>
     <t>McCubbin et al</t>
-  </si>
-  <si>
-    <t>TOFIND</t>
-  </si>
-  <si>
-    <t>Koyuncu et al (2000)</t>
   </si>
   <si>
     <t>Reguiera et al (2018)</t>
@@ -788,12 +764,6 @@
     <t>fed-batch (FFB, biomass contained in fibers)</t>
   </si>
   <si>
-    <t>Distillation_2.json</t>
-  </si>
-  <si>
-    <t>Distillation_3.json</t>
-  </si>
-  <si>
     <t>https://shuowanchemical.en.made-in-china.com/product/XQoUxvSJhVcb/China-99-5-CAS-79-09-4-Propionic-Acid-for-Food-Preservatives.html</t>
   </si>
   <si>
@@ -872,18 +842,6 @@
     <t>https://doi.org/10.2166/wst.2022.040</t>
   </si>
   <si>
-    <t>https://doi.org/10.2166/wst.2022.041</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2166/wst.2022.042</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2166/wst.2022.043</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2166/wst.2022.044</t>
-  </si>
-  <si>
     <t>https://doi.org/10.2166/wst.2022.045</t>
   </si>
   <si>
@@ -905,33 +863,147 @@
     <t>https://doi.org/10.1016/j.scitotenv.2018.09.363</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[0.95, 0.95, 0.05]; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[0.05, 0.05, 0.95]</t>
-    </r>
-  </si>
-  <si>
-    <t>$/kg</t>
-  </si>
-  <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t>OR_NF</t>
+  </si>
+  <si>
+    <t>[0.95, 0.95, 0.05]; [0.05, 0.05, 0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water retention in OR membrane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">price </t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value </t>
+  </si>
+  <si>
+    <t>l/h</t>
+  </si>
+  <si>
+    <t>Q (flow in)</t>
+  </si>
+  <si>
+    <t>J (permeate)</t>
+  </si>
+  <si>
+    <t>A (area)</t>
+  </si>
+  <si>
+    <t>p (pressure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar </t>
+  </si>
+  <si>
+    <t>L/(h*m2*bar)</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>L/h</t>
+  </si>
+  <si>
+    <t>flow of water</t>
+  </si>
+  <si>
+    <t>% water going through</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.seppur.2022.120840 </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domingos et al </t>
+  </si>
+  <si>
+    <t>calculate from data Domingos et al</t>
+  </si>
+  <si>
+    <t>see price list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ec.europa.eu/eurostat/statistics-explained/index.php?title=Electricity_price_statistics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.scitotenv.2018.09.363 </t>
+  </si>
+  <si>
+    <t>kPa</t>
+  </si>
+  <si>
+    <t>l/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work </t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power consumption </t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>powe per input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh/kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asumption 1L == 1Kg </t>
+  </si>
+  <si>
+    <t>[0.98, 0.99, 0.97, 0] ; [0.02, 0.01, 0.03, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reboiler duty liq-liq-distillation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feed flow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">solvent added </t>
+  </si>
+  <si>
+    <t>power consumption reboiler</t>
+  </si>
+  <si>
+    <t>power per unit of weight</t>
+  </si>
+  <si>
+    <t>kwh/kg</t>
+  </si>
+  <si>
+    <t>y_D2</t>
+  </si>
+  <si>
+    <t>price_USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distillation_2.json </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,8 +1102,19 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1305,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1413,21 +1496,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1436,10 +1514,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1456,6 +1534,31 @@
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1882,7 +1985,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>1159510</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1952,13 +2055,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100330</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2033,13 +2136,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1308100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2125,13 +2228,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>73660</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2200,13 +2303,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2301,13 +2404,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>811530</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1849120</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2369,16 +2472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2203450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2393,8 +2496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9886950" y="4864100"/>
-          <a:ext cx="1295400" cy="1543050"/>
+          <a:off x="10356850" y="2571750"/>
+          <a:ext cx="2051050" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2462,13 +2565,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>379730</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2578,14 +2681,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441961</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>53953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>326390</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>20330</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2622,13 +2725,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>43180</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1494790</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2702,16 +2805,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>773430</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9946</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>23495</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>92499</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>63924</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2726,8 +2829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10639743" y="2930946"/>
-          <a:ext cx="3835506" cy="3705228"/>
+          <a:off x="11177270" y="2689011"/>
+          <a:ext cx="3835189" cy="3668398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,13 +2947,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>160654</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>46036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>936625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2927,15 +3030,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>200872</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>139594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3073,22 +3176,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>105901</xdr:colOff>
+      <xdr:colOff>584835</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>150811</xdr:rowOff>
+      <xdr:rowOff>10585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>56740</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>81076</xdr:rowOff>
+      <xdr:colOff>356142</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57">
+        <xdr:cNvPr id="54" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF62936-21DA-FE1A-A014-6C9C17368E44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B112884F-EFAF-6FE8-2245-66413C59C619}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,8 +3207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3145964" y="3270249"/>
-          <a:ext cx="7578776" cy="3581515"/>
+          <a:off x="3623310" y="2906185"/>
+          <a:ext cx="7267482" cy="3438849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3598,13 +3701,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>48260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -3671,6 +3774,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>36969</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9402714-73D5-990A-FF49-56FD851926BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24809450" y="3314700"/>
+          <a:ext cx="9047619" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3976,7 +4123,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3987,7 +4134,8 @@
     <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
@@ -4007,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -4016,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -4030,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C2" s="4">
         <v>1000</v>
@@ -4039,19 +4187,19 @@
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -4071,17 +4219,17 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3">
-        <f>0.6*1.1</f>
-        <v>0.66</v>
+        <f>0.6</f>
+        <v>0.6</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>17</v>
@@ -4104,17 +4252,17 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4">
-        <f>2.25*1.1</f>
-        <v>2.4750000000000001</v>
+        <f>2.25</f>
+        <v>2.25</v>
       </c>
       <c r="H4" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
@@ -4129,7 +4277,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F4 E7:F8 E12:G12 G2:G4 J2:J4 H7:H8">
+  <conditionalFormatting sqref="G2:G4 J2:J4 F3:F4 E7:F8 H7:H8 E12:G12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4142,189 +4290,273 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5896565C-0CFB-4158-9B0C-FB654BCEAE1A}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>0.37</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D2" s="73">
+        <f>B2*1/1.1</f>
+        <v>0.33636363636363631</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="25" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B3">
         <v>1.85</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D3" s="73">
+        <f t="shared" ref="D3:D12" si="0">B3*1/1.1</f>
+        <v>1.6818181818181817</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B4">
         <v>0.4</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D4" s="73">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="25" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <v>0.51</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D5" s="73">
+        <f t="shared" si="0"/>
+        <v>0.46363636363636362</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="25" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D6" s="73">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="25" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D7" s="73">
+        <f t="shared" si="0"/>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B8">
         <v>3.5</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D8" s="73">
+        <f t="shared" si="0"/>
+        <v>3.1818181818181817</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="25" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B9">
         <v>0.85</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D9" s="73">
+        <f t="shared" si="0"/>
+        <v>0.7727272727272726</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B10">
         <v>0.45</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D10" s="73">
+        <f t="shared" si="0"/>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="46" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B11">
+        <f>2.25 *1.1</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="73">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12">
         <f>0.6*1.1</f>
         <v>0.66</v>
       </c>
-      <c r="C11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12">
-        <f>2.25*1.1</f>
-        <v>2.4750000000000001</v>
-      </c>
       <c r="C12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>234</v>
+      </c>
+      <c r="D12" s="73">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="38"/>
     </row>
   </sheetData>
@@ -4335,15 +4567,15 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{30E600D4-05E2-43D5-ADDD-73424F47F91D}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{AC8CF186-BAD9-4525-9887-B3A6409D1D52}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{6BCBEB49-53CD-4FB9-A741-B4B122942000}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{092DD633-0AC1-4F6C-BAB1-C79B8883E3C5}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{C98486F0-077B-4740-8AF0-20CBA02E0195}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{7025CCBD-77ED-41A8-8A69-2D69E5C2183E}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{664A5837-CF7C-409A-BE98-AFB718953232}"/>
-    <hyperlink ref="D2" r:id="rId8" xr:uid="{B031B00F-21F7-464A-B559-3CB7506D9BED}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{042C6450-ED4A-4FAE-883C-F3B67CDCDACA}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{30E600D4-05E2-43D5-ADDD-73424F47F91D}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{AC8CF186-BAD9-4525-9887-B3A6409D1D52}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{6BCBEB49-53CD-4FB9-A741-B4B122942000}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{092DD633-0AC1-4F6C-BAB1-C79B8883E3C5}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{C98486F0-077B-4740-8AF0-20CBA02E0195}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{7025CCBD-77ED-41A8-8A69-2D69E5C2183E}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{664A5837-CF7C-409A-BE98-AFB718953232}"/>
+    <hyperlink ref="F2" r:id="rId8" xr:uid="{B031B00F-21F7-464A-B559-3CB7506D9BED}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{042C6450-ED4A-4FAE-883C-F3B67CDCDACA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
@@ -4366,176 +4598,176 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B2">
         <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="25" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B3">
         <v>85.8</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="25" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B4">
         <v>64.3</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <v>74.8</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B6">
         <v>61.1</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="25" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B7">
         <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="25" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B8">
         <v>53.6</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B9">
         <v>53.3</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B10">
         <v>52.3</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B11">
         <v>78.5</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="25" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B12">
         <v>50.5</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4565,94 +4797,94 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
         <v>224</v>
       </c>
-      <c r="E1" t="s">
-        <v>232</v>
-      </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B2" s="4">
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" t="s">
         <v>230</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B7" s="4">
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4665,11 +4897,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85D0432-6958-423D-87F2-E8A979C87816}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4684,7 +4916,7 @@
     <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="31.7265625" customWidth="1"/>
+    <col min="12" max="12" width="31.6328125" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="39.26953125" bestFit="1" customWidth="1"/>
@@ -4703,34 +4935,34 @@
         <v>6</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G1" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="42" t="s">
-        <v>69</v>
-      </c>
       <c r="I1" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L1" s="42" t="s">
         <v>28</v>
@@ -4739,42 +4971,42 @@
         <v>15</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O1" s="42" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="R1" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B2" s="39">
         <v>2</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="39">
         <v>0</v>
@@ -4786,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="41">
         <v>0</v>
@@ -4795,16 +5027,16 @@
         <v>0</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="P2" s="39">
         <v>0</v>
@@ -4814,30 +5046,30 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B3" s="39">
         <v>2</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="39">
         <v>0</v>
@@ -4849,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" s="39">
         <v>0</v>
@@ -4858,16 +5090,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N3" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="O3" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="P3" s="39">
         <v>0</v>
@@ -4877,30 +5109,30 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" s="39">
         <v>2</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="39">
         <v>0</v>
@@ -4912,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="39">
         <v>0</v>
@@ -4921,16 +5153,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="O4" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="P4" s="39">
         <v>0</v>
@@ -4940,30 +5172,30 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B5" s="39">
         <v>2</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="39">
         <v>0</v>
@@ -4975,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="39">
         <v>0</v>
@@ -4984,16 +5216,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="O5" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="P5" s="39">
         <v>0</v>
@@ -5003,30 +5235,30 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B6" s="39">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="39">
         <v>0</v>
@@ -5038,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="39">
         <v>0</v>
@@ -5047,16 +5279,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="P6" s="39">
         <v>0</v>
@@ -5066,13 +5298,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -5083,13 +5315,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="41">
         <v>0</v>
@@ -5101,25 +5333,25 @@
         <v>0</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="O7" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="P7" s="39">
         <v>0</v>
@@ -5129,13 +5361,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -5146,25 +5378,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="39">
         <v>0</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="39">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J8" s="39">
         <v>0</v>
@@ -5176,22 +5408,22 @@
         <v>0</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="54" t="s">
-        <v>106</v>
+        <v>74</v>
+      </c>
+      <c r="O8" s="70" t="s">
+        <v>299</v>
       </c>
       <c r="P8" s="39">
         <v>0</v>
       </c>
-      <c r="Q8" s="39">
-        <v>0</v>
+      <c r="Q8" s="78">
+        <v>5.2994419171786343E-2</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -5202,81 +5434,81 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B9" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E9" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+      <c r="H9" s="39">
+        <v>0</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="39">
+        <v>0</v>
+      </c>
+      <c r="K9" s="41">
+        <v>0</v>
+      </c>
+      <c r="L9" s="39">
+        <v>0</v>
+      </c>
+      <c r="M9" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="39">
-        <v>0</v>
-      </c>
-      <c r="G9" s="39">
-        <v>0</v>
-      </c>
-      <c r="H9" s="39">
-        <v>0</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="39">
-        <v>0</v>
-      </c>
-      <c r="K9" s="41">
-        <v>0</v>
-      </c>
-      <c r="L9" s="39">
-        <v>0</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>76</v>
-      </c>
       <c r="N9" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>107</v>
+        <v>74</v>
+      </c>
+      <c r="O9" s="71" t="s">
+        <v>267</v>
       </c>
       <c r="P9" s="39">
         <v>0</v>
       </c>
-      <c r="Q9" s="39">
-        <v>0</v>
+      <c r="Q9" s="79" t="s">
+        <v>308</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="V9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" s="39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="39">
         <v>0</v>
@@ -5288,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="39">
         <v>0</v>
@@ -5300,90 +5532,28 @@
         <v>0</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="54" t="s">
-        <v>279</v>
+        <v>74</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>103</v>
       </c>
       <c r="P10" s="39">
         <v>0</v>
       </c>
-      <c r="Q10" s="45" t="s">
-        <v>240</v>
+      <c r="Q10" s="45">
+        <v>0.6</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="V10" t="s">
-        <v>82</v>
+        <v>163</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="39">
-        <v>6</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="39">
-        <v>0</v>
-      </c>
-      <c r="G11" s="39">
-        <v>0</v>
-      </c>
-      <c r="H11" s="39">
-        <v>0</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="39">
-        <v>0</v>
-      </c>
-      <c r="K11" s="41">
-        <v>0</v>
-      </c>
-      <c r="L11" s="39">
-        <v>0</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="P11" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5396,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AAB0C4-AECD-43D0-BAFA-6C4220D77958}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5422,60 +5592,60 @@
         <v>6</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>61</v>
+        <v>106</v>
+      </c>
+      <c r="B2" s="52">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="57">
+      <c r="E2" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="54">
         <v>0.129</v>
       </c>
-      <c r="G2" s="56" t="s">
-        <v>61</v>
+      <c r="G2" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="H2" s="36">
         <v>0</v>
@@ -5487,223 +5657,223 @@
         <v>0</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="59">
-        <v>1E-3</v>
-      </c>
-      <c r="C3" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="56">
+        <v>0</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="61">
+      <c r="F3" s="58">
         <v>0.129</v>
       </c>
-      <c r="G3" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="49">
-        <v>0</v>
-      </c>
-      <c r="I3" s="49">
-        <v>0</v>
-      </c>
-      <c r="J3" s="49">
-        <v>0</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="62" t="s">
-        <v>65</v>
+      <c r="G3" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="59">
-        <v>1E-3</v>
-      </c>
-      <c r="C4" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="56">
+        <v>0</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="61">
+      <c r="F4" s="58">
         <v>0.129</v>
       </c>
-      <c r="G4" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="49">
-        <v>0</v>
-      </c>
-      <c r="I4" s="49">
-        <v>0</v>
-      </c>
-      <c r="J4" s="49">
-        <v>0</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="62" t="s">
-        <v>65</v>
+      <c r="G4" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="59">
-        <v>1E-3</v>
-      </c>
-      <c r="C5" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="56">
+        <v>0</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E5" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="61">
+      <c r="F5" s="58">
         <v>0.129</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="49">
-        <v>0</v>
-      </c>
-      <c r="I5" s="49">
-        <v>0</v>
-      </c>
-      <c r="J5" s="49">
-        <v>0</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="62" t="s">
-        <v>65</v>
+      <c r="G5" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="59">
-        <v>1E-3</v>
-      </c>
-      <c r="C6" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="56">
+        <v>0</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="61">
+      <c r="F6" s="58">
         <v>0.129</v>
       </c>
-      <c r="G6" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="49">
-        <v>0</v>
-      </c>
-      <c r="I6" s="49">
-        <v>0</v>
-      </c>
-      <c r="J6" s="49">
-        <v>0</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="62" t="s">
-        <v>65</v>
+      <c r="G6" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="63">
-        <v>1E-3</v>
-      </c>
-      <c r="C7" s="64" t="s">
+      <c r="B7" s="60">
+        <v>0</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E7" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="65">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="66">
+      <c r="F7" s="63">
         <v>0.129</v>
       </c>
-      <c r="G7" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="65">
-        <v>0</v>
-      </c>
-      <c r="I7" s="65">
-        <v>0</v>
-      </c>
-      <c r="J7" s="65">
-        <v>0</v>
-      </c>
-      <c r="K7" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="67" t="s">
-        <v>65</v>
+      <c r="G7" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="62">
+        <v>0</v>
+      </c>
+      <c r="I7" s="62">
+        <v>0</v>
+      </c>
+      <c r="J7" s="62">
+        <v>0</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>61</v>
+      <c r="B8" s="52">
+        <v>45</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E8" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="57">
+      <c r="E8" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="54">
         <v>1.27E-4</v>
       </c>
-      <c r="G8" s="56" t="s">
-        <v>61</v>
+      <c r="G8" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="H8" s="36">
         <v>0</v>
@@ -5715,124 +5885,86 @@
         <v>0</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="59">
-        <v>0</v>
-      </c>
-      <c r="C9" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="56">
+        <v>0</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="61">
+      <c r="F9" s="58">
         <v>1.27E-4</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="49">
-        <v>0</v>
-      </c>
-      <c r="I9" s="49">
-        <v>0</v>
-      </c>
-      <c r="J9" s="49">
-        <v>0</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>64</v>
+      <c r="G9" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="59">
-        <v>0</v>
-      </c>
-      <c r="C10" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="60">
+        <v>0</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="49">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="61">
+      <c r="F10" s="63">
         <v>1.27E-4</v>
       </c>
-      <c r="G10" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="49">
-        <v>0</v>
-      </c>
-      <c r="I10" s="49">
-        <v>0</v>
-      </c>
-      <c r="J10" s="49">
-        <v>0</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="63">
-        <v>0</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="65">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="66">
-        <v>1.27E-4</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="65">
-        <v>0</v>
-      </c>
-      <c r="I11" s="65">
-        <v>0</v>
-      </c>
-      <c r="J11" s="65">
-        <v>0</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="67" t="s">
-        <v>64</v>
+      <c r="G10" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="62">
+        <v>0</v>
+      </c>
+      <c r="I10" s="62">
+        <v>0</v>
+      </c>
+      <c r="J10" s="62">
+        <v>0</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5844,11 +5976,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC952C-F64C-4F30-9DDA-924F82AF01AE}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5860,31 +5992,31 @@
     <col min="5" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>45</v>
@@ -5893,27 +6025,24 @@
         <v>53</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -5954,19 +6083,16 @@
       <c r="N2" s="9">
         <v>0</v>
       </c>
-      <c r="O2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -5998,16 +6124,13 @@
       <c r="M3" s="9">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -6016,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -6045,28 +6168,25 @@
       <c r="M4" s="9">
         <v>0</v>
       </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -6086,37 +6206,34 @@
       <c r="K5" s="31">
         <v>0</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="9">
         <v>0</v>
       </c>
       <c r="M5" s="9">
         <v>0</v>
       </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -6139,34 +6256,31 @@
       <c r="M6" s="9">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -6186,14 +6300,11 @@
       <c r="M7" s="9">
         <v>0</v>
       </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="29" t="s">
         <v>45</v>
       </c>
@@ -6216,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -6233,14 +6344,11 @@
       <c r="M8" s="9">
         <v>0</v>
       </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="18" t="s">
         <v>53</v>
       </c>
@@ -6266,30 +6374,27 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
       <c r="M9" s="9">
         <v>0</v>
       </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10" s="18" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -6312,11 +6417,11 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="9">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>23</v>
@@ -6327,16 +6432,13 @@
       <c r="M10" s="9">
         <v>0</v>
       </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -6371,19 +6473,16 @@
       <c r="L11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="9">
-        <v>0</v>
+      <c r="M11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="N11" s="9">
         <v>0</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="18" t="s">
-        <v>110</v>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -6418,19 +6517,16 @@
       <c r="L12" s="9">
         <v>0</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="9">
         <v>0</v>
@@ -6471,13 +6567,10 @@
       <c r="N13" s="9">
         <v>0</v>
       </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="19" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -6518,60 +6611,10 @@
       <c r="N14" s="9">
         <v>0</v>
       </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3 D4 E5 F6 G7 H8">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B3:B8 C4:C7 C8:G8 C2:I2 D5:D7 D3:H3 E4 E6:E7 F4:F5 F7 G4:G6 H4:H7 I3:I8 B9:I14 J2:N14">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6580,8 +6623,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B8 C4:C7 C8:G8 C2:O2 D5:D7 D3:H3 E4 E6:E7 F4:F5 F7 G4:G6 H4:H7 I3:O8 B9:O15">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="D4 C3 E5 F6 G7 H8">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6623,7 +6666,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -6649,10 +6692,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C2" s="28">
         <v>0</v>
@@ -6667,21 +6710,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C3" s="28">
         <v>0</v>
@@ -6696,21 +6739,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C4" s="28">
         <v>0</v>
@@ -6725,21 +6768,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -6754,21 +6797,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C6" s="28">
         <v>0</v>
@@ -6783,18 +6826,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -6806,19 +6849,19 @@
         <v>46</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G7" s="35">
         <v>0</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6861,54 +6904,54 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>135</v>
-      </c>
-      <c r="I1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="23">
         <v>0.95</v>
@@ -6935,10 +6978,10 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M2" s="24">
         <v>100</v>
@@ -6949,13 +6992,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="21" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" s="11">
         <v>0.95</v>
@@ -6982,10 +7025,10 @@
         <v>0.5</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M3" s="24">
         <v>100</v>
@@ -6996,13 +7039,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D4" s="11">
         <v>0.95</v>
@@ -7029,10 +7072,10 @@
         <v>0.5</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M4" s="24">
         <v>100</v>
@@ -7060,10 +7103,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7133,50 +7176,50 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7199,134 +7242,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
         <v>149</v>
-      </c>
-      <c r="C9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -7336,10 +7379,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE819A9C-4E64-4D0F-8F31-2F1BF4DCFD79}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7347,44 +7390,53 @@
     <col min="1" max="1" width="29.1796875" customWidth="1"/>
     <col min="2" max="4" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.90625" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="11" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="9" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.1796875" customWidth="1"/>
+    <col min="18" max="18" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="P2" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="X2" s="72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>84</v>
+      <c r="G3" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>55</v>
@@ -7392,440 +7444,618 @@
       <c r="I3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N3" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="L4">
+      <c r="H4" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4">
         <v>30</v>
       </c>
+      <c r="L4" t="s">
+        <v>251</v>
+      </c>
       <c r="M4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4" t="s">
+        <v>252</v>
+      </c>
+      <c r="P4">
+        <v>0.129</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>263</v>
+      </c>
+      <c r="R4" t="s">
         <v>261</v>
       </c>
-      <c r="N4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O4" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q4">
-        <v>0.129</v>
-      </c>
-      <c r="R4" t="s">
-        <v>277</v>
-      </c>
-      <c r="S4" t="s">
-        <v>275</v>
-      </c>
-      <c r="T4" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="S4" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="X4" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y4" s="58">
+        <f>(0.5 +0.17 +0.38+0.08) *1000</f>
+        <v>1130.0000000000002</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="L5">
+      <c r="H5" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5">
         <v>52.5</v>
       </c>
+      <c r="L5" t="s">
+        <v>251</v>
+      </c>
       <c r="M5" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="N5" t="s">
-        <v>260</v>
-      </c>
-      <c r="O5" t="s">
+        <v>253</v>
+      </c>
+      <c r="P5">
+        <v>0.127</v>
+      </c>
+      <c r="Q5" t="s">
         <v>263</v>
       </c>
-      <c r="Q5">
-        <v>0.127</v>
-      </c>
       <c r="R5" t="s">
-        <v>277</v>
-      </c>
-      <c r="S5" t="s">
-        <v>276</v>
-      </c>
-      <c r="T5" s="37" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>262</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="X5" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y5">
+        <v>9960</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="L6">
+      <c r="H6" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6">
         <v>44.62</v>
       </c>
+      <c r="L6" t="s">
+        <v>251</v>
+      </c>
       <c r="M6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="N6" t="s">
-        <v>260</v>
-      </c>
-      <c r="O6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1">
+        <v>254</v>
+      </c>
+      <c r="X6" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y6">
+        <v>11363</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1">
       <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+      <c r="H7" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" thickBot="1">
       <c r="A8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="M8" s="51">
-        <f>AVERAGE(L4:L6)</f>
+      <c r="H8" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="L8" s="49">
+        <f>AVERAGE(K4:K6)</f>
         <v>42.373333333333335</v>
       </c>
-      <c r="N8" s="52" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="M8" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="P8" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="X8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y8" s="74">
+        <f xml:space="preserve"> Y4/(Y5 + Y6)</f>
+        <v>5.2994419171786343E-2</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="H9" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="G10" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="P10" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q10">
+        <v>400</v>
+      </c>
+      <c r="R10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="D11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="G11" s="75" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="H11" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="P11" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="73">
+        <v>2.83</v>
+      </c>
+      <c r="R11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="H12" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="P12" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q12">
+        <v>0.38</v>
+      </c>
+      <c r="R12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="G13" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="H13" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="P13" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q13">
+        <v>30</v>
+      </c>
+      <c r="R13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="G14" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="H14" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="P15" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q15" s="73">
+        <f>Q11*Q12*Q13</f>
+        <v>32.262</v>
+      </c>
+      <c r="R15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="C16" s="4"/>
+      <c r="P16" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q16">
+        <f>Q15/Q10</f>
+        <v>8.0655000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="16:18">
+      <c r="Q17" s="73">
+        <f>Q16*100</f>
+        <v>8.0655000000000001</v>
+      </c>
+      <c r="R17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="16:18">
+      <c r="P26" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q26">
+        <v>400</v>
+      </c>
+      <c r="R26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="16:18">
+      <c r="P27" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q27">
+        <f>Q26/3600</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="16:18">
+      <c r="P29" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q29">
+        <v>20</v>
+      </c>
+      <c r="R29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="16:18">
+      <c r="P30" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q30">
+        <f>Q29 *100</f>
+        <v>2000</v>
+      </c>
+      <c r="R30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="16:18">
+      <c r="P32" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q32">
+        <f>Q30*Q27</f>
+        <v>222.2222222222222</v>
+      </c>
+      <c r="R32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18">
+      <c r="P33" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q33">
+        <f>Q32</f>
+        <v>222.2222222222222</v>
+      </c>
+      <c r="R33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="16:18">
+      <c r="P35" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q35">
+        <f>Q33/Q26</f>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="R35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="16:18">
+      <c r="P36" t="s">
+        <v>298</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{FF9F5D45-B842-485F-A0FB-AEAC01DDFACF}"/>
-    <hyperlink ref="J5:J9" r:id="rId2" display="https://doi.org/10.2166/wst.2022.040" xr:uid="{951CCE2E-3D17-4591-AD1B-35DCE1616B88}"/>
-    <hyperlink ref="T4" r:id="rId3" xr:uid="{192E795C-4EE4-46AA-B4EB-EEB47C5A87DB}"/>
-    <hyperlink ref="T5" r:id="rId4" xr:uid="{855CD2A9-DBE3-4CF5-A783-5833192F252E}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{FF9F5D45-B842-485F-A0FB-AEAC01DDFACF}"/>
+    <hyperlink ref="S4" r:id="rId2" xr:uid="{192E795C-4EE4-46AA-B4EB-EEB47C5A87DB}"/>
+    <hyperlink ref="S5" r:id="rId3" xr:uid="{855CD2A9-DBE3-4CF5-A783-5833192F252E}"/>
+    <hyperlink ref="R8" r:id="rId4" xr:uid="{D14A1F3C-7697-4A62-886E-44F955C2E229}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{9399B6FC-9C16-486E-AC2D-015C8BC594F0}"/>
+    <hyperlink ref="H5:H14" r:id="rId6" display="https://ec.europa.eu/eurostat/statistics-explained/index.php?title=Electricity_price_statistics " xr:uid="{B38A6026-4E1B-4D21-A81A-AFC539E0071F}"/>
+    <hyperlink ref="I10" r:id="rId7" display="https://doi.org/10.1016/j.scitotenv.2018.09.363" xr:uid="{B8C1DD74-6754-481C-A417-2F773D10552F}"/>
+    <hyperlink ref="I11" r:id="rId8" display="https://doi.org/10.1016/j.scitotenv.2018.09.363" xr:uid="{F698081D-64E5-438D-AF60-86DEA40EDBF4}"/>
+    <hyperlink ref="I12" r:id="rId9" xr:uid="{1372C018-4B44-414D-BE2E-00F138362AAE}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{30728B11-3D3A-4269-87D1-5B6195389CE2}"/>
+    <hyperlink ref="I13" r:id="rId11" xr:uid="{6D64F44C-E546-415E-91F1-2FD8C7E62D67}"/>
+    <hyperlink ref="I5" r:id="rId12" xr:uid="{F746A824-6AC5-4661-B7F4-48777A619756}"/>
+    <hyperlink ref="I6" r:id="rId13" xr:uid="{7FA2A7F8-1C0D-42D4-9E02-B99F80DFC8BB}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{778974ED-15CC-4E14-B7D5-9C50F3C9F709}"/>
+    <hyperlink ref="I7" r:id="rId15" xr:uid="{F4A4DDC8-517D-4A51-B6F8-22DB8A85D725}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{DE7EA573-101C-4361-90D7-A078870E63AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014E4BB-1788-4EBA-B95C-20AB6F29DC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D6C90C-F1F1-4437-960E-E1AE71CFF123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="312">
   <si>
     <t>components</t>
   </si>
@@ -416,9 +416,6 @@
     <t>units</t>
   </si>
   <si>
-    <t>[0.95, 0.95, 0.95, 0] ; [0.05, 0.05, 0.05, 1]</t>
-  </si>
-  <si>
     <t>Dist1.json</t>
   </si>
   <si>
@@ -534,9 +531,6 @@
   </si>
   <si>
     <t>energy_consumption</t>
-  </si>
-  <si>
-    <t>kWh/kg</t>
   </si>
   <si>
     <t xml:space="preserve">DWA </t>
@@ -764,6 +758,12 @@
     <t>fed-batch (FFB, biomass contained in fibers)</t>
   </si>
   <si>
+    <t>Distillation_2.json</t>
+  </si>
+  <si>
+    <t>Distillation_3.json</t>
+  </si>
+  <si>
     <t>https://shuowanchemical.en.made-in-china.com/product/XQoUxvSJhVcb/China-99-5-CAS-79-09-4-Propionic-Acid-for-Food-Preservatives.html</t>
   </si>
   <si>
@@ -992,7 +992,16 @@
     <t>price_USD</t>
   </si>
   <si>
-    <t xml:space="preserve">Distillation_2.json </t>
+    <t>not considering the solvent seeing as in the model only 0.3 kg_solvent/h is being added ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i.e. the solvent that is lost during the </t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 0] ; [0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t>kWh/(kg/h)</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1567,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4123,7 +4132,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4138,7 +4147,7 @@
     <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4178,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" s="4">
         <v>1000</v>
@@ -4190,7 +4199,7 @@
         <v>265</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -4199,7 +4208,7 @@
         <v>60</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -4225,7 +4234,6 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>0.6</f>
         <v>0.6</v>
       </c>
       <c r="H3" t="s">
@@ -4258,7 +4266,6 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f>2.25</f>
         <v>2.25</v>
       </c>
       <c r="H4" t="s">
@@ -4314,7 +4321,7 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
         <v>122</v>
@@ -4325,7 +4332,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2">
         <v>0.37</v>
@@ -4346,7 +4353,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>1.85</v>
@@ -4367,7 +4374,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>0.4</v>
@@ -4388,7 +4395,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <v>0.51</v>
@@ -4409,7 +4416,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4430,7 +4437,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4451,7 +4458,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8">
         <v>3.5</v>
@@ -4472,7 +4479,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>0.85</v>
@@ -4493,7 +4500,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B10">
         <v>0.45</v>
@@ -4514,7 +4521,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B11">
         <f>2.25 *1.1</f>
@@ -4536,7 +4543,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12">
         <f>0.6*1.1</f>
@@ -4601,7 +4608,7 @@
         <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -4612,7 +4619,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2">
         <v>222</v>
@@ -4621,12 +4628,12 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>85.8</v>
@@ -4635,12 +4642,12 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>64.3</v>
@@ -4649,12 +4656,12 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <v>74.8</v>
@@ -4663,12 +4670,12 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>61.1</v>
@@ -4677,12 +4684,12 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B7">
         <v>381</v>
@@ -4691,12 +4698,12 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8">
         <v>53.6</v>
@@ -4705,12 +4712,12 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>53.3</v>
@@ -4719,12 +4726,12 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B10">
         <v>52.3</v>
@@ -4733,12 +4740,12 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B11">
         <v>78.5</v>
@@ -4747,7 +4754,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>232</v>
@@ -4755,7 +4762,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12">
         <v>50.5</v>
@@ -4764,7 +4771,7 @@
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>233</v>
@@ -4797,27 +4804,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="4">
         <v>37</v>
@@ -4826,21 +4833,21 @@
         <v>69</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -4848,31 +4855,31 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B7" s="4">
         <v>71</v>
@@ -4881,10 +4888,10 @@
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4900,8 +4907,8 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P14" sqref="P14"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4919,7 +4926,7 @@
     <col min="12" max="12" width="31.6328125" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
@@ -4980,7 +4987,7 @@
         <v>72</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R1" s="42" t="s">
         <v>59</v>
@@ -5003,7 +5010,7 @@
         <v>119</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>74</v>
@@ -5027,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M2" s="39" t="s">
         <v>101</v>
@@ -5036,7 +5043,7 @@
         <v>74</v>
       </c>
       <c r="O2" s="69" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="P2" s="39">
         <v>0</v>
@@ -5046,7 +5053,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -5066,7 +5073,7 @@
         <v>119</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>74</v>
@@ -5090,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M3" s="39" t="s">
         <v>101</v>
@@ -5099,7 +5106,7 @@
         <v>74</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="P3" s="39">
         <v>0</v>
@@ -5109,7 +5116,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -5129,7 +5136,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>74</v>
@@ -5153,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="39" t="s">
         <v>101</v>
@@ -5162,7 +5169,7 @@
         <v>74</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="P4" s="39">
         <v>0</v>
@@ -5172,7 +5179,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -5192,7 +5199,7 @@
         <v>119</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>74</v>
@@ -5216,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M5" s="39" t="s">
         <v>101</v>
@@ -5225,7 +5232,7 @@
         <v>74</v>
       </c>
       <c r="O5" s="69" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="P5" s="39">
         <v>0</v>
@@ -5235,7 +5242,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -5255,7 +5262,7 @@
         <v>119</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>74</v>
@@ -5279,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M6" s="39" t="s">
         <v>101</v>
@@ -5288,7 +5295,7 @@
         <v>74</v>
       </c>
       <c r="O6" s="69" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="P6" s="39">
         <v>0</v>
@@ -5298,7 +5305,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -5318,7 +5325,7 @@
         <v>119</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>74</v>
@@ -5342,7 +5349,7 @@
         <v>120</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M7" s="43" t="s">
         <v>101</v>
@@ -5351,7 +5358,7 @@
         <v>74</v>
       </c>
       <c r="O7" s="69" t="s">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="P7" s="39">
         <v>0</v>
@@ -5361,7 +5368,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -5420,10 +5427,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="78">
-        <v>5.2994419171786343E-2</v>
+        <v>0.113</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -5481,11 +5488,11 @@
       <c r="P9" s="39">
         <v>0</v>
       </c>
-      <c r="Q9" s="79" t="s">
-        <v>308</v>
+      <c r="Q9" s="45" t="s">
+        <v>230</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="V9" t="s">
         <v>81</v>
@@ -5543,11 +5550,11 @@
       <c r="P10" s="39">
         <v>0</v>
       </c>
-      <c r="Q10" s="45">
-        <v>0.6</v>
+      <c r="Q10" s="45" t="s">
+        <v>231</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -5569,7 +5576,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5635,7 +5642,7 @@
       <c r="C2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="79">
         <v>2.2000000000000002</v>
       </c>
       <c r="E2" s="53" t="s">
@@ -5673,7 +5680,7 @@
       <c r="C3" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="79">
         <v>2.2000000000000002</v>
       </c>
       <c r="E3" s="57" t="s">
@@ -5711,7 +5718,7 @@
       <c r="C4" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="79">
         <v>2.2000000000000002</v>
       </c>
       <c r="E4" s="57" t="s">
@@ -5749,7 +5756,7 @@
       <c r="C5" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="79">
         <v>2.2000000000000002</v>
       </c>
       <c r="E5" s="57" t="s">
@@ -5787,7 +5794,7 @@
       <c r="C6" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="79">
         <v>2.2000000000000002</v>
       </c>
       <c r="E6" s="57" t="s">
@@ -5825,7 +5832,7 @@
       <c r="C7" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="79">
         <v>2.2000000000000002</v>
       </c>
       <c r="E7" s="61" t="s">
@@ -5863,7 +5870,7 @@
       <c r="C8" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="79">
         <v>2.2000000000000002</v>
       </c>
       <c r="E8" s="53" t="s">
@@ -5901,7 +5908,7 @@
       <c r="C9" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="79">
         <v>2.2000000000000002</v>
       </c>
       <c r="E9" s="57" t="s">
@@ -5939,7 +5946,7 @@
       <c r="C10" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="79">
         <v>2.2000000000000002</v>
       </c>
       <c r="E10" s="61" t="s">
@@ -6001,7 +6008,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>106</v>
@@ -6042,7 +6049,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -6623,7 +6630,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 C3 E5 F6 G7 H8">
+  <conditionalFormatting sqref="C3 D4 E5 F6 G7 H8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6666,7 +6673,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -6692,10 +6699,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="28">
         <v>0</v>
@@ -6713,18 +6720,18 @@
         <v>100</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="28">
         <v>0</v>
@@ -6742,18 +6749,18 @@
         <v>100</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4" s="28">
         <v>0</v>
@@ -6771,18 +6778,18 @@
         <v>100</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -6800,18 +6807,18 @@
         <v>100</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="28">
         <v>0</v>
@@ -6829,15 +6836,15 @@
         <v>100</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -6849,19 +6856,19 @@
         <v>46</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G7" s="35">
         <v>0</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6889,7 +6896,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6904,51 +6911,51 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>131</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>132</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>133</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>134</v>
-      </c>
-      <c r="N1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>70</v>
@@ -6978,10 +6985,10 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M2" s="24">
         <v>100</v>
@@ -6992,10 +6999,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>95</v>
@@ -7025,10 +7032,10 @@
         <v>0.5</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M3" s="24">
         <v>100</v>
@@ -7039,13 +7046,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="D4" s="11">
         <v>0.95</v>
@@ -7072,10 +7079,10 @@
         <v>0.5</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M4" s="24">
         <v>100</v>
@@ -7094,7 +7101,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -7216,10 +7223,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -7242,10 +7249,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7253,10 +7260,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>120</v>
@@ -7264,10 +7271,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>120</v>
@@ -7275,10 +7282,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>121</v>
@@ -7286,10 +7293,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>121</v>
@@ -7297,10 +7304,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>121</v>
@@ -7308,68 +7315,68 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -7381,8 +7388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE819A9C-4E64-4D0F-8F31-2F1BF4DCFD79}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7424,10 +7431,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>73</v>
@@ -7475,19 +7482,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H4" s="76" t="s">
         <v>288</v>
@@ -7535,19 +7542,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>288</v>
@@ -7594,19 +7601,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H6" s="76" t="s">
         <v>288</v>
@@ -7641,19 +7648,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H7" s="76" t="s">
         <v>288</v>
@@ -7667,19 +7674,19 @@
         <v>25</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H8" s="76" t="s">
         <v>288</v>
@@ -7707,8 +7714,8 @@
         <v>304</v>
       </c>
       <c r="Y8" s="74">
-        <f xml:space="preserve"> Y4/(Y5 + Y6)</f>
-        <v>5.2994419171786343E-2</v>
+        <f xml:space="preserve"> Y4/(Y5 )</f>
+        <v>0.1134538152610442</v>
       </c>
       <c r="Z8" t="s">
         <v>305</v>
@@ -7719,19 +7726,19 @@
         <v>45</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G9" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H9" s="76" t="s">
         <v>288</v>
@@ -7747,6 +7754,9 @@
       </c>
       <c r="R9" s="1" t="s">
         <v>245</v>
+      </c>
+      <c r="X9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -7754,16 +7764,16 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>287</v>
@@ -7782,6 +7792,9 @@
       </c>
       <c r="R10" t="s">
         <v>272</v>
+      </c>
+      <c r="X10" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -7792,16 +7805,16 @@
         <v>285</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>286</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G11" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H11" s="76" t="s">
         <v>288</v>
@@ -7824,19 +7837,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H12" s="76" t="s">
         <v>288</v>
@@ -7859,19 +7872,19 @@
         <v>51</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G13" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H13" s="76" t="s">
         <v>288</v>
@@ -7894,19 +7907,19 @@
         <v>52</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H14" s="76" t="s">
         <v>288</v>

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D6C90C-F1F1-4437-960E-E1AE71CFF123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79750BA-8988-4899-A494-EDA7677A0064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="313">
   <si>
     <t>components</t>
   </si>
@@ -234,12 +234,6 @@
   </si>
   <si>
     <t>inv2_param</t>
-  </si>
-  <si>
-    <t>ApenPlus: flileName</t>
-  </si>
-  <si>
-    <t>lala et al. (2023) blabla et al. (2020)</t>
   </si>
   <si>
     <t>Tau_time_horizon</t>
@@ -1002,6 +996,15 @@
   </si>
   <si>
     <t>kWh/(kg/h)</t>
+  </si>
+  <si>
+    <t>?/</t>
+  </si>
+  <si>
+    <t>unit_ut</t>
+  </si>
+  <si>
+    <t>kg/kgFeed</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1381,23 +1384,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1521,20 +1513,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1567,7 +1556,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4132,7 +4126,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G3" sqref="G3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4173,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -4187,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="4">
         <v>1000</v>
@@ -4196,10 +4190,10 @@
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -4208,7 +4202,7 @@
         <v>60</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -4228,7 +4222,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -4260,7 +4254,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -4312,19 +4306,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>57</v>
@@ -4332,15 +4326,15 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <v>0.37</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="73">
+        <v>232</v>
+      </c>
+      <c r="D2" s="70">
         <f>B2*1/1.1</f>
         <v>0.33636363636363631</v>
       </c>
@@ -4348,20 +4342,20 @@
         <v>60</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>1.85</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="73">
+        <v>232</v>
+      </c>
+      <c r="D3" s="70">
         <f t="shared" ref="D3:D12" si="0">B3*1/1.1</f>
         <v>1.6818181818181817</v>
       </c>
@@ -4369,20 +4363,20 @@
         <v>60</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4">
         <v>0.4</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="73">
+        <v>232</v>
+      </c>
+      <c r="D4" s="70">
         <f t="shared" si="0"/>
         <v>0.36363636363636365</v>
       </c>
@@ -4390,20 +4384,20 @@
         <v>60</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5">
         <v>0.51</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="73">
+        <v>232</v>
+      </c>
+      <c r="D5" s="70">
         <f t="shared" si="0"/>
         <v>0.46363636363636362</v>
       </c>
@@ -4411,20 +4405,20 @@
         <v>60</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="73">
+        <v>232</v>
+      </c>
+      <c r="D6" s="70">
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
@@ -4432,20 +4426,20 @@
         <v>60</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="73">
+        <v>232</v>
+      </c>
+      <c r="D7" s="70">
         <f t="shared" si="0"/>
         <v>5.4545454545454541</v>
       </c>
@@ -4453,20 +4447,20 @@
         <v>60</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8">
         <v>3.5</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="73">
+        <v>232</v>
+      </c>
+      <c r="D8" s="70">
         <f t="shared" si="0"/>
         <v>3.1818181818181817</v>
       </c>
@@ -4474,20 +4468,20 @@
         <v>60</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>0.85</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="73">
+        <v>232</v>
+      </c>
+      <c r="D9" s="70">
         <f t="shared" si="0"/>
         <v>0.7727272727272726</v>
       </c>
@@ -4495,20 +4489,20 @@
         <v>60</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10">
         <v>0.45</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="73">
+        <v>232</v>
+      </c>
+      <c r="D10" s="70">
         <f t="shared" si="0"/>
         <v>0.40909090909090906</v>
       </c>
@@ -4516,21 +4510,21 @@
         <v>60</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11">
         <f>2.25 *1.1</f>
         <v>2.4750000000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="73">
+        <v>232</v>
+      </c>
+      <c r="D11" s="70">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
@@ -4538,21 +4532,21 @@
         <v>60</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B12">
         <f>0.6*1.1</f>
         <v>0.66</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="73">
+        <v>232</v>
+      </c>
+      <c r="D12" s="70">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -4560,7 +4554,7 @@
         <v>60</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4605,10 +4599,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -4619,7 +4613,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <v>222</v>
@@ -4628,12 +4622,12 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>85.8</v>
@@ -4642,12 +4636,12 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4">
         <v>64.3</v>
@@ -4656,12 +4650,12 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5">
         <v>74.8</v>
@@ -4670,12 +4664,12 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6">
         <v>61.1</v>
@@ -4684,12 +4678,12 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7">
         <v>381</v>
@@ -4698,12 +4692,12 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8">
         <v>53.6</v>
@@ -4712,12 +4706,12 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>53.3</v>
@@ -4726,12 +4720,12 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10">
         <v>52.3</v>
@@ -4740,12 +4734,12 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11">
         <v>78.5</v>
@@ -4754,15 +4748,15 @@
         <v>60</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B12">
         <v>50.5</v>
@@ -4771,10 +4765,10 @@
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4804,94 +4798,94 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" s="4">
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" s="4">
         <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4906,9 +4900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85D0432-6958-423D-87F2-E8A979C87816}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4919,8 +4913,8 @@
     <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="8.6328125" customWidth="1"/>
     <col min="12" max="12" width="31.6328125" customWidth="1"/>
@@ -4942,34 +4936,34 @@
         <v>6</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>59</v>
+        <v>311</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L1" s="42" t="s">
         <v>28</v>
@@ -4978,42 +4972,42 @@
         <v>15</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O1" s="42" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R1" s="42" t="s">
         <v>59</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="39">
         <v>2</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="39">
         <v>0</v>
@@ -5025,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" s="41">
         <v>0</v>
@@ -5034,16 +5028,16 @@
         <v>0</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="69" t="s">
-        <v>310</v>
+        <v>72</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>308</v>
       </c>
       <c r="P2" s="39">
         <v>0</v>
@@ -5053,30 +5047,30 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="39">
         <v>2</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" s="39">
         <v>0</v>
@@ -5088,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J3" s="39">
         <v>0</v>
@@ -5097,16 +5091,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="69" t="s">
-        <v>310</v>
+        <v>72</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>308</v>
       </c>
       <c r="P3" s="39">
         <v>0</v>
@@ -5116,30 +5110,30 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="39">
         <v>2</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" s="39">
         <v>0</v>
@@ -5151,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J4" s="39">
         <v>0</v>
@@ -5160,16 +5154,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="69" t="s">
-        <v>310</v>
+        <v>72</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>308</v>
       </c>
       <c r="P4" s="39">
         <v>0</v>
@@ -5179,30 +5173,30 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R4" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="39">
         <v>2</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" s="39">
         <v>0</v>
@@ -5214,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" s="39">
         <v>0</v>
@@ -5223,16 +5217,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="69" t="s">
-        <v>310</v>
+        <v>72</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>308</v>
       </c>
       <c r="P5" s="39">
         <v>0</v>
@@ -5242,30 +5236,30 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="39">
         <v>2</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="39">
         <v>0</v>
@@ -5277,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J6" s="39">
         <v>0</v>
@@ -5286,16 +5280,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="69" t="s">
-        <v>310</v>
+        <v>72</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>308</v>
       </c>
       <c r="P6" s="39">
         <v>0</v>
@@ -5305,13 +5299,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -5322,13 +5316,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="41">
         <v>0</v>
@@ -5340,25 +5334,25 @@
         <v>0</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="69" t="s">
-        <v>310</v>
+        <v>72</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>308</v>
       </c>
       <c r="P7" s="39">
         <v>0</v>
@@ -5368,13 +5362,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -5385,52 +5379,53 @@
         <v>3</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="77">
+        <f>0.3/9960</f>
+        <v>3.0120481927710842E-5</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0</v>
+      </c>
+      <c r="K8" s="41">
+        <v>0</v>
+      </c>
+      <c r="L8" s="39">
+        <v>0</v>
+      </c>
+      <c r="M8" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="39">
-        <v>0</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="39">
-        <v>0</v>
-      </c>
-      <c r="K8" s="41">
-        <v>0</v>
-      </c>
-      <c r="L8" s="39">
-        <v>0</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>76</v>
-      </c>
       <c r="N8" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="70" t="s">
-        <v>299</v>
+        <v>72</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>297</v>
       </c>
       <c r="P8" s="39">
         <v>0</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="75">
         <v>0.113</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -5441,19 +5436,19 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="39">
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="39">
         <v>0</v>
@@ -5465,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J9" s="39">
         <v>0</v>
@@ -5477,45 +5472,45 @@
         <v>0</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N9" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="71" t="s">
-        <v>267</v>
+        <v>72</v>
+      </c>
+      <c r="O9" s="68" t="s">
+        <v>265</v>
       </c>
       <c r="P9" s="39">
         <v>0</v>
       </c>
       <c r="Q9" s="45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="39">
         <v>6</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10" s="39">
         <v>0</v>
@@ -5527,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="39">
         <v>0</v>
@@ -5542,25 +5537,25 @@
         <v>21</v>
       </c>
       <c r="N10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="71" t="s">
-        <v>103</v>
+        <v>72</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>101</v>
       </c>
       <c r="P10" s="39">
         <v>0</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5575,8 +5570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AAB0C4-AECD-43D0-BAFA-6C4220D77958}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5616,14 +5611,14 @@
       <c r="G1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="66" t="s">
-        <v>65</v>
+      <c r="J1" s="63" t="s">
+        <v>63</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>59</v>
@@ -5634,7 +5629,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="52">
         <v>0</v>
@@ -5642,8 +5637,8 @@
       <c r="C2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="79">
-        <v>2.2000000000000002</v>
+      <c r="D2">
+        <v>0.2</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>61</v>
@@ -5664,32 +5659,32 @@
         <v>0</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="55" t="s">
         <v>64</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="56">
-        <v>0</v>
-      </c>
-      <c r="C3" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="55">
+        <v>0</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="79">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E3" s="57" t="s">
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>0.129</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="56" t="s">
         <v>60</v>
       </c>
       <c r="H3">
@@ -5702,32 +5697,32 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="59" t="s">
         <v>64</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="56">
-        <v>0</v>
-      </c>
-      <c r="C4" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="55">
+        <v>0</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="79">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E4" s="57" t="s">
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="57">
         <v>0.129</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>60</v>
       </c>
       <c r="H4">
@@ -5740,32 +5735,32 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="59" t="s">
         <v>64</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="56">
-        <v>0</v>
-      </c>
-      <c r="C5" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="55">
+        <v>0</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="79">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E5" s="57" t="s">
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="57">
         <v>0.129</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>60</v>
       </c>
       <c r="H5">
@@ -5778,32 +5773,32 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="59" t="s">
         <v>64</v>
+      </c>
+      <c r="L5" s="76" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="56">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="55">
+        <v>0</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="79">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E6" s="57" t="s">
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="57">
         <v>0.129</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>60</v>
       </c>
       <c r="H6">
@@ -5816,48 +5811,48 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="59" t="s">
         <v>64</v>
+      </c>
+      <c r="L6" s="76" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="60">
-        <v>0</v>
-      </c>
-      <c r="C7" s="61" t="s">
+      <c r="B7" s="58">
+        <v>0</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="79">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E7" s="61" t="s">
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="61">
         <v>0.129</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="62">
-        <v>0</v>
-      </c>
-      <c r="I7" s="62">
-        <v>0</v>
-      </c>
-      <c r="J7" s="62">
-        <v>0</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="64" t="s">
+      <c r="H7" s="60">
+        <v>0</v>
+      </c>
+      <c r="I7" s="60">
+        <v>0</v>
+      </c>
+      <c r="J7" s="60">
+        <v>0</v>
+      </c>
+      <c r="K7" s="60" t="s">
         <v>64</v>
+      </c>
+      <c r="L7" s="76" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5870,8 +5865,8 @@
       <c r="C8" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="79">
-        <v>2.2000000000000002</v>
+      <c r="D8">
+        <v>0.2</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>61</v>
@@ -5892,32 +5887,32 @@
         <v>0</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="L8" s="76" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="56">
-        <v>0</v>
-      </c>
-      <c r="C9" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="55">
+        <v>0</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="79">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E9" s="57" t="s">
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="57">
         <v>1.27E-4</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>60</v>
       </c>
       <c r="H9">
@@ -5930,48 +5925,48 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="59" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="L9" s="76" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="60">
-        <v>0</v>
-      </c>
-      <c r="C10" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="58">
+        <v>0</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="79">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E10" s="61" t="s">
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="61">
         <v>1.27E-4</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="62">
-        <v>0</v>
-      </c>
-      <c r="I10" s="62">
-        <v>0</v>
-      </c>
-      <c r="J10" s="62">
-        <v>0</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="64" t="s">
-        <v>63</v>
+      <c r="H10" s="60">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60">
+        <v>0</v>
+      </c>
+      <c r="J10" s="60">
+        <v>0</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="76" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5987,7 +5982,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V20" sqref="V20"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -6008,22 +6003,22 @@
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>45</v>
@@ -6032,10 +6027,10 @@
         <v>53</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>19</v>
@@ -6044,12 +6039,12 @@
         <v>20</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -6093,13 +6088,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -6137,7 +6132,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -6146,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -6181,7 +6176,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -6193,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -6225,7 +6220,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -6240,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -6269,7 +6264,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -6287,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -6334,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -6381,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -6401,7 +6396,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -6428,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>23</v>
@@ -6445,7 +6440,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -6577,7 +6572,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="9">
         <v>0</v>
@@ -6630,7 +6625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 D4 E5 F6 G7 H8">
+  <conditionalFormatting sqref="D4 C3 E5 F6 G7 H8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6673,7 +6668,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -6699,10 +6694,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" s="28">
         <v>0</v>
@@ -6717,21 +6712,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="28">
         <v>0</v>
@@ -6746,21 +6741,21 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="28">
         <v>0</v>
@@ -6775,21 +6770,21 @@
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -6804,21 +6799,21 @@
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" s="28">
         <v>0</v>
@@ -6833,18 +6828,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="28">
         <v>0</v>
@@ -6856,19 +6851,19 @@
         <v>46</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G7" s="35">
         <v>0</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6911,54 +6906,54 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>132</v>
-      </c>
-      <c r="M1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="23">
         <v>0.95</v>
@@ -6985,10 +6980,10 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>149</v>
       </c>
       <c r="M2" s="24">
         <v>100</v>
@@ -6999,13 +6994,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" s="11">
         <v>0.95</v>
@@ -7032,10 +7027,10 @@
         <v>0.5</v>
       </c>
       <c r="K3" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>149</v>
       </c>
       <c r="M3" s="24">
         <v>100</v>
@@ -7046,13 +7041,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" s="11">
         <v>0.95</v>
@@ -7079,10 +7074,10 @@
         <v>0.5</v>
       </c>
       <c r="K4" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="24">
         <v>100</v>
@@ -7110,10 +7105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="65" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7183,50 +7178,50 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7249,10 +7244,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7260,123 +7255,123 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -7389,7 +7384,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7412,18 +7407,18 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="P2" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="X2" s="72" t="s">
-        <v>300</v>
+      <c r="P2" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="X2" s="69" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -7431,13 +7426,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -7453,25 +7448,25 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>57</v>
@@ -7482,59 +7477,59 @@
         <v>8</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>288</v>
+        <v>161</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>286</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K4">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M4" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" t="s">
         <v>250</v>
-      </c>
-      <c r="N4" t="s">
-        <v>252</v>
       </c>
       <c r="P4">
         <v>0.129</v>
       </c>
       <c r="Q4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="X4" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y4" s="58">
+        <v>301</v>
+      </c>
+      <c r="Y4" s="57">
         <f>(0.5 +0.17 +0.38+0.08) *1000</f>
         <v>1130.0000000000002</v>
       </c>
       <c r="Z4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -7542,58 +7537,58 @@
         <v>7</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="76" t="s">
-        <v>288</v>
+        <v>161</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>286</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K5">
         <v>52.5</v>
       </c>
       <c r="L5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M5" t="s">
+        <v>248</v>
+      </c>
+      <c r="N5" t="s">
         <v>251</v>
-      </c>
-      <c r="M5" t="s">
-        <v>250</v>
-      </c>
-      <c r="N5" t="s">
-        <v>253</v>
       </c>
       <c r="P5">
         <v>0.127</v>
       </c>
       <c r="Q5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R5" t="s">
+        <v>260</v>
+      </c>
+      <c r="S5" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="S5" s="37" t="s">
-        <v>264</v>
-      </c>
       <c r="X5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Y5">
         <v>9960</v>
       </c>
       <c r="Z5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -7601,46 +7596,46 @@
         <v>9</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="76" t="s">
-        <v>288</v>
+        <v>161</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>286</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K6">
         <v>44.62</v>
       </c>
       <c r="L6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="X6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Y6">
         <v>11363</v>
       </c>
       <c r="Z6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" thickBot="1">
@@ -7648,25 +7643,25 @@
         <v>10</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>288</v>
+        <v>161</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>286</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" thickBot="1">
@@ -7674,51 +7669,51 @@
         <v>25</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="76" t="s">
-        <v>288</v>
+        <v>161</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>286</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L8" s="49">
         <f>AVERAGE(K4:K6)</f>
         <v>42.373333333333335</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="P8" s="72" t="s">
-        <v>268</v>
+        <v>254</v>
+      </c>
+      <c r="P8" s="69" t="s">
+        <v>266</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="X8" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y8" s="74">
+        <v>302</v>
+      </c>
+      <c r="Y8" s="71">
         <f xml:space="preserve"> Y4/(Y5 )</f>
         <v>0.1134538152610442</v>
       </c>
       <c r="Z8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -7726,37 +7721,37 @@
         <v>45</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="76" t="s">
-        <v>288</v>
+      <c r="G9" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>286</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="X9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -7764,72 +7759,72 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G10" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="H10" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="I10" s="77" t="s">
-        <v>289</v>
-      </c>
       <c r="P10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q10">
         <v>400</v>
       </c>
       <c r="R10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="I11" s="77" t="s">
-        <v>289</v>
+      <c r="I11" s="74" t="s">
+        <v>287</v>
       </c>
       <c r="P11" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q11" s="73">
+        <v>272</v>
+      </c>
+      <c r="Q11" s="70">
         <v>2.83</v>
       </c>
       <c r="R11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -7837,34 +7832,34 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="I12" s="77" t="s">
-        <v>264</v>
+        <v>168</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" s="74" t="s">
+        <v>262</v>
       </c>
       <c r="P12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q12">
         <v>0.38</v>
       </c>
       <c r="R12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -7872,34 +7867,34 @@
         <v>51</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="I13" s="77" t="s">
-        <v>264</v>
+        <v>168</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>262</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q13">
         <v>30</v>
       </c>
       <c r="R13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -7907,44 +7902,44 @@
         <v>52</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="I14" s="77" t="s">
-        <v>264</v>
+        <v>168</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="C15" s="4"/>
       <c r="P15" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q15" s="73">
+        <v>279</v>
+      </c>
+      <c r="Q15" s="70">
         <f>Q11*Q12*Q13</f>
         <v>32.262</v>
       </c>
       <c r="R15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="C16" s="4"/>
       <c r="P16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q16">
         <f>Q15/Q10</f>
@@ -7952,99 +7947,99 @@
       </c>
     </row>
     <row r="17" spans="16:18">
-      <c r="Q17" s="73">
+      <c r="Q17" s="70">
         <f>Q16*100</f>
         <v>8.0655000000000001</v>
       </c>
       <c r="R17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="16:18">
       <c r="P26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q26">
         <v>400</v>
       </c>
       <c r="R26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="16:18">
       <c r="P27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q27">
         <f>Q26/3600</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="R27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="16:18">
       <c r="P29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q29">
         <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="16:18">
       <c r="P30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q30">
         <f>Q29 *100</f>
         <v>2000</v>
       </c>
       <c r="R30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="16:18">
       <c r="P32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q32">
         <f>Q30*Q27</f>
         <v>222.2222222222222</v>
       </c>
       <c r="R32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="16:18">
       <c r="P33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q33">
         <f>Q32</f>
         <v>222.2222222222222</v>
       </c>
       <c r="R33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="16:18">
       <c r="P35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q35">
         <f>Q33/Q26</f>
         <v>0.55555555555555547</v>
       </c>
       <c r="R35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="16:18">
       <c r="P36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79750BA-8988-4899-A494-EDA7677A0064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C203BE-6357-4C1F-85F6-BCD6B0E593A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="321">
   <si>
     <t>components</t>
   </si>
@@ -1005,6 +1005,30 @@
   </si>
   <si>
     <t>kg/kgFeed</t>
+  </si>
+  <si>
+    <t>loss of solvent in water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solubity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss solvent </t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=hexyl+acetate+solubility+in+water&amp;rlz=1C1QPHC_nlBE987BE987&amp;oq=solubility+hexyl+acetat&amp;aqs=chrome.2.69i57j0i22i30l2j0i8i13i15i30j0i390i650l5.8117j0j7&amp;sourceid=chrome&amp;ie=UTF-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss per kg entering </t>
+  </si>
+  <si>
+    <t>kgSolvent/kgFeed</t>
+  </si>
+  <si>
+    <t>g/h</t>
   </si>
 </sst>
 </file>
@@ -1063,12 +1087,6 @@
       <color rgb="FF008000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1130,6 +1148,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFFC000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1387,7 +1412,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1449,9 +1474,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1473,12 +1495,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1487,14 +1509,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1505,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1538,19 +1560,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1561,6 +1583,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3781,16 +3806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>86784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>36969</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>72876</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>428553</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168127</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3813,8 +3838,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24809450" y="3314700"/>
-          <a:ext cx="9047619" cy="1190476"/>
+          <a:off x="20478750" y="3166534"/>
+          <a:ext cx="9075136" cy="1160843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4157,7 +4182,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4166,7 +4191,7 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="46" t="s">
         <v>120</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -4192,7 +4217,7 @@
       <c r="E2" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>195</v>
       </c>
       <c r="G2" s="4">
@@ -4201,7 +4226,7 @@
       <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>195</v>
       </c>
       <c r="J2" s="4">
@@ -4293,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5896565C-0CFB-4158-9B0C-FB654BCEAE1A}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4334,19 +4359,19 @@
       <c r="C2" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="70">
+      <c r="D2" s="69">
         <f>B2*1/1.1</f>
         <v>0.33636363636363631</v>
       </c>
       <c r="E2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="77" t="s">
         <v>184</v>
       </c>
       <c r="B3">
@@ -4355,14 +4380,14 @@
       <c r="C3" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="69">
         <f t="shared" ref="D3:D12" si="0">B3*1/1.1</f>
         <v>1.6818181818181817</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4376,14 +4401,14 @@
       <c r="C4" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="69">
         <f t="shared" si="0"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4397,14 +4422,14 @@
       <c r="C5" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="69">
         <f t="shared" si="0"/>
         <v>0.46363636363636362</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4418,19 +4443,19 @@
       <c r="C6" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="69">
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="77" t="s">
         <v>188</v>
       </c>
       <c r="B7">
@@ -4439,14 +4464,14 @@
       <c r="C7" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="69">
         <f t="shared" si="0"/>
         <v>5.4545454545454541</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4460,14 +4485,14 @@
       <c r="C8" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="69">
         <f t="shared" si="0"/>
         <v>3.1818181818181817</v>
       </c>
       <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4481,14 +4506,14 @@
       <c r="C9" t="s">
         <v>232</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="69">
         <f t="shared" si="0"/>
         <v>0.7727272727272726</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4502,19 +4527,19 @@
       <c r="C10" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="69">
         <f t="shared" si="0"/>
         <v>0.40909090909090906</v>
       </c>
       <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>192</v>
       </c>
       <c r="B11">
@@ -4524,19 +4549,19 @@
       <c r="C11" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="69">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>193</v>
       </c>
       <c r="B12">
@@ -4546,19 +4571,19 @@
       <c r="C12" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="69">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="38"/>
+      <c r="A14" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4747,10 +4772,10 @@
       <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4767,12 +4792,12 @@
       <c r="D12" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="37" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="38"/>
+      <c r="A14" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4826,10 +4851,10 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>219</v>
       </c>
       <c r="F2" t="s">
@@ -4901,8 +4926,8 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4935,55 +4960,55 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="41" t="s">
         <v>59</v>
       </c>
       <c r="V1" s="14" t="s">
@@ -4997,56 +5022,56 @@
       <c r="A2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="38">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="39">
-        <v>0</v>
-      </c>
-      <c r="G2" s="39">
-        <v>0</v>
-      </c>
-      <c r="H2" s="39">
-        <v>0</v>
-      </c>
-      <c r="I2" s="39" t="s">
+      <c r="F2" s="38">
+        <v>0</v>
+      </c>
+      <c r="G2" s="38">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38">
+        <v>0</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="41">
-        <v>0</v>
-      </c>
-      <c r="K2" s="39">
-        <v>0</v>
-      </c>
-      <c r="L2" s="39" t="s">
+      <c r="J2" s="40">
+        <v>0</v>
+      </c>
+      <c r="K2" s="38">
+        <v>0</v>
+      </c>
+      <c r="L2" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="P2" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="39">
+      <c r="P2" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="38">
         <f xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="38" t="s">
         <v>309</v>
       </c>
       <c r="V2">
@@ -5060,56 +5085,56 @@
       <c r="A3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>2</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="39">
-        <v>0</v>
-      </c>
-      <c r="G3" s="39">
-        <v>0</v>
-      </c>
-      <c r="H3" s="39">
-        <v>0</v>
-      </c>
-      <c r="I3" s="39" t="s">
+      <c r="F3" s="38">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="39">
-        <v>0</v>
-      </c>
-      <c r="K3" s="39">
-        <v>0</v>
-      </c>
-      <c r="L3" s="39" t="s">
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="K3" s="38">
+        <v>0</v>
+      </c>
+      <c r="L3" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="66" t="s">
+      <c r="O3" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="P3" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="39">
+      <c r="P3" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="38">
         <f t="shared" ref="Q3:Q7" si="0" xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="38" t="s">
         <v>309</v>
       </c>
       <c r="V3">
@@ -5123,56 +5148,56 @@
       <c r="A4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="38">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="39">
-        <v>0</v>
-      </c>
-      <c r="G4" s="39">
-        <v>0</v>
-      </c>
-      <c r="H4" s="39">
-        <v>0</v>
-      </c>
-      <c r="I4" s="39" t="s">
+      <c r="F4" s="38">
+        <v>0</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="39">
-        <v>0</v>
-      </c>
-      <c r="K4" s="39">
-        <v>0</v>
-      </c>
-      <c r="L4" s="39" t="s">
+      <c r="J4" s="38">
+        <v>0</v>
+      </c>
+      <c r="K4" s="38">
+        <v>0</v>
+      </c>
+      <c r="L4" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="P4" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="39">
+      <c r="P4" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="38">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>309</v>
       </c>
       <c r="V4">
@@ -5186,56 +5211,56 @@
       <c r="A5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="38">
         <v>2</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="39">
-        <v>0</v>
-      </c>
-      <c r="G5" s="39">
-        <v>0</v>
-      </c>
-      <c r="H5" s="39">
-        <v>0</v>
-      </c>
-      <c r="I5" s="39" t="s">
+      <c r="F5" s="38">
+        <v>0</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0</v>
+      </c>
+      <c r="I5" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="39">
-        <v>0</v>
-      </c>
-      <c r="K5" s="39">
-        <v>0</v>
-      </c>
-      <c r="L5" s="39" t="s">
+      <c r="J5" s="38">
+        <v>0</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="P5" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="39">
+      <c r="P5" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="38">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="38" t="s">
         <v>309</v>
       </c>
       <c r="V5">
@@ -5249,56 +5274,56 @@
       <c r="A6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="39">
-        <v>0</v>
-      </c>
-      <c r="G6" s="39">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39">
-        <v>0</v>
-      </c>
-      <c r="I6" s="39" t="s">
+      <c r="F6" s="38">
+        <v>0</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38">
+        <v>0</v>
+      </c>
+      <c r="I6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="39">
-        <v>0</v>
-      </c>
-      <c r="K6" s="39">
-        <v>0</v>
-      </c>
-      <c r="L6" s="39" t="s">
+      <c r="J6" s="38">
+        <v>0</v>
+      </c>
+      <c r="K6" s="38">
+        <v>0</v>
+      </c>
+      <c r="L6" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="66" t="s">
+      <c r="O6" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="P6" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="39">
+      <c r="P6" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="38">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="38" t="s">
         <v>309</v>
       </c>
       <c r="V6">
@@ -5312,56 +5337,56 @@
       <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <v>2</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="41">
-        <v>0</v>
-      </c>
-      <c r="G7" s="39">
-        <v>0</v>
-      </c>
-      <c r="H7" s="39">
-        <v>0</v>
-      </c>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0</v>
+      </c>
+      <c r="H7" s="38">
+        <v>0</v>
+      </c>
+      <c r="I7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="66" t="s">
+      <c r="O7" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="P7" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="39">
+      <c r="P7" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="38">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="38" t="s">
         <v>309</v>
       </c>
       <c r="V7">
@@ -5375,56 +5400,55 @@
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="38">
         <v>3</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="39">
-        <v>0</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="77">
-        <f>0.3/9960</f>
-        <v>3.0120481927710842E-5</v>
-      </c>
-      <c r="I8" s="39" t="s">
+      <c r="H8" s="76">
+        <v>4.473795180722892E-4</v>
+      </c>
+      <c r="I8" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="J8" s="39">
-        <v>0</v>
-      </c>
-      <c r="K8" s="41">
-        <v>0</v>
-      </c>
-      <c r="L8" s="39">
-        <v>0</v>
-      </c>
-      <c r="M8" s="39" t="s">
+      <c r="J8" s="38">
+        <v>0</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0</v>
+      </c>
+      <c r="M8" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="67" t="s">
+      <c r="O8" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="P8" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="75">
+      <c r="P8" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="74">
         <v>0.113</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="38" t="s">
         <v>309</v>
       </c>
       <c r="V8">
@@ -5438,55 +5462,55 @@
       <c r="A9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>5</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="39">
-        <v>0</v>
-      </c>
-      <c r="G9" s="39">
-        <v>0</v>
-      </c>
-      <c r="H9" s="39">
-        <v>0</v>
-      </c>
-      <c r="I9" s="39" t="s">
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38">
+        <v>0</v>
+      </c>
+      <c r="I9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="39">
-        <v>0</v>
-      </c>
-      <c r="K9" s="41">
-        <v>0</v>
-      </c>
-      <c r="L9" s="39">
-        <v>0</v>
-      </c>
-      <c r="M9" s="39" t="s">
+      <c r="J9" s="38">
+        <v>0</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0</v>
+      </c>
+      <c r="M9" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="68" t="s">
+      <c r="O9" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="P9" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="45" t="s">
+      <c r="P9" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="38" t="s">
         <v>309</v>
       </c>
       <c r="V9" t="s">
@@ -5500,55 +5524,55 @@
       <c r="A10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>6</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="39">
-        <v>0</v>
-      </c>
-      <c r="G10" s="39">
-        <v>0</v>
-      </c>
-      <c r="H10" s="39">
-        <v>0</v>
-      </c>
-      <c r="I10" s="39" t="s">
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0</v>
+      </c>
+      <c r="I10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="39">
-        <v>0</v>
-      </c>
-      <c r="K10" s="41">
-        <v>0</v>
-      </c>
-      <c r="L10" s="39">
-        <v>0</v>
-      </c>
-      <c r="M10" s="39" t="s">
+      <c r="J10" s="38">
+        <v>0</v>
+      </c>
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0</v>
+      </c>
+      <c r="M10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O10" s="68" t="s">
+      <c r="O10" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="P10" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="45" t="s">
+      <c r="P10" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="38" t="s">
         <v>309</v>
       </c>
       <c r="V10">
@@ -5593,31 +5617,31 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="62" t="s">
         <v>63</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -5631,37 +5655,37 @@
       <c r="A2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="52">
-        <v>0</v>
-      </c>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="51">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>60</v>
       </c>
       <c r="D2">
         <v>0.2</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="53">
         <v>0.129</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="36">
-        <v>0</v>
-      </c>
-      <c r="I2" s="36">
-        <v>0</v>
-      </c>
-      <c r="J2" s="36">
-        <v>0</v>
-      </c>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="35">
+        <v>0</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0</v>
+      </c>
+      <c r="J2" s="35">
+        <v>0</v>
+      </c>
+      <c r="K2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="75" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5669,22 +5693,22 @@
       <c r="A3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="55">
-        <v>0</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="54">
+        <v>0</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>60</v>
       </c>
       <c r="D3">
         <v>0.2</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>0.129</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>60</v>
       </c>
       <c r="H3">
@@ -5699,7 +5723,7 @@
       <c r="K3" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="75" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5707,22 +5731,22 @@
       <c r="A4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="55">
-        <v>0</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="54">
+        <v>0</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>60</v>
       </c>
       <c r="D4">
         <v>0.2</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="56">
         <v>0.129</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>60</v>
       </c>
       <c r="H4">
@@ -5737,7 +5761,7 @@
       <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="76" t="s">
+      <c r="L4" s="75" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5745,22 +5769,22 @@
       <c r="A5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="55">
-        <v>0</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="54">
+        <v>0</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>60</v>
       </c>
       <c r="D5">
         <v>0.2</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="56">
         <v>0.129</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>60</v>
       </c>
       <c r="H5">
@@ -5775,7 +5799,7 @@
       <c r="K5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="75" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5783,22 +5807,22 @@
       <c r="A6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="55">
-        <v>0</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="54">
+        <v>0</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>60</v>
       </c>
       <c r="D6">
         <v>0.2</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="56">
         <v>0.129</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>60</v>
       </c>
       <c r="H6">
@@ -5813,7 +5837,7 @@
       <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="75" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5821,37 +5845,37 @@
       <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="58">
-        <v>0</v>
-      </c>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="57">
+        <v>0</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D7">
         <v>0.2</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="60">
         <v>0.129</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="60">
-        <v>0</v>
-      </c>
-      <c r="I7" s="60">
-        <v>0</v>
-      </c>
-      <c r="J7" s="60">
-        <v>0</v>
-      </c>
-      <c r="K7" s="60" t="s">
+      <c r="H7" s="59">
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0</v>
+      </c>
+      <c r="J7" s="59">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="76" t="s">
+      <c r="L7" s="75" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5859,37 +5883,37 @@
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="51">
         <v>45</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>60</v>
       </c>
       <c r="D8">
         <v>0.2</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="53">
         <v>1.27E-4</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="36">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36">
-        <v>0</v>
-      </c>
-      <c r="K8" s="36" t="s">
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0</v>
+      </c>
+      <c r="J8" s="35">
+        <v>0</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="76" t="s">
+      <c r="L8" s="75" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5897,22 +5921,22 @@
       <c r="A9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="55">
-        <v>0</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="54">
+        <v>0</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>60</v>
       </c>
       <c r="D9">
         <v>0.2</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="56">
         <v>1.27E-4</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="55" t="s">
         <v>60</v>
       </c>
       <c r="H9">
@@ -5927,7 +5951,7 @@
       <c r="K9" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="76" t="s">
+      <c r="L9" s="75" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5935,37 +5959,37 @@
       <c r="A10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="58">
-        <v>0</v>
-      </c>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="57">
+        <v>0</v>
+      </c>
+      <c r="C10" s="58" t="s">
         <v>60</v>
       </c>
       <c r="D10">
         <v>0.2</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="60">
         <v>1.27E-4</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="60">
-        <v>0</v>
-      </c>
-      <c r="I10" s="60">
-        <v>0</v>
-      </c>
-      <c r="J10" s="60">
-        <v>0</v>
-      </c>
-      <c r="K10" s="60" t="s">
+      <c r="H10" s="59">
+        <v>0</v>
+      </c>
+      <c r="I10" s="59">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+      <c r="K10" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="76" t="s">
+      <c r="L10" s="75" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6005,22 +6029,22 @@
       <c r="B1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="16" t="s">
@@ -6043,7 +6067,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>194</v>
       </c>
       <c r="B2" s="12">
@@ -6087,7 +6111,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="9">
@@ -6131,7 +6155,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="9">
@@ -6175,7 +6199,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="9">
@@ -6205,7 +6229,7 @@
       <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="30">
         <v>0</v>
       </c>
       <c r="L5" s="9">
@@ -6219,7 +6243,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B6" s="9">
@@ -6263,7 +6287,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="9">
@@ -6307,7 +6331,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="9">
@@ -6625,7 +6649,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 C3 E5 F6 G7 H8">
+  <conditionalFormatting sqref="C3 D4 E5 F6 G7 H8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6696,19 +6720,19 @@
       <c r="A2" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="28">
-        <v>0</v>
-      </c>
-      <c r="F2" s="28">
+      <c r="C2" s="27">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27">
         <v>0</v>
       </c>
       <c r="G2" s="11" t="s">
@@ -6725,19 +6749,19 @@
       <c r="A3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="28">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
-        <v>0</v>
-      </c>
-      <c r="F3" s="28">
+      <c r="C3" s="27">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -6754,19 +6778,19 @@
       <c r="A4" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -6783,19 +6807,19 @@
       <c r="A5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="28">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28">
-        <v>0</v>
-      </c>
-      <c r="E5" s="28">
-        <v>0</v>
-      </c>
-      <c r="F5" s="28">
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -6812,19 +6836,19 @@
       <c r="A6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="28">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28">
-        <v>0</v>
-      </c>
-      <c r="E6" s="28">
-        <v>0</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -6841,41 +6865,41 @@
       <c r="A7" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="28">
-        <v>0</v>
-      </c>
-      <c r="C7" s="34">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="27">
+        <v>0</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <v>0</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="21"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9">
       <c r="H9" s="25"/>
@@ -7105,10 +7129,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7381,10 +7405,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE819A9C-4E64-4D0F-8F31-2F1BF4DCFD79}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7403,9 +7427,10 @@
     <col min="18" max="18" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -7413,15 +7438,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="P2" s="69" t="s">
+    <row r="2" spans="1:27">
+      <c r="P2" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="X2" s="69" t="s">
+      <c r="X2" s="68" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -7472,7 +7497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -7488,13 +7513,13 @@
       <c r="E4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="50" t="s">
         <v>255</v>
       </c>
       <c r="K4">
@@ -7518,13 +7543,13 @@
       <c r="R4" t="s">
         <v>259</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="S4" s="36" t="s">
         <v>256</v>
       </c>
       <c r="X4" t="s">
         <v>301</v>
       </c>
-      <c r="Y4" s="57">
+      <c r="Y4" s="56">
         <f>(0.5 +0.17 +0.38+0.08) *1000</f>
         <v>1130.0000000000002</v>
       </c>
@@ -7532,7 +7557,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -7548,13 +7573,13 @@
       <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="50" t="s">
         <v>255</v>
       </c>
       <c r="K5">
@@ -7578,7 +7603,7 @@
       <c r="R5" t="s">
         <v>260</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="36" t="s">
         <v>262</v>
       </c>
       <c r="X5" t="s">
@@ -7591,7 +7616,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
@@ -7607,13 +7632,13 @@
       <c r="E6" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>255</v>
       </c>
       <c r="K6">
@@ -7638,7 +7663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" thickBot="1">
+    <row r="7" spans="1:27" ht="15" thickBot="1">
       <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
@@ -7654,17 +7679,17 @@
       <c r="E7" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" thickBot="1">
+    <row r="8" spans="1:27" ht="15" thickBot="1">
       <c r="A8" s="16" t="s">
         <v>25</v>
       </c>
@@ -7680,35 +7705,35 @@
       <c r="E8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="48">
         <f>AVERAGE(K4:K6)</f>
         <v>42.373333333333335</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="36" t="s">
         <v>281</v>
       </c>
       <c r="X8" t="s">
         <v>302</v>
       </c>
-      <c r="Y8" s="71">
+      <c r="Y8" s="70">
         <f xml:space="preserve"> Y4/(Y5 )</f>
         <v>0.1134538152610442</v>
       </c>
@@ -7716,7 +7741,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="16" t="s">
         <v>45</v>
       </c>
@@ -7732,13 +7757,13 @@
       <c r="E9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="50" t="s">
         <v>255</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -7754,7 +7779,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="15" t="s">
         <v>53</v>
       </c>
@@ -7764,7 +7789,7 @@
       <c r="C10" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="72" t="s">
         <v>169</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -7773,10 +7798,10 @@
       <c r="G10" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="73" t="s">
         <v>287</v>
       </c>
       <c r="P10" t="s">
@@ -7792,7 +7817,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="15" t="s">
         <v>264</v>
       </c>
@@ -7808,26 +7833,26 @@
       <c r="E11" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="73" t="s">
         <v>287</v>
       </c>
       <c r="P11" t="s">
         <v>272</v>
       </c>
-      <c r="Q11" s="70">
+      <c r="Q11" s="69">
         <v>2.83</v>
       </c>
       <c r="R11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
@@ -7843,13 +7868,13 @@
       <c r="E12" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="73" t="s">
         <v>262</v>
       </c>
       <c r="P12" t="s">
@@ -7861,12 +7886,15 @@
       <c r="R12" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="X12" s="68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -7878,13 +7906,13 @@
       <c r="E13" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="73" t="s">
         <v>262</v>
       </c>
       <c r="P13" t="s">
@@ -7896,12 +7924,24 @@
       <c r="R13" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="X13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -7913,30 +7953,51 @@
       <c r="E14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="73" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="X14" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y14">
+        <v>9960</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="C15" s="4"/>
       <c r="P15" t="s">
         <v>279</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="69">
         <f>Q11*Q12*Q13</f>
         <v>32.262</v>
       </c>
       <c r="R15" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="X15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y15">
+        <v>9902</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA15" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="C16" s="4"/>
       <c r="P16" t="s">
         <v>280</v>
@@ -7945,17 +8006,60 @@
         <f>Q15/Q10</f>
         <v>8.0655000000000004E-2</v>
       </c>
-    </row>
-    <row r="17" spans="16:18">
-      <c r="Q17" s="70">
+      <c r="X16" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y16">
+        <v>0.45</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16" s="36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="16:26">
+      <c r="Q17" s="69">
         <f>Q16*100</f>
         <v>8.0655000000000001</v>
       </c>
       <c r="R17" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="26" spans="16:18">
+      <c r="X17" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y17">
+        <f xml:space="preserve"> Y15*Y16</f>
+        <v>4455.9000000000005</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="16:26">
+      <c r="Y18">
+        <f>Y17*10^(-3)</f>
+        <v>4.4559000000000006</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="16:26">
+      <c r="X20" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y20" s="56">
+        <f>Y18/Y14</f>
+        <v>4.473795180722892E-4</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="16:26">
       <c r="P26" t="s">
         <v>271</v>
       </c>
@@ -7966,7 +8070,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="16:18">
+    <row r="27" spans="16:26">
       <c r="P27" t="s">
         <v>271</v>
       </c>
@@ -7978,7 +8082,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="16:18">
+    <row r="29" spans="16:26">
       <c r="P29" t="s">
         <v>274</v>
       </c>
@@ -7989,7 +8093,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="16:18">
+    <row r="30" spans="16:26">
       <c r="P30" t="s">
         <v>274</v>
       </c>
@@ -8001,7 +8105,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="16:18">
+    <row r="32" spans="16:26">
       <c r="P32" t="s">
         <v>290</v>
       </c>
@@ -8061,9 +8165,11 @@
     <hyperlink ref="I8" r:id="rId14" xr:uid="{778974ED-15CC-4E14-B7D5-9C50F3C9F709}"/>
     <hyperlink ref="I7" r:id="rId15" xr:uid="{F4A4DDC8-517D-4A51-B6F8-22DB8A85D725}"/>
     <hyperlink ref="I9" r:id="rId16" xr:uid="{DE7EA573-101C-4361-90D7-A078870E63AD}"/>
+    <hyperlink ref="D10" r:id="rId17" xr:uid="{22AD580D-B18A-4955-B323-32557020E021}"/>
+    <hyperlink ref="AA15" r:id="rId18" xr:uid="{9D2F1804-135A-4DD9-ABDD-9617C04DA008}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C203BE-6357-4C1F-85F6-BCD6B0E593A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60D8595-DCC4-47D6-A639-6A984425B54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="319">
   <si>
     <t>components</t>
   </si>
@@ -602,21 +602,6 @@
     <t>select</t>
   </si>
   <si>
-    <t>PAC_v2.json</t>
-  </si>
-  <si>
-    <t>sherm_v2.json</t>
-  </si>
-  <si>
-    <t>avidum_v2.json</t>
-  </si>
-  <si>
-    <t>acnes_v2.json</t>
-  </si>
-  <si>
-    <t>propionicum_v2.json</t>
-  </si>
-  <si>
     <t>Maltose</t>
   </si>
   <si>
@@ -752,12 +737,6 @@
     <t>fed-batch (FFB, biomass contained in fibers)</t>
   </si>
   <si>
-    <t>Distillation_2.json</t>
-  </si>
-  <si>
-    <t>Distillation_3.json</t>
-  </si>
-  <si>
     <t>https://shuowanchemical.en.made-in-china.com/product/XQoUxvSJhVcb/China-99-5-CAS-79-09-4-Propionic-Acid-for-Food-Preservatives.html</t>
   </si>
   <si>
@@ -1029,6 +1008,21 @@
   </si>
   <si>
     <t>g/h</t>
+  </si>
+  <si>
+    <t>v2_PAC.json</t>
+  </si>
+  <si>
+    <t>v2_sherm.json</t>
+  </si>
+  <si>
+    <t>v2_avidum.json</t>
+  </si>
+  <si>
+    <t>v2_acnes.json</t>
+  </si>
+  <si>
+    <t>v2_propionicum.json</t>
   </si>
 </sst>
 </file>
@@ -4151,7 +4145,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4206,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C2" s="4">
         <v>1000</v>
@@ -4215,10 +4209,10 @@
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -4227,7 +4221,7 @@
         <v>60</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -4247,7 +4241,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -4279,7 +4273,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -4334,13 +4328,13 @@
         <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
         <v>120</v>
@@ -4351,13 +4345,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>0.37</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D2" s="69">
         <f>B2*1/1.1</f>
@@ -4367,18 +4361,18 @@
         <v>60</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="77" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>1.85</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D3" s="69">
         <f t="shared" ref="D3:D12" si="0">B3*1/1.1</f>
@@ -4388,18 +4382,18 @@
         <v>60</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>0.4</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D4" s="69">
         <f t="shared" si="0"/>
@@ -4409,18 +4403,18 @@
         <v>60</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>0.51</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D5" s="69">
         <f t="shared" si="0"/>
@@ -4430,18 +4424,18 @@
         <v>60</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D6" s="69">
         <f t="shared" si="0"/>
@@ -4451,18 +4445,18 @@
         <v>60</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="77" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D7" s="69">
         <f t="shared" si="0"/>
@@ -4472,18 +4466,18 @@
         <v>60</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>3.5</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D8" s="69">
         <f t="shared" si="0"/>
@@ -4493,18 +4487,18 @@
         <v>60</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="25" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>0.85</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D9" s="69">
         <f t="shared" si="0"/>
@@ -4514,18 +4508,18 @@
         <v>60</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>0.45</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D10" s="69">
         <f t="shared" si="0"/>
@@ -4535,19 +4529,19 @@
         <v>60</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="45" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <f>2.25 *1.1</f>
         <v>2.4750000000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D11" s="69">
         <f t="shared" si="0"/>
@@ -4557,19 +4551,19 @@
         <v>60</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="45" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <f>0.6*1.1</f>
         <v>0.66</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D12" s="69">
         <f t="shared" si="0"/>
@@ -4579,7 +4573,7 @@
         <v>60</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4627,7 +4621,7 @@
         <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -4638,7 +4632,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>222</v>
@@ -4647,12 +4641,12 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>85.8</v>
@@ -4661,12 +4655,12 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="25" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>64.3</v>
@@ -4675,12 +4669,12 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>74.8</v>
@@ -4689,12 +4683,12 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>61.1</v>
@@ -4703,12 +4697,12 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>381</v>
@@ -4717,12 +4711,12 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>53.6</v>
@@ -4731,12 +4725,12 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>53.3</v>
@@ -4745,12 +4739,12 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="25" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>52.3</v>
@@ -4759,12 +4753,12 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>78.5</v>
@@ -4773,15 +4767,15 @@
         <v>60</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="25" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>50.5</v>
@@ -4790,10 +4784,10 @@
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4823,27 +4817,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
         <v>220</v>
-      </c>
-      <c r="F1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B2" s="4">
         <v>37</v>
@@ -4852,21 +4846,21 @@
         <v>67</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -4874,31 +4868,31 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B7" s="4">
         <v>71</v>
@@ -4907,10 +4901,10 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4926,8 +4920,8 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H13" sqref="H13"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4982,7 +4976,7 @@
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J1" s="41" t="s">
         <v>109</v>
@@ -5029,7 +5023,7 @@
         <v>117</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>72</v>
@@ -5053,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>178</v>
+        <v>314</v>
       </c>
       <c r="M2" s="38" t="s">
         <v>99</v>
@@ -5062,7 +5056,7 @@
         <v>72</v>
       </c>
       <c r="O2" s="65" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P2" s="38">
         <v>0</v>
@@ -5072,7 +5066,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -5092,7 +5086,7 @@
         <v>117</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>72</v>
@@ -5116,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>99</v>
@@ -5125,7 +5119,7 @@
         <v>72</v>
       </c>
       <c r="O3" s="65" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P3" s="38">
         <v>0</v>
@@ -5135,7 +5129,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -5155,7 +5149,7 @@
         <v>117</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>72</v>
@@ -5179,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="M4" s="38" t="s">
         <v>99</v>
@@ -5188,7 +5182,7 @@
         <v>72</v>
       </c>
       <c r="O4" s="65" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P4" s="38">
         <v>0</v>
@@ -5198,7 +5192,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -5218,7 +5212,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>72</v>
@@ -5242,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="M5" s="38" t="s">
         <v>99</v>
@@ -5251,7 +5245,7 @@
         <v>72</v>
       </c>
       <c r="O5" s="65" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P5" s="38">
         <v>0</v>
@@ -5261,7 +5255,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R5" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -5281,7 +5275,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>72</v>
@@ -5305,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="M6" s="38" t="s">
         <v>99</v>
@@ -5314,7 +5308,7 @@
         <v>72</v>
       </c>
       <c r="O6" s="65" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P6" s="38">
         <v>0</v>
@@ -5324,7 +5318,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -5344,7 +5338,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>72</v>
@@ -5377,7 +5371,7 @@
         <v>72</v>
       </c>
       <c r="O7" s="65" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P7" s="38">
         <v>0</v>
@@ -5387,7 +5381,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -5422,7 +5416,7 @@
         <v>4.473795180722892E-4</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J8" s="38">
         <v>0</v>
@@ -5440,7 +5434,7 @@
         <v>72</v>
       </c>
       <c r="O8" s="66" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P8" s="38">
         <v>0</v>
@@ -5449,7 +5443,7 @@
         <v>0.113</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -5502,16 +5496,16 @@
         <v>72</v>
       </c>
       <c r="O9" s="67" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P9" s="38">
         <v>0</v>
       </c>
-      <c r="Q9" s="44" t="s">
-        <v>228</v>
+      <c r="Q9" s="44">
+        <v>0.3</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="V9" t="s">
         <v>79</v>
@@ -5569,11 +5563,11 @@
       <c r="P10" s="38">
         <v>0</v>
       </c>
-      <c r="Q10" s="44" t="s">
-        <v>229</v>
+      <c r="Q10" s="44">
+        <v>0.6</v>
       </c>
       <c r="R10" s="38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -5686,7 +5680,7 @@
         <v>64</v>
       </c>
       <c r="L2" s="75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5724,7 +5718,7 @@
         <v>64</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5762,7 +5756,7 @@
         <v>64</v>
       </c>
       <c r="L4" s="75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5800,7 +5794,7 @@
         <v>64</v>
       </c>
       <c r="L5" s="75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5838,7 +5832,7 @@
         <v>64</v>
       </c>
       <c r="L6" s="75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5876,7 +5870,7 @@
         <v>64</v>
       </c>
       <c r="L7" s="75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5914,7 +5908,7 @@
         <v>64</v>
       </c>
       <c r="L8" s="75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5952,7 +5946,7 @@
         <v>64</v>
       </c>
       <c r="L9" s="75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5990,7 +5984,7 @@
         <v>64</v>
       </c>
       <c r="L10" s="75" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6027,7 +6021,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>104</v>
@@ -6068,7 +6062,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -6447,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>23</v>
@@ -6671,7 +6665,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
@@ -6717,11 +6711,11 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>178</v>
+      <c r="A2" s="38" t="s">
+        <v>314</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C2" s="27">
         <v>0</v>
@@ -6746,11 +6740,11 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>179</v>
+      <c r="A3" s="38" t="s">
+        <v>315</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C3" s="27">
         <v>0</v>
@@ -6775,11 +6769,11 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>180</v>
+      <c r="A4" s="38" t="s">
+        <v>316</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C4" s="27">
         <v>0</v>
@@ -6804,11 +6798,11 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>181</v>
+      <c r="A5" s="38" t="s">
+        <v>317</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="27">
         <v>0</v>
@@ -6833,11 +6827,11 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>182</v>
+      <c r="A6" s="38" t="s">
+        <v>318</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
@@ -6875,10 +6869,10 @@
         <v>46</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G7" s="34">
         <v>0</v>
@@ -7440,10 +7434,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="P2" s="68" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -7473,25 +7467,25 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>57</v>
@@ -7517,44 +7511,44 @@
         <v>168</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K4">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P4">
         <v>0.129</v>
       </c>
       <c r="Q4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="R4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="X4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="Y4" s="56">
         <f>(0.5 +0.17 +0.38+0.08) *1000</f>
         <v>1130.0000000000002</v>
       </c>
       <c r="Z4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -7577,37 +7571,37 @@
         <v>168</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K5">
         <v>52.5</v>
       </c>
       <c r="L5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P5">
         <v>0.127</v>
       </c>
       <c r="Q5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="R5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="X5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Y5">
         <v>9960</v>
@@ -7636,25 +7630,25 @@
         <v>168</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K6">
         <v>44.62</v>
       </c>
       <c r="L6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="X6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Y6">
         <v>11363</v>
@@ -7683,10 +7677,10 @@
         <v>168</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1">
@@ -7709,36 +7703,36 @@
         <v>168</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L8" s="48">
         <f>AVERAGE(K4:K6)</f>
         <v>42.373333333333335</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="P8" s="68" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="X8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Y8" s="70">
         <f xml:space="preserve"> Y4/(Y5 )</f>
         <v>0.1134538152610442</v>
       </c>
       <c r="Z8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -7761,22 +7755,22 @@
         <v>168</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="X9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -7796,39 +7790,39 @@
         <v>168</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q10">
         <v>400</v>
       </c>
       <c r="R10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="X10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="15" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>168</v>
@@ -7837,19 +7831,19 @@
         <v>168</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P11" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="69">
         <v>2.83</v>
       </c>
       <c r="R11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -7872,22 +7866,22 @@
         <v>168</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q12">
         <v>0.38</v>
       </c>
       <c r="R12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="X12" s="68" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -7910,28 +7904,28 @@
         <v>168</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q13">
         <v>30</v>
       </c>
       <c r="R13" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>57</v>
@@ -7957,13 +7951,13 @@
         <v>168</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="X14" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="Y14">
         <v>9960</v>
@@ -7975,14 +7969,14 @@
     <row r="15" spans="1:27">
       <c r="C15" s="4"/>
       <c r="P15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q15" s="69">
         <f>Q11*Q12*Q13</f>
         <v>32.262</v>
       </c>
       <c r="R15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="X15" t="s">
         <v>93</v>
@@ -7991,7 +7985,7 @@
         <v>9902</v>
       </c>
       <c r="Z15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AA15" s="36" t="s">
         <v>169</v>
@@ -8000,14 +7994,14 @@
     <row r="16" spans="1:27">
       <c r="C16" s="4"/>
       <c r="P16" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <f>Q15/Q10</f>
         <v>8.0655000000000004E-2</v>
       </c>
       <c r="X16" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Y16">
         <v>0.45</v>
@@ -8016,7 +8010,7 @@
         <v>67</v>
       </c>
       <c r="AA16" s="36" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="16:26">
@@ -8025,17 +8019,17 @@
         <v>8.0655000000000001</v>
       </c>
       <c r="R17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="X17" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Y17">
         <f xml:space="preserve"> Y15*Y16</f>
         <v>4455.9000000000005</v>
       </c>
       <c r="Z17" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="16:26">
@@ -8049,101 +8043,101 @@
     </row>
     <row r="20" spans="16:26">
       <c r="X20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="Y20" s="56">
         <f>Y18/Y14</f>
         <v>4.473795180722892E-4</v>
       </c>
       <c r="Z20" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="16:26">
       <c r="P26" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q26">
         <v>400</v>
       </c>
       <c r="R26" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="16:26">
       <c r="P27" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q27">
         <f>Q26/3600</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="R27" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="16:26">
       <c r="P29" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q29">
         <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="16:26">
       <c r="P30" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q30">
         <f>Q29 *100</f>
         <v>2000</v>
       </c>
       <c r="R30" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="16:26">
       <c r="P32" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q32">
         <f>Q30*Q27</f>
         <v>222.2222222222222</v>
       </c>
       <c r="R32" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="16:18">
       <c r="P33" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Q33">
         <f>Q32</f>
         <v>222.2222222222222</v>
       </c>
       <c r="R33" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="16:18">
       <c r="P35" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q35">
         <f>Q33/Q26</f>
         <v>0.55555555555555547</v>
       </c>
       <c r="R35" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="16:18">
       <c r="P36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60D8595-DCC4-47D6-A639-6A984425B54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D132BED0-E0FE-4013-886E-3CCF5648C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -350,9 +350,6 @@
     <t>bm</t>
   </si>
   <si>
-    <t>[0.95, 0.05]; [0.05, 0.95]</t>
-  </si>
-  <si>
     <t>Distilation_2</t>
   </si>
   <si>
@@ -842,9 +839,6 @@
     <t>OR_NF</t>
   </si>
   <si>
-    <t>[0.95, 0.95, 0.05]; [0.05, 0.05, 0.95]</t>
-  </si>
-  <si>
     <t xml:space="preserve">water retention in OR membrane </t>
   </si>
   <si>
@@ -1023,6 +1017,12 @@
   </si>
   <si>
     <t>v2_propionicum.json</t>
+  </si>
+  <si>
+    <t>[0.99, 0.01]; [0.01, 0.99]</t>
+  </si>
+  <si>
+    <t>[0.99, 0.99, 0.01]; [0.01, 0.01, 0.99]</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1586,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4144,8 +4154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4186,7 +4196,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -4200,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="4">
         <v>1000</v>
@@ -4209,10 +4219,10 @@
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -4221,7 +4231,7 @@
         <v>60</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -4241,13 +4251,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6</v>
+        <v>1.06</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
@@ -4273,7 +4283,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -4297,7 +4307,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G4 J2:J4 F3:F4 E7:F8 H7:H8 E12:G12">
+  <conditionalFormatting sqref="G2 J2:J4 F3:F4 E7:F8 H7:H8 E12:G12">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G4">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4328,16 +4343,16 @@
         <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>57</v>
@@ -4345,13 +4360,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2">
         <v>0.37</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" s="69">
         <f>B2*1/1.1</f>
@@ -4361,18 +4376,18 @@
         <v>60</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>1.85</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="69">
         <f t="shared" ref="D3:D12" si="0">B3*1/1.1</f>
@@ -4382,18 +4397,18 @@
         <v>60</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>0.4</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="69">
         <f t="shared" si="0"/>
@@ -4403,18 +4418,18 @@
         <v>60</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>0.51</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="69">
         <f t="shared" si="0"/>
@@ -4424,18 +4439,18 @@
         <v>60</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6" s="69">
         <f t="shared" si="0"/>
@@ -4445,18 +4460,18 @@
         <v>60</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" s="69">
         <f t="shared" si="0"/>
@@ -4466,18 +4481,18 @@
         <v>60</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>3.5</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="69">
         <f t="shared" si="0"/>
@@ -4487,18 +4502,18 @@
         <v>60</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>0.85</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" s="69">
         <f t="shared" si="0"/>
@@ -4508,18 +4523,18 @@
         <v>60</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>0.45</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="69">
         <f t="shared" si="0"/>
@@ -4529,19 +4544,19 @@
         <v>60</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <f>2.25 *1.1</f>
         <v>2.4750000000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="69">
         <f t="shared" si="0"/>
@@ -4551,19 +4566,19 @@
         <v>60</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <f>0.6*1.1</f>
         <v>0.66</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="69">
         <f t="shared" si="0"/>
@@ -4573,7 +4588,7 @@
         <v>60</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4621,7 +4636,7 @@
         <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -4632,7 +4647,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2">
         <v>222</v>
@@ -4641,12 +4656,12 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3">
         <v>85.8</v>
@@ -4655,12 +4670,12 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>64.3</v>
@@ -4669,12 +4684,12 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>74.8</v>
@@ -4683,12 +4698,12 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>61.1</v>
@@ -4697,12 +4712,12 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7">
         <v>381</v>
@@ -4711,12 +4726,12 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>53.6</v>
@@ -4725,12 +4740,12 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>53.3</v>
@@ -4739,12 +4754,12 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>52.3</v>
@@ -4753,12 +4768,12 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>78.5</v>
@@ -4767,15 +4782,15 @@
         <v>60</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>50.5</v>
@@ -4784,10 +4799,10 @@
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4817,27 +4832,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
         <v>205</v>
-      </c>
-      <c r="B1" t="s">
-        <v>206</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="4">
         <v>37</v>
@@ -4846,21 +4861,21 @@
         <v>67</v>
       </c>
       <c r="D2" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>214</v>
-      </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -4868,31 +4883,31 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="4">
         <v>71</v>
@@ -4901,10 +4916,10 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4919,9 +4934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85D0432-6958-423D-87F2-E8A979C87816}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="topRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4964,7 +4979,7 @@
         <v>85</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>86</v>
@@ -4976,13 +4991,13 @@
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L1" s="41" t="s">
         <v>28</v>
@@ -4991,7 +5006,7 @@
         <v>15</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>22</v>
@@ -5000,7 +5015,7 @@
         <v>70</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R1" s="41" t="s">
         <v>59</v>
@@ -5014,16 +5029,16 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="38">
         <v>2</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>72</v>
@@ -5047,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M2" s="38" t="s">
         <v>99</v>
@@ -5056,7 +5071,7 @@
         <v>72</v>
       </c>
       <c r="O2" s="65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P2" s="38">
         <v>0</v>
@@ -5066,7 +5081,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -5077,16 +5092,16 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="38">
         <v>2</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>72</v>
@@ -5110,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>99</v>
@@ -5119,7 +5134,7 @@
         <v>72</v>
       </c>
       <c r="O3" s="65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P3" s="38">
         <v>0</v>
@@ -5129,7 +5144,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -5140,16 +5155,16 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="38">
         <v>2</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>72</v>
@@ -5173,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M4" s="38" t="s">
         <v>99</v>
@@ -5182,7 +5197,7 @@
         <v>72</v>
       </c>
       <c r="O4" s="65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P4" s="38">
         <v>0</v>
@@ -5192,7 +5207,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -5203,16 +5218,16 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="38">
         <v>2</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>72</v>
@@ -5236,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M5" s="38" t="s">
         <v>99</v>
@@ -5245,7 +5260,7 @@
         <v>72</v>
       </c>
       <c r="O5" s="65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P5" s="38">
         <v>0</v>
@@ -5255,7 +5270,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R5" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -5266,16 +5281,16 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="38">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>72</v>
@@ -5299,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M6" s="38" t="s">
         <v>99</v>
@@ -5308,7 +5323,7 @@
         <v>72</v>
       </c>
       <c r="O6" s="65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P6" s="38">
         <v>0</v>
@@ -5318,7 +5333,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -5335,10 +5350,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>72</v>
@@ -5359,10 +5374,10 @@
         <v>87</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M7" s="42" t="s">
         <v>99</v>
@@ -5371,7 +5386,7 @@
         <v>72</v>
       </c>
       <c r="O7" s="65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P7" s="38">
         <v>0</v>
@@ -5381,7 +5396,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -5398,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>88</v>
@@ -5416,7 +5431,7 @@
         <v>4.473795180722892E-4</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J8" s="38">
         <v>0</v>
@@ -5434,7 +5449,7 @@
         <v>72</v>
       </c>
       <c r="O8" s="66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P8" s="38">
         <v>0</v>
@@ -5443,7 +5458,7 @@
         <v>0.113</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -5454,13 +5469,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="38">
         <v>5</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>88</v>
@@ -5496,16 +5511,16 @@
         <v>72</v>
       </c>
       <c r="O9" s="67" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="P9" s="38">
         <v>0</v>
       </c>
       <c r="Q9" s="44">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V9" t="s">
         <v>79</v>
@@ -5516,13 +5531,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="38">
         <v>6</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>89</v>
@@ -5558,16 +5573,16 @@
         <v>72</v>
       </c>
       <c r="O10" s="67" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="P10" s="38">
         <v>0</v>
       </c>
       <c r="Q10" s="44">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="R10" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -5647,7 +5662,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="51">
         <v>0</v>
@@ -5680,12 +5695,12 @@
         <v>64</v>
       </c>
       <c r="L2" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="54">
         <v>0</v>
@@ -5718,12 +5733,12 @@
         <v>64</v>
       </c>
       <c r="L3" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="54">
         <v>0</v>
@@ -5756,12 +5771,12 @@
         <v>64</v>
       </c>
       <c r="L4" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="54">
         <v>0</v>
@@ -5794,12 +5809,12 @@
         <v>64</v>
       </c>
       <c r="L5" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="54">
         <v>0</v>
@@ -5832,7 +5847,7 @@
         <v>64</v>
       </c>
       <c r="L6" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5870,7 +5885,7 @@
         <v>64</v>
       </c>
       <c r="L7" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5908,12 +5923,12 @@
         <v>64</v>
       </c>
       <c r="L8" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="54">
         <v>0</v>
@@ -5946,12 +5961,12 @@
         <v>64</v>
       </c>
       <c r="L9" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="57">
         <v>0</v>
@@ -5984,7 +5999,7 @@
         <v>64</v>
       </c>
       <c r="L10" s="75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6021,22 +6036,22 @@
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>45</v>
@@ -6045,10 +6060,10 @@
         <v>53</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>19</v>
@@ -6062,7 +6077,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -6106,13 +6121,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -6150,7 +6165,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -6159,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -6194,7 +6209,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -6206,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -6238,7 +6253,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -6253,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -6282,7 +6297,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -6300,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -6347,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -6394,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -6414,7 +6429,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
@@ -6441,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>23</v>
@@ -6458,7 +6473,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="9">
         <v>0</v>
@@ -6643,7 +6658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3 D4 E5 F6 G7 H8">
+  <conditionalFormatting sqref="D4 C3 E5 F6 G7 H8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6686,7 +6701,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -6712,10 +6727,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="27">
         <v>0</v>
@@ -6733,18 +6748,18 @@
         <v>98</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="27">
         <v>0</v>
@@ -6762,18 +6777,18 @@
         <v>98</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="27">
         <v>0</v>
@@ -6791,18 +6806,18 @@
         <v>98</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="27">
         <v>0</v>
@@ -6820,18 +6835,18 @@
         <v>98</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="27">
         <v>0</v>
@@ -6849,15 +6864,15 @@
         <v>98</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="27">
         <v>0</v>
@@ -6869,19 +6884,19 @@
         <v>46</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G7" s="34">
         <v>0</v>
       </c>
       <c r="H7" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="34" t="s">
         <v>166</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6924,51 +6939,51 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>128</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>129</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>131</v>
-      </c>
-      <c r="N1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>68</v>
@@ -6998,10 +7013,10 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M2" s="24">
         <v>100</v>
@@ -7012,10 +7027,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>93</v>
@@ -7045,10 +7060,10 @@
         <v>0.5</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M3" s="24">
         <v>100</v>
@@ -7059,13 +7074,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="D4" s="11">
         <v>0.95</v>
@@ -7092,10 +7107,10 @@
         <v>0.5</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M4" s="24">
         <v>100</v>
@@ -7236,10 +7251,10 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7262,10 +7277,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
         <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -7273,123 +7288,123 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7434,10 +7449,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="P2" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -7445,10 +7460,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>71</v>
@@ -7467,25 +7482,25 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="N3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="R3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>57</v>
@@ -7496,59 +7511,59 @@
         <v>8</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G4" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K4">
         <v>30</v>
       </c>
       <c r="L4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4" t="s">
         <v>242</v>
-      </c>
-      <c r="M4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N4" t="s">
-        <v>243</v>
       </c>
       <c r="P4">
         <v>0.129</v>
       </c>
       <c r="Q4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Y4" s="56">
         <f>(0.5 +0.17 +0.38+0.08) *1000</f>
         <v>1130.0000000000002</v>
       </c>
       <c r="Z4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -7556,52 +7571,52 @@
         <v>7</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G5" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K5">
         <v>52.5</v>
       </c>
       <c r="L5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P5">
         <v>0.127</v>
       </c>
       <c r="Q5" t="s">
+        <v>253</v>
+      </c>
+      <c r="R5" t="s">
+        <v>252</v>
+      </c>
+      <c r="S5" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="R5" t="s">
-        <v>253</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>255</v>
-      </c>
       <c r="X5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y5">
         <v>9960</v>
@@ -7615,40 +7630,40 @@
         <v>9</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G6" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K6">
         <v>44.62</v>
       </c>
       <c r="L6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y6">
         <v>11363</v>
@@ -7662,25 +7677,25 @@
         <v>10</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G7" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1">
@@ -7688,51 +7703,51 @@
         <v>25</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="G8" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L8" s="48">
         <f>AVERAGE(K4:K6)</f>
         <v>42.373333333333335</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P8" s="68" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="X8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Y8" s="70">
         <f xml:space="preserve"> Y4/(Y5 )</f>
         <v>0.1134538152610442</v>
       </c>
       <c r="Z8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -7740,37 +7755,37 @@
         <v>45</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -7778,72 +7793,72 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>280</v>
-      </c>
       <c r="P10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q10">
         <v>400</v>
       </c>
       <c r="R10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="X10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>279</v>
-      </c>
       <c r="I11" s="73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="69">
         <v>2.83</v>
       </c>
       <c r="R11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -7851,37 +7866,37 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
         <v>168</v>
       </c>
-      <c r="D12" t="s">
-        <v>169</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q12">
         <v>0.38</v>
       </c>
       <c r="R12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X12" s="68" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -7889,43 +7904,43 @@
         <v>51</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q13">
         <v>30</v>
       </c>
       <c r="R13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>57</v>
@@ -7936,28 +7951,28 @@
         <v>52</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Y14">
         <v>9960</v>
@@ -7969,14 +7984,14 @@
     <row r="15" spans="1:27">
       <c r="C15" s="4"/>
       <c r="P15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q15" s="69">
         <f>Q11*Q12*Q13</f>
         <v>32.262</v>
       </c>
       <c r="R15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="X15" t="s">
         <v>93</v>
@@ -7985,23 +8000,23 @@
         <v>9902</v>
       </c>
       <c r="Z15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AA15" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="C16" s="4"/>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q16">
         <f>Q15/Q10</f>
         <v>8.0655000000000004E-2</v>
       </c>
       <c r="X16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Y16">
         <v>0.45</v>
@@ -8010,7 +8025,7 @@
         <v>67</v>
       </c>
       <c r="AA16" s="36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="16:26">
@@ -8019,17 +8034,17 @@
         <v>8.0655000000000001</v>
       </c>
       <c r="R17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="X17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Y17">
         <f xml:space="preserve"> Y15*Y16</f>
         <v>4455.9000000000005</v>
       </c>
       <c r="Z17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="16:26">
@@ -8043,101 +8058,101 @@
     </row>
     <row r="20" spans="16:26">
       <c r="X20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Y20" s="56">
         <f>Y18/Y14</f>
         <v>4.473795180722892E-4</v>
       </c>
       <c r="Z20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="16:26">
       <c r="P26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q26">
         <v>400</v>
       </c>
       <c r="R26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="16:26">
       <c r="P27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q27">
         <f>Q26/3600</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="R27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="16:26">
       <c r="P29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="16:26">
       <c r="P30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q30">
         <f>Q29 *100</f>
         <v>2000</v>
       </c>
       <c r="R30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="16:26">
       <c r="P32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q32">
         <f>Q30*Q27</f>
         <v>222.2222222222222</v>
       </c>
       <c r="R32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="16:18">
       <c r="P33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q33">
         <f>Q32</f>
         <v>222.2222222222222</v>
       </c>
       <c r="R33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="16:18">
       <c r="P35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q35">
         <f>Q33/Q26</f>
         <v>0.55555555555555547</v>
       </c>
       <c r="R35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="16:18">
       <c r="P36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/excel files/propionate_case_study_v2.xlsx
+++ b/excel files/propionate_case_study_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D132BED0-E0FE-4013-886E-3CCF5648C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD95508-E766-4ECF-8110-496906394010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="683" activeTab="1" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="references" sheetId="19" r:id="rId9"/>
     <sheet name="price_list" sheetId="26" r:id="rId10"/>
     <sheet name="price_list_sigma" sheetId="28" r:id="rId11"/>
-    <sheet name="final_conc_reactors" sheetId="27" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="331">
   <si>
     <t>components</t>
   </si>
@@ -680,60 +679,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concentration </t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
-    <t>sherm</t>
-  </si>
-  <si>
-    <t>avidum</t>
-  </si>
-  <si>
-    <t>acnes</t>
-  </si>
-  <si>
-    <t>propionicum</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/S1369-703X(99)00042-X</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1023/A:1014562504882</t>
-  </si>
-  <si>
-    <t>ref2</t>
-  </si>
-  <si>
-    <t>https://onlinelibrary.wiley.com/doi/epdf/10.1002/bit.22437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in general? </t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>34-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactor type </t>
-  </si>
-  <si>
-    <t>fed-batch</t>
-  </si>
-  <si>
-    <t>fed-batch (FFB, biomass contained in fibers)</t>
-  </si>
-  <si>
     <t>https://shuowanchemical.en.made-in-china.com/product/XQoUxvSJhVcb/China-99-5-CAS-79-09-4-Propionic-Acid-for-Food-Preservatives.html</t>
   </si>
   <si>
@@ -797,9 +742,6 @@
     <t>http://dx.doi.org/10.1016/j.ejbt.2017.04.004</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1016/j.ejbt.2017.04.005</t>
-  </si>
-  <si>
     <t>http://dx.doi.org/10.1016/j.ejbt.2017.04.006</t>
   </si>
   <si>
@@ -812,9 +754,6 @@
     <t>https://doi.org/10.2166/wst.2022.040</t>
   </si>
   <si>
-    <t>https://doi.org/10.2166/wst.2022.045</t>
-  </si>
-  <si>
     <t xml:space="preserve">waste removal </t>
   </si>
   <si>
@@ -1023,6 +962,102 @@
   </si>
   <si>
     <t>[0.99, 0.99, 0.01]; [0.01, 0.01, 0.99]</t>
+  </si>
+  <si>
+    <t>X_F</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>acetate + propionate</t>
+  </si>
+  <si>
+    <t>Unit_name</t>
+  </si>
+  <si>
+    <t>Distillation 2</t>
+  </si>
+  <si>
+    <t>Distilaltion 3</t>
+  </si>
+  <si>
+    <t>Acetate + Propionate</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units </t>
+  </si>
+  <si>
+    <t>%m</t>
+  </si>
+  <si>
+    <t>kJ/kg</t>
+  </si>
+  <si>
+    <t>kJ/K/kg</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>P. acidipropionici</t>
+  </si>
+  <si>
+    <t>P. avidum</t>
+  </si>
+  <si>
+    <t>P. acnes</t>
+  </si>
+  <si>
+    <t>P. propionicum</t>
+  </si>
+  <si>
+    <t>P. freudenreichii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed culture fermentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liquid - liquid extraction </t>
+  </si>
+  <si>
+    <t>Distillation 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitt process </t>
+  </si>
+  <si>
+    <t>Seperation technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">band filterpress </t>
+  </si>
+  <si>
+    <t>liquid - liquid extraction + Distillation</t>
+  </si>
+  <si>
+    <t>Distillation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference  </t>
+  </si>
+  <si>
+    <t>fricke</t>
+  </si>
+  <si>
+    <t>woo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saeder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu_energy </t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/statistics-explained/index.php?title=Electricity_price_statistics</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1068,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,12 +1144,6 @@
       <sz val="8"/>
       <color rgb="FF3B3A3A"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -1237,7 +1266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1403,12 +1432,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1506,11 +1546,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1554,10 +1593,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1578,8 +1617,17 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3817,9 +3865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>428553</xdr:colOff>
+      <xdr:colOff>426013</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>168127</xdr:rowOff>
+      <xdr:rowOff>163047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4154,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4186,7 +4234,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4195,7 +4243,7 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>119</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -4219,7 +4267,7 @@
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>189</v>
@@ -4251,7 +4299,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -4283,7 +4331,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -4327,14 +4375,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5896565C-0CFB-4158-9B0C-FB654BCEAE1A}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4343,7 +4391,7 @@
         <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
@@ -4366,9 +4414,9 @@
         <v>0.37</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="69">
+        <v>206</v>
+      </c>
+      <c r="D2" s="68">
         <f>B2*1/1.1</f>
         <v>0.33636363636363631</v>
       </c>
@@ -4376,20 +4424,20 @@
         <v>60</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>178</v>
       </c>
       <c r="B3">
         <v>1.85</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="69">
+        <v>206</v>
+      </c>
+      <c r="D3" s="68">
         <f t="shared" ref="D3:D12" si="0">B3*1/1.1</f>
         <v>1.6818181818181817</v>
       </c>
@@ -4397,7 +4445,7 @@
         <v>60</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4408,9 +4456,9 @@
         <v>0.4</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="69">
+        <v>206</v>
+      </c>
+      <c r="D4" s="68">
         <f t="shared" si="0"/>
         <v>0.36363636363636365</v>
       </c>
@@ -4418,7 +4466,7 @@
         <v>60</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4429,9 +4477,9 @@
         <v>0.51</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="69">
+        <v>206</v>
+      </c>
+      <c r="D5" s="68">
         <f t="shared" si="0"/>
         <v>0.46363636363636362</v>
       </c>
@@ -4439,7 +4487,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4450,9 +4498,9 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="69">
+        <v>206</v>
+      </c>
+      <c r="D6" s="68">
         <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
@@ -4460,20 +4508,20 @@
         <v>60</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="76" t="s">
         <v>182</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="69">
+        <v>206</v>
+      </c>
+      <c r="D7" s="68">
         <f t="shared" si="0"/>
         <v>5.4545454545454541</v>
       </c>
@@ -4481,7 +4529,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4492,9 +4540,9 @@
         <v>3.5</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="69">
+        <v>206</v>
+      </c>
+      <c r="D8" s="68">
         <f t="shared" si="0"/>
         <v>3.1818181818181817</v>
       </c>
@@ -4502,7 +4550,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4513,9 +4561,9 @@
         <v>0.85</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="69">
+        <v>206</v>
+      </c>
+      <c r="D9" s="68">
         <f t="shared" si="0"/>
         <v>0.7727272727272726</v>
       </c>
@@ -4523,7 +4571,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4534,9 +4582,9 @@
         <v>0.45</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="69">
+        <v>206</v>
+      </c>
+      <c r="D10" s="68">
         <f t="shared" si="0"/>
         <v>0.40909090909090906</v>
       </c>
@@ -4544,11 +4592,11 @@
         <v>60</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>186</v>
       </c>
       <c r="B11">
@@ -4556,9 +4604,9 @@
         <v>2.4750000000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="69">
+        <v>206</v>
+      </c>
+      <c r="D11" s="68">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
@@ -4566,11 +4614,11 @@
         <v>60</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>187</v>
       </c>
       <c r="B12">
@@ -4578,9 +4626,9 @@
         <v>0.66</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="69">
+        <v>206</v>
+      </c>
+      <c r="D12" s="68">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -4588,7 +4636,7 @@
         <v>60</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4611,9 +4659,10 @@
     <hyperlink ref="F3" r:id="rId7" xr:uid="{664A5837-CF7C-409A-BE98-AFB718953232}"/>
     <hyperlink ref="F2" r:id="rId8" xr:uid="{B031B00F-21F7-464A-B559-3CB7506D9BED}"/>
     <hyperlink ref="F4" r:id="rId9" xr:uid="{042C6450-ED4A-4FAE-883C-F3B67CDCDACA}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{C41D6960-09C0-4036-88F6-152881535582}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -4622,7 +4671,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4785,7 +4834,7 @@
         <v>192</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4802,7 +4851,7 @@
         <v>193</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4811,122 +4860,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7C6831-8C7B-4CA3-B2A4-37C4E254EDCB}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="4">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="4">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{1EBDD0B1-65A3-4293-9FAC-06E30BF8677E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4934,33 +4867,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85D0432-6958-423D-87F2-E8A979C87816}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N16" sqref="N16"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.1796875" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="8.6328125" customWidth="1"/>
     <col min="12" max="12" width="31.6328125" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4991,7 +4924,7 @@
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="J1" s="41" t="s">
         <v>108</v>
@@ -5062,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="M2" s="38" t="s">
         <v>99</v>
@@ -5070,18 +5003,18 @@
       <c r="N2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="65" t="s">
-        <v>299</v>
+      <c r="O2" s="64" t="s">
+        <v>279</v>
       </c>
       <c r="P2" s="38">
         <v>0</v>
       </c>
       <c r="Q2" s="38">
-        <f xml:space="preserve"> 0.5*0.001</f>
+        <f t="shared" ref="Q2:Q7" si="0" xml:space="preserve"> 0.5*0.001</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -5125,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>99</v>
@@ -5133,18 +5066,18 @@
       <c r="N3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="65" t="s">
-        <v>299</v>
+      <c r="O3" s="64" t="s">
+        <v>279</v>
       </c>
       <c r="P3" s="38">
         <v>0</v>
       </c>
       <c r="Q3" s="38">
-        <f t="shared" ref="Q3:Q7" si="0" xml:space="preserve"> 0.5*0.001</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -5188,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="M4" s="38" t="s">
         <v>99</v>
@@ -5196,8 +5129,8 @@
       <c r="N4" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="65" t="s">
-        <v>299</v>
+      <c r="O4" s="64" t="s">
+        <v>279</v>
       </c>
       <c r="P4" s="38">
         <v>0</v>
@@ -5207,7 +5140,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -5251,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="M5" s="38" t="s">
         <v>99</v>
@@ -5259,8 +5192,8 @@
       <c r="N5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="65" t="s">
-        <v>299</v>
+      <c r="O5" s="64" t="s">
+        <v>279</v>
       </c>
       <c r="P5" s="38">
         <v>0</v>
@@ -5270,7 +5203,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R5" s="38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -5314,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="M6" s="38" t="s">
         <v>99</v>
@@ -5322,8 +5255,8 @@
       <c r="N6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="65" t="s">
-        <v>299</v>
+      <c r="O6" s="64" t="s">
+        <v>279</v>
       </c>
       <c r="P6" s="38">
         <v>0</v>
@@ -5333,7 +5266,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -5385,8 +5318,8 @@
       <c r="N7" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="65" t="s">
-        <v>299</v>
+      <c r="O7" s="64" t="s">
+        <v>279</v>
       </c>
       <c r="P7" s="38">
         <v>0</v>
@@ -5396,7 +5329,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -5427,11 +5360,11 @@
       <c r="G8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="76">
+      <c r="H8" s="75">
         <v>4.473795180722892E-4</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="J8" s="38">
         <v>0</v>
@@ -5448,17 +5381,17 @@
       <c r="N8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="66" t="s">
-        <v>288</v>
+      <c r="O8" s="65" t="s">
+        <v>268</v>
       </c>
       <c r="P8" s="38">
         <v>0</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="73">
         <v>0.113</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -5510,17 +5443,17 @@
       <c r="N9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="67" t="s">
-        <v>318</v>
+      <c r="O9" s="66" t="s">
+        <v>298</v>
       </c>
       <c r="P9" s="38">
         <v>0</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="43">
         <v>0.27</v>
       </c>
       <c r="R9" s="38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="V9" t="s">
         <v>79</v>
@@ -5572,17 +5505,17 @@
       <c r="N10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O10" s="67" t="s">
-        <v>317</v>
+      <c r="O10" s="66" t="s">
+        <v>297</v>
       </c>
       <c r="P10" s="38">
         <v>0</v>
       </c>
-      <c r="Q10" s="44">
-        <v>0.64</v>
+      <c r="Q10" s="43">
+        <v>0.77</v>
       </c>
       <c r="R10" s="38" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -5610,16 +5543,16 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" customWidth="1"/>
     <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -5644,13 +5577,13 @@
       <c r="G1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>63</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -5664,22 +5597,22 @@
       <c r="A2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="51">
-        <v>0</v>
-      </c>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="50">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="E2" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <v>0.129</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="35">
@@ -5694,30 +5627,30 @@
       <c r="K2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="75" t="s">
-        <v>301</v>
+      <c r="L2" s="74" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="54">
-        <v>0</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="53">
+        <v>0</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="E3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>0.129</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>60</v>
       </c>
       <c r="H3">
@@ -5732,30 +5665,30 @@
       <c r="K3" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="75" t="s">
-        <v>301</v>
+      <c r="L3" s="74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="54">
-        <v>0</v>
-      </c>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="53">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="E4" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="55">
         <v>0.129</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="54" t="s">
         <v>60</v>
       </c>
       <c r="H4">
@@ -5770,30 +5703,30 @@
       <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="75" t="s">
-        <v>301</v>
+      <c r="L4" s="74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="54">
-        <v>0</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="53">
+        <v>0</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="55">
         <v>0.129</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>60</v>
       </c>
       <c r="H5">
@@ -5808,30 +5741,30 @@
       <c r="K5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="75" t="s">
-        <v>301</v>
+      <c r="L5" s="74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="54">
-        <v>0</v>
-      </c>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="53">
+        <v>0</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D6">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="55" t="s">
+      <c r="D6" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="55">
         <v>0.129</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="54" t="s">
         <v>60</v>
       </c>
       <c r="H6">
@@ -5846,68 +5779,68 @@
       <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="75" t="s">
-        <v>301</v>
+      <c r="L6" s="74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="57">
-        <v>0</v>
-      </c>
-      <c r="C7" s="58" t="s">
+      <c r="B7" s="56">
+        <v>0</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="58" t="s">
+      <c r="D7" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="E7" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="59">
         <v>0.129</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="59">
-        <v>0</v>
-      </c>
-      <c r="I7" s="59">
-        <v>0</v>
-      </c>
-      <c r="J7" s="59">
-        <v>0</v>
-      </c>
-      <c r="K7" s="59" t="s">
+      <c r="H7" s="58">
+        <v>0</v>
+      </c>
+      <c r="I7" s="58">
+        <v>0</v>
+      </c>
+      <c r="J7" s="58">
+        <v>0</v>
+      </c>
+      <c r="K7" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="75" t="s">
-        <v>301</v>
+      <c r="L7" s="74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="50">
         <v>45</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D8">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="52" t="s">
+      <c r="D8" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="E8" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="52">
         <v>1.27E-4</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="51" t="s">
         <v>60</v>
       </c>
       <c r="H8" s="35">
@@ -5922,30 +5855,30 @@
       <c r="K8" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="75" t="s">
-        <v>301</v>
+      <c r="L8" s="74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="54">
-        <v>0</v>
-      </c>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="53">
+        <v>0</v>
+      </c>
+      <c r="C9" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D9">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="55" t="s">
+      <c r="D9" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="E9" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="55">
         <v>1.27E-4</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="54" t="s">
         <v>60</v>
       </c>
       <c r="H9">
@@ -5960,46 +5893,46 @@
       <c r="K9" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="75" t="s">
-        <v>301</v>
+      <c r="L9" s="74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="57">
-        <v>0</v>
-      </c>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="56">
+        <v>0</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D10">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="58" t="s">
+      <c r="D10" s="68">
+        <v>0.22</v>
+      </c>
+      <c r="E10" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <v>1.27E-4</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="59">
-        <v>0</v>
-      </c>
-      <c r="I10" s="59">
-        <v>0</v>
-      </c>
-      <c r="J10" s="59">
-        <v>0</v>
-      </c>
-      <c r="K10" s="59" t="s">
+      <c r="H10" s="58">
+        <v>0</v>
+      </c>
+      <c r="I10" s="58">
+        <v>0</v>
+      </c>
+      <c r="J10" s="58">
+        <v>0</v>
+      </c>
+      <c r="K10" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="75" t="s">
-        <v>301</v>
+      <c r="L10" s="74" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6456,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>23</v>
@@ -6727,7 +6660,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="38" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>190</v>
@@ -6756,7 +6689,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="38" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>190</v>
@@ -6785,7 +6718,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="38" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>190</v>
@@ -6814,7 +6747,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="38" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>190</v>
@@ -6843,7 +6776,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="38" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>190</v>
@@ -6921,20 +6854,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25011645-F7D2-4809-AC8D-890E6AA83202}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -6978,7 +6913,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="21" t="s">
         <v>120</v>
       </c>
@@ -7025,7 +6960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="21" t="s">
         <v>150</v>
       </c>
@@ -7042,15 +6977,15 @@
         <v>0.05</v>
       </c>
       <c r="F3" s="24">
-        <f t="shared" ref="F3:F4" si="0" xml:space="preserve"> 25 +273</f>
+        <f xml:space="preserve"> 25 +273</f>
         <v>298</v>
       </c>
       <c r="G3" s="24">
-        <f t="shared" ref="G3:G4" si="1">90 + 273</f>
+        <f>90 + 273</f>
         <v>363</v>
       </c>
       <c r="H3" s="24">
-        <f t="shared" ref="H3:H4" si="2">125 + 273</f>
+        <f>125 + 273</f>
         <v>398</v>
       </c>
       <c r="I3" s="24">
@@ -7072,7 +7007,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="21" t="s">
         <v>151</v>
       </c>
@@ -7089,15 +7024,15 @@
         <v>0.05</v>
       </c>
       <c r="F4" s="24">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> 25 +273</f>
         <v>298</v>
       </c>
       <c r="G4" s="24">
-        <f t="shared" si="1"/>
+        <f>90 + 273</f>
         <v>363</v>
       </c>
       <c r="H4" s="24">
-        <f t="shared" si="2"/>
+        <f>125 + 273</f>
         <v>398</v>
       </c>
       <c r="I4" s="24">
@@ -7119,8 +7054,369 @@
         <v>80</v>
       </c>
     </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="24">
+        <v>25</v>
+      </c>
+      <c r="H8" s="24">
+        <v>95</v>
+      </c>
+      <c r="I8" s="24">
+        <v>120</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1.99</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.51</v>
+      </c>
+      <c r="L8" s="77">
+        <v>638</v>
+      </c>
+      <c r="M8" s="24">
+        <v>3774</v>
+      </c>
+      <c r="N8" s="24">
+        <v>4.18</v>
+      </c>
+      <c r="O8" s="24">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="24">
+        <v>100</v>
+      </c>
+      <c r="H9" s="24">
+        <v>115</v>
+      </c>
+      <c r="I9" s="24">
+        <v>138</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="L9" s="24">
+        <v>2202</v>
+      </c>
+      <c r="M9" s="24">
+        <v>3774</v>
+      </c>
+      <c r="N9" s="24">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O9" s="24">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="4">
+        <f xml:space="preserve"> 25 + 273</f>
+        <v>298</v>
+      </c>
+      <c r="C18" s="4">
+        <f xml:space="preserve"> 100 + 273</f>
+        <v>373</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="4">
+        <f>273+95</f>
+        <v>368</v>
+      </c>
+      <c r="C19" s="4">
+        <f xml:space="preserve"> 115 + 273</f>
+        <v>388</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="4">
+        <f xml:space="preserve"> 120 + 273</f>
+        <v>393</v>
+      </c>
+      <c r="C20" s="4">
+        <f xml:space="preserve"> 138 + 273</f>
+        <v>411</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="4">
+        <v>638</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2202</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3774</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3774</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="78">
+        <v>2.33</v>
+      </c>
+      <c r="C26" s="78">
+        <v>2.33</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="D27" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7138,10 +7434,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7416,17 +7712,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE819A9C-4E64-4D0F-8F31-2F1BF4DCFD79}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31:Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="4" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.90625" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
     <col min="9" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.90625" bestFit="1" customWidth="1"/>
@@ -7448,11 +7744,11 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="P2" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="X2" s="68" t="s">
-        <v>289</v>
+      <c r="P2" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="X2" s="67" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -7482,25 +7778,25 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>57</v>
@@ -7522,48 +7818,48 @@
       <c r="E4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>247</v>
+      <c r="H4" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>228</v>
       </c>
       <c r="K4">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="M4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N4" t="s">
-        <v>242</v>
+        <v>222</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="P4">
         <v>0.129</v>
       </c>
       <c r="Q4" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="R4" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="X4" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y4" s="56">
+        <v>272</v>
+      </c>
+      <c r="Y4" s="55">
         <f>(0.5 +0.17 +0.38+0.08) *1000</f>
         <v>1130.0000000000002</v>
       </c>
       <c r="Z4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -7582,41 +7878,41 @@
       <c r="E5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>247</v>
+      <c r="H5" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>228</v>
       </c>
       <c r="K5">
         <v>52.5</v>
       </c>
       <c r="L5" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="M5" t="s">
-        <v>240</v>
-      </c>
-      <c r="N5" t="s">
-        <v>243</v>
-      </c>
-      <c r="P5">
-        <v>0.127</v>
+        <v>222</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="P5" s="55">
+        <v>1.27E-4</v>
       </c>
       <c r="Q5" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="R5" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="X5" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="Y5">
         <v>9960</v>
@@ -7641,29 +7937,29 @@
       <c r="E6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>247</v>
+      <c r="H6" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>228</v>
       </c>
       <c r="K6">
         <v>44.62</v>
       </c>
       <c r="L6" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="M6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N6" t="s">
-        <v>244</v>
+        <v>222</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="X6" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="Y6">
         <v>11363</v>
@@ -7688,14 +7984,14 @@
       <c r="E7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>247</v>
+      <c r="H7" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1">
@@ -7714,40 +8010,40 @@
       <c r="E8" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="L8" s="48">
+      <c r="H8" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="L8" s="47">
         <f>AVERAGE(K4:K6)</f>
         <v>42.373333333333335</v>
       </c>
-      <c r="M8" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="P8" s="68" t="s">
-        <v>257</v>
+      <c r="M8" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="P8" s="67" t="s">
+        <v>237</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="X8" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y8" s="70">
+        <v>273</v>
+      </c>
+      <c r="Y8" s="69">
         <f xml:space="preserve"> Y4/(Y5 )</f>
         <v>0.1134538152610442</v>
       </c>
       <c r="Z8" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -7766,26 +8062,26 @@
       <c r="E9" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X9" t="s">
         <v>277</v>
-      </c>
-      <c r="I9" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="X9" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -7798,67 +8094,67 @@
       <c r="C10" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="71" t="s">
         <v>168</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>278</v>
+        <v>256</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>258</v>
       </c>
       <c r="P10" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>400</v>
       </c>
       <c r="R10" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="X10" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="15" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>167</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>278</v>
+      <c r="H11" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>258</v>
       </c>
       <c r="P11" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q11" s="69">
+        <v>243</v>
+      </c>
+      <c r="Q11" s="68">
         <v>2.83</v>
       </c>
       <c r="R11" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -7877,26 +8173,26 @@
       <c r="E12" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>254</v>
+      <c r="H12" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>234</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>0.38</v>
       </c>
       <c r="R12" t="s">
-        <v>268</v>
-      </c>
-      <c r="X12" s="68" t="s">
-        <v>304</v>
+        <v>248</v>
+      </c>
+      <c r="X12" s="67" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -7915,32 +8211,32 @@
       <c r="E13" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>254</v>
+      <c r="H13" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>234</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>30</v>
       </c>
       <c r="R13" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>57</v>
@@ -7962,17 +8258,17 @@
       <c r="E14" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="H14" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="I14" s="73" t="s">
-        <v>254</v>
+      <c r="H14" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>234</v>
       </c>
       <c r="X14" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="Y14">
         <v>9960</v>
@@ -7984,14 +8280,14 @@
     <row r="15" spans="1:27">
       <c r="C15" s="4"/>
       <c r="P15" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q15" s="69">
+        <v>250</v>
+      </c>
+      <c r="Q15" s="68">
         <f>Q11*Q12*Q13</f>
         <v>32.262</v>
       </c>
       <c r="R15" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="X15" t="s">
         <v>93</v>
@@ -8000,7 +8296,7 @@
         <v>9902</v>
       </c>
       <c r="Z15" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="AA15" s="36" t="s">
         <v>168</v>
@@ -8009,14 +8305,14 @@
     <row r="16" spans="1:27">
       <c r="C16" s="4"/>
       <c r="P16" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="Q16">
         <f>Q15/Q10</f>
         <v>8.0655000000000004E-2</v>
       </c>
       <c r="X16" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="Y16">
         <v>0.45</v>
@@ -8025,29 +8321,44 @@
         <v>67</v>
       </c>
       <c r="AA16" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="16:26">
-      <c r="Q17" s="69">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26">
+      <c r="Q17" s="68">
         <f>Q16*100</f>
         <v>8.0655000000000001</v>
       </c>
       <c r="R17" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="X17" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="Y17">
         <f xml:space="preserve"> Y15*Y16</f>
         <v>4455.9000000000005</v>
       </c>
       <c r="Z17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="16:26">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="C18" s="79" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="79" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>325</v>
+      </c>
       <c r="Y18">
         <f>Y17*10^(-3)</f>
         <v>4.4559000000000006</v>
@@ -8056,103 +8367,263 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="16:26">
+    <row r="19" spans="2:26">
+      <c r="B19" s="16"/>
+      <c r="C19" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26">
+      <c r="B20" s="16"/>
+      <c r="C20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="X20" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y20" s="56">
+        <v>289</v>
+      </c>
+      <c r="Y20" s="55">
         <f>Y18/Y14</f>
         <v>4.473795180722892E-4</v>
       </c>
       <c r="Z20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="16:26">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26">
+      <c r="B21" s="16"/>
+      <c r="C21" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26">
+      <c r="B22" s="16"/>
+      <c r="C22" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26">
+      <c r="B23" s="16"/>
+      <c r="C23" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26">
+      <c r="B24" s="16"/>
+      <c r="C24" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26">
+      <c r="B25" s="15"/>
+      <c r="C25" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26">
+      <c r="B26" s="15"/>
+      <c r="C26" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="P26" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>400</v>
       </c>
       <c r="R26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="16:26">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" s="15"/>
+      <c r="C27" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="Q27">
         <f>Q26/3600</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="R27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="16:26">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26">
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="B29" s="15"/>
       <c r="P29" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="Q29">
         <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="16:26">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26">
       <c r="P30" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="Q30">
         <f>Q29 *100</f>
         <v>2000</v>
       </c>
       <c r="R30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="16:26">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26">
       <c r="P32" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="Q32">
         <f>Q30*Q27</f>
         <v>222.2222222222222</v>
       </c>
       <c r="R32" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="16:18">
       <c r="P33" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="Q33">
         <f>Q32</f>
         <v>222.2222222222222</v>
       </c>
       <c r="R33" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="16:18">
       <c r="P35" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="Q35">
         <f>Q33/Q26</f>
         <v>0.55555555555555547</v>
       </c>
       <c r="R35" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="16:18">
       <c r="P36" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -8176,9 +8647,12 @@
     <hyperlink ref="I9" r:id="rId16" xr:uid="{DE7EA573-101C-4361-90D7-A078870E63AD}"/>
     <hyperlink ref="D10" r:id="rId17" xr:uid="{22AD580D-B18A-4955-B323-32557020E021}"/>
     <hyperlink ref="AA15" r:id="rId18" xr:uid="{9D2F1804-135A-4DD9-ABDD-9617C04DA008}"/>
+    <hyperlink ref="N6" r:id="rId19" xr:uid="{7282DF19-69E9-449C-8FB1-EBDD1F342D94}"/>
+    <hyperlink ref="N4" r:id="rId20" xr:uid="{FEB48B80-D16E-4341-8A89-09B0A5CFF876}"/>
+    <hyperlink ref="N5" r:id="rId21" xr:uid="{E5DC5564-6D0E-4172-B5C4-8C22837286FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
-  <drawing r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>